--- a/new_data/double_hit/20260204_210134_phrase47/20260204_210134_phrase47_keypoints.xlsx
+++ b/new_data/double_hit/20260204_210134_phrase47/20260204_210134_phrase47_keypoints.xlsx
@@ -491,1804 +491,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.753350976395703</v>
+        <v>3.559631528503502</v>
       </c>
       <c r="B2" t="n">
-        <v>6.736021182456549</v>
+        <v>3.543166669623391</v>
       </c>
       <c r="C2" t="n">
-        <v>6.738804060330229</v>
+        <v>3.556786523160929</v>
       </c>
       <c r="D2" t="n">
-        <v>6.56076995749762</v>
+        <v>3.465730340400814</v>
       </c>
       <c r="E2" t="n">
-        <v>6.663788550398257</v>
+        <v>3.485303307573444</v>
       </c>
       <c r="F2" t="n">
-        <v>6.455074506823097</v>
+        <v>3.371393558617509</v>
       </c>
       <c r="G2" t="n">
-        <v>6.694195354612526</v>
+        <v>3.458104357801817</v>
       </c>
       <c r="H2" t="n">
-        <v>6.413655388853424</v>
+        <v>3.455476967347304</v>
       </c>
       <c r="I2" t="n">
-        <v>6.744590841031396</v>
+        <v>3.567174904782115</v>
       </c>
       <c r="J2" t="n">
-        <v>6.542716591351964</v>
+        <v>3.683933298125573</v>
       </c>
       <c r="K2" t="n">
-        <v>6.830078980481969</v>
+        <v>3.692398444490236</v>
       </c>
       <c r="L2" t="n">
-        <v>6.52100523227162</v>
+        <v>3.375230567613682</v>
       </c>
       <c r="M2" t="n">
-        <v>6.69238223121097</v>
+        <v>3.41026547287797</v>
       </c>
       <c r="N2" t="n">
-        <v>6.558953240194376</v>
+        <v>3.564551517277048</v>
       </c>
       <c r="O2" t="n">
-        <v>6.751483944468828</v>
+        <v>3.694650285505821</v>
       </c>
       <c r="P2" t="n">
-        <v>6.53900768481003</v>
+        <v>3.346122210956346</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.781417551627521</v>
+        <v>3.783779593964462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.758583697253315</v>
+        <v>3.601087528583561</v>
       </c>
       <c r="B3" t="n">
-        <v>6.737546793723071</v>
+        <v>3.584988757625505</v>
       </c>
       <c r="C3" t="n">
-        <v>6.743685776789654</v>
+        <v>3.595586020426869</v>
       </c>
       <c r="D3" t="n">
-        <v>6.560931683073576</v>
+        <v>3.503937765053251</v>
       </c>
       <c r="E3" t="n">
-        <v>6.651858593745203</v>
+        <v>3.51258231633399</v>
       </c>
       <c r="F3" t="n">
-        <v>6.428682090794235</v>
+        <v>3.426432657881102</v>
       </c>
       <c r="G3" t="n">
-        <v>6.689140531888465</v>
+        <v>3.436139082478499</v>
       </c>
       <c r="H3" t="n">
-        <v>6.356477610965833</v>
+        <v>3.493455496072333</v>
       </c>
       <c r="I3" t="n">
-        <v>6.744863378576063</v>
+        <v>3.558509974849651</v>
       </c>
       <c r="J3" t="n">
-        <v>6.416902479028461</v>
+        <v>3.680317543062411</v>
       </c>
       <c r="K3" t="n">
-        <v>6.836446176305736</v>
+        <v>3.73503495075235</v>
       </c>
       <c r="L3" t="n">
-        <v>6.498155205339819</v>
+        <v>3.393317712732882</v>
       </c>
       <c r="M3" t="n">
-        <v>6.686602039329563</v>
+        <v>3.418852163343991</v>
       </c>
       <c r="N3" t="n">
-        <v>6.513896494732912</v>
+        <v>3.505898846377263</v>
       </c>
       <c r="O3" t="n">
-        <v>6.748081118553982</v>
+        <v>3.744696979001346</v>
       </c>
       <c r="P3" t="n">
-        <v>6.515883922366332</v>
+        <v>3.32749430375745</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.773270176501004</v>
+        <v>3.866310586118226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.744497998571124</v>
+        <v>3.656719064365153</v>
       </c>
       <c r="B4" t="n">
-        <v>6.732185291388308</v>
+        <v>3.640074800568965</v>
       </c>
       <c r="C4" t="n">
-        <v>6.732958579234825</v>
+        <v>3.651597836405824</v>
       </c>
       <c r="D4" t="n">
-        <v>6.547901393520405</v>
+        <v>3.555893865434486</v>
       </c>
       <c r="E4" t="n">
-        <v>6.662594776054252</v>
+        <v>3.565657786942106</v>
       </c>
       <c r="F4" t="n">
-        <v>6.426629373946819</v>
+        <v>3.476771566686181</v>
       </c>
       <c r="G4" t="n">
-        <v>6.683532248304465</v>
+        <v>3.504870452274153</v>
       </c>
       <c r="H4" t="n">
-        <v>6.371775652484082</v>
+        <v>3.557069640858105</v>
       </c>
       <c r="I4" t="n">
-        <v>6.743746873118349</v>
+        <v>3.624552454331123</v>
       </c>
       <c r="J4" t="n">
-        <v>6.496423543709856</v>
+        <v>3.78074426657096</v>
       </c>
       <c r="K4" t="n">
-        <v>6.815205618346509</v>
+        <v>3.82312785920899</v>
       </c>
       <c r="L4" t="n">
-        <v>6.490230652117954</v>
+        <v>3.444796370416566</v>
       </c>
       <c r="M4" t="n">
-        <v>6.675041056583137</v>
+        <v>3.462598578316114</v>
       </c>
       <c r="N4" t="n">
-        <v>6.521182531421557</v>
+        <v>3.523117351466694</v>
       </c>
       <c r="O4" t="n">
-        <v>6.73022002614863</v>
+        <v>3.792258932604433</v>
       </c>
       <c r="P4" t="n">
-        <v>6.499383121749859</v>
+        <v>3.337526422877948</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.761733153099164</v>
+        <v>3.909475481707203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.742197302507241</v>
+        <v>3.710059457445691</v>
       </c>
       <c r="B5" t="n">
-        <v>6.727301777978038</v>
+        <v>3.695927954188063</v>
       </c>
       <c r="C5" t="n">
-        <v>6.728075065824555</v>
+        <v>3.705921499432081</v>
       </c>
       <c r="D5" t="n">
-        <v>6.543873827695475</v>
+        <v>3.59204850483015</v>
       </c>
       <c r="E5" t="n">
-        <v>6.643873543178258</v>
+        <v>3.620766755868756</v>
       </c>
       <c r="F5" t="n">
-        <v>6.420468827470107</v>
+        <v>3.522268362279661</v>
       </c>
       <c r="G5" t="n">
-        <v>6.678295933545164</v>
+        <v>3.524120636159643</v>
       </c>
       <c r="H5" t="n">
-        <v>6.381792455471932</v>
+        <v>3.608598517362111</v>
       </c>
       <c r="I5" t="n">
-        <v>6.738265574060655</v>
+        <v>3.670427346694997</v>
       </c>
       <c r="J5" t="n">
-        <v>6.530807599125424</v>
+        <v>3.841098918794257</v>
       </c>
       <c r="K5" t="n">
-        <v>6.819234382138668</v>
+        <v>3.85160666108983</v>
       </c>
       <c r="L5" t="n">
-        <v>6.487725702641473</v>
+        <v>3.46389080317816</v>
       </c>
       <c r="M5" t="n">
-        <v>6.675194396388489</v>
+        <v>3.50408660199174</v>
       </c>
       <c r="N5" t="n">
-        <v>6.511464621257419</v>
+        <v>3.528261141504718</v>
       </c>
       <c r="O5" t="n">
-        <v>6.731434764919147</v>
+        <v>3.829207611608371</v>
       </c>
       <c r="P5" t="n">
-        <v>6.486967389385321</v>
+        <v>3.337871404339288</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.75423747214539</v>
+        <v>3.91959129886157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.735239508839426</v>
+        <v>3.720967494685857</v>
       </c>
       <c r="B6" t="n">
-        <v>6.722560822668056</v>
+        <v>3.706246102241697</v>
       </c>
       <c r="C6" t="n">
-        <v>6.723888769341743</v>
+        <v>3.708663519802545</v>
       </c>
       <c r="D6" t="n">
-        <v>6.532911828563702</v>
+        <v>3.57048024931097</v>
       </c>
       <c r="E6" t="n">
-        <v>6.65627969180496</v>
+        <v>3.642300076556408</v>
       </c>
       <c r="F6" t="n">
-        <v>6.411764397581963</v>
+        <v>3.515789042744677</v>
       </c>
       <c r="G6" t="n">
-        <v>6.679041668145407</v>
+        <v>3.552507370203227</v>
       </c>
       <c r="H6" t="n">
-        <v>6.365710943385716</v>
+        <v>3.620407582132108</v>
       </c>
       <c r="I6" t="n">
-        <v>6.720288877817675</v>
+        <v>3.67623744586352</v>
       </c>
       <c r="J6" t="n">
-        <v>6.506975838049206</v>
+        <v>3.851774421062065</v>
       </c>
       <c r="K6" t="n">
-        <v>6.806237635667917</v>
+        <v>3.856556126127479</v>
       </c>
       <c r="L6" t="n">
-        <v>6.476630729147247</v>
+        <v>3.470412699539069</v>
       </c>
       <c r="M6" t="n">
-        <v>6.671560362798385</v>
+        <v>3.53752141919114</v>
       </c>
       <c r="N6" t="n">
-        <v>6.502949470191505</v>
+        <v>3.538739771440684</v>
       </c>
       <c r="O6" t="n">
-        <v>6.725757598219461</v>
+        <v>3.867662855221961</v>
       </c>
       <c r="P6" t="n">
-        <v>6.486265979572562</v>
+        <v>3.338593390857536</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.747806185074856</v>
+        <v>3.931193301973864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.73741022545893</v>
+        <v>3.730884256081413</v>
       </c>
       <c r="B7" t="n">
-        <v>6.724473976333259</v>
+        <v>3.713447044390435</v>
       </c>
       <c r="C7" t="n">
-        <v>6.725257446901225</v>
+        <v>3.715628651838468</v>
       </c>
       <c r="D7" t="n">
-        <v>6.544901084594605</v>
+        <v>3.570916934705072</v>
       </c>
       <c r="E7" t="n">
-        <v>6.664230600305871</v>
+        <v>3.660608111704124</v>
       </c>
       <c r="F7" t="n">
-        <v>6.408108800581733</v>
+        <v>3.535224454018165</v>
       </c>
       <c r="G7" t="n">
-        <v>6.669259067750887</v>
+        <v>3.589097967184002</v>
       </c>
       <c r="H7" t="n">
-        <v>6.349005889356645</v>
+        <v>3.664211494014453</v>
       </c>
       <c r="I7" t="n">
-        <v>6.720283486965143</v>
+        <v>3.696982185510324</v>
       </c>
       <c r="J7" t="n">
-        <v>6.436934887036931</v>
+        <v>3.852134686512198</v>
       </c>
       <c r="K7" t="n">
-        <v>6.815606338384712</v>
+        <v>3.886966533068229</v>
       </c>
       <c r="L7" t="n">
-        <v>6.48184428252919</v>
+        <v>3.488537326821262</v>
       </c>
       <c r="M7" t="n">
-        <v>6.669181798864597</v>
+        <v>3.56816508891324</v>
       </c>
       <c r="N7" t="n">
-        <v>6.51483450307346</v>
+        <v>3.555850196895076</v>
       </c>
       <c r="O7" t="n">
-        <v>6.718754281796933</v>
+        <v>3.903766184083818</v>
       </c>
       <c r="P7" t="n">
-        <v>6.52246615330776</v>
+        <v>3.341126166143327</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.724129560754833</v>
+        <v>3.949911093583045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.740215265726352</v>
+        <v>3.769144446885637</v>
       </c>
       <c r="B8" t="n">
-        <v>6.729410200301619</v>
+        <v>3.749330574937261</v>
       </c>
       <c r="C8" t="n">
-        <v>6.731174207046773</v>
+        <v>3.752102071571827</v>
       </c>
       <c r="D8" t="n">
-        <v>6.547262278003569</v>
+        <v>3.599947051895965</v>
       </c>
       <c r="E8" t="n">
-        <v>6.679438794281923</v>
+        <v>3.69705205517338</v>
       </c>
       <c r="F8" t="n">
-        <v>6.408264536321543</v>
+        <v>3.578737970113433</v>
       </c>
       <c r="G8" t="n">
-        <v>6.669268651488721</v>
+        <v>3.621568437471428</v>
       </c>
       <c r="H8" t="n">
-        <v>6.353320967316609</v>
+        <v>3.721412549883346</v>
       </c>
       <c r="I8" t="n">
-        <v>6.719473062134517</v>
+        <v>3.732692497517489</v>
       </c>
       <c r="J8" t="n">
-        <v>6.44532844442907</v>
+        <v>3.856209325143663</v>
       </c>
       <c r="K8" t="n">
-        <v>6.817730334282273</v>
+        <v>3.923921398448584</v>
       </c>
       <c r="L8" t="n">
-        <v>6.479822712829735</v>
+        <v>3.534578887443885</v>
       </c>
       <c r="M8" t="n">
-        <v>6.667097335885603</v>
+        <v>3.608684034918456</v>
       </c>
       <c r="N8" t="n">
-        <v>6.521214876536749</v>
+        <v>3.566026058291132</v>
       </c>
       <c r="O8" t="n">
-        <v>6.718939367733861</v>
+        <v>3.918111663184555</v>
       </c>
       <c r="P8" t="n">
-        <v>6.529470068713903</v>
+        <v>3.345510487500108</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.712906404767071</v>
+        <v>3.951975159879165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.728057096316116</v>
+        <v>3.824002685615174</v>
       </c>
       <c r="B9" t="n">
-        <v>6.716346966649641</v>
+        <v>3.803853657626824</v>
       </c>
       <c r="C9" t="n">
-        <v>6.716833940328354</v>
+        <v>3.805618594427985</v>
       </c>
       <c r="D9" t="n">
-        <v>6.531577293070254</v>
+        <v>3.654601868012749</v>
       </c>
       <c r="E9" t="n">
-        <v>6.660741520750515</v>
+        <v>3.743908034056002</v>
       </c>
       <c r="F9" t="n">
-        <v>6.41648019558013</v>
+        <v>3.635217767273068</v>
       </c>
       <c r="G9" t="n">
-        <v>6.683736501717061</v>
+        <v>3.671660982933334</v>
       </c>
       <c r="H9" t="n">
-        <v>6.370349472497592</v>
+        <v>3.722616345953087</v>
       </c>
       <c r="I9" t="n">
-        <v>6.709642543050824</v>
+        <v>3.76280377496328</v>
       </c>
       <c r="J9" t="n">
-        <v>6.515362806621584</v>
+        <v>3.971997913007721</v>
       </c>
       <c r="K9" t="n">
-        <v>6.810949240780781</v>
+        <v>3.996271070638866</v>
       </c>
       <c r="L9" t="n">
-        <v>6.478868531931592</v>
+        <v>3.585412342457784</v>
       </c>
       <c r="M9" t="n">
-        <v>6.67352263311999</v>
+        <v>3.653395160707048</v>
       </c>
       <c r="N9" t="n">
-        <v>6.519053144671465</v>
+        <v>3.615689924257828</v>
       </c>
       <c r="O9" t="n">
-        <v>6.726137952814766</v>
+        <v>3.965519321281726</v>
       </c>
       <c r="P9" t="n">
-        <v>6.479038643278153</v>
+        <v>3.366171165208547</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.710002532203231</v>
+        <v>3.975654425374333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.747320409363372</v>
+        <v>3.846071673719591</v>
       </c>
       <c r="B10" t="n">
-        <v>6.72455124521955</v>
+        <v>3.81995242858488</v>
       </c>
       <c r="C10" t="n">
-        <v>6.728493755371199</v>
+        <v>3.823270509771063</v>
       </c>
       <c r="D10" t="n">
-        <v>6.533203533584038</v>
+        <v>3.668913503995444</v>
       </c>
       <c r="E10" t="n">
-        <v>6.643834010259691</v>
+        <v>3.747015778444026</v>
       </c>
       <c r="F10" t="n">
-        <v>6.396004539696816</v>
+        <v>3.65664519175265</v>
       </c>
       <c r="G10" t="n">
-        <v>6.669165626307001</v>
+        <v>3.693332223424624</v>
       </c>
       <c r="H10" t="n">
-        <v>6.315437649624235</v>
+        <v>3.761468973275309</v>
       </c>
       <c r="I10" t="n">
-        <v>6.738432091505529</v>
+        <v>3.772385744223357</v>
       </c>
       <c r="J10" t="n">
-        <v>6.423752455645638</v>
+        <v>3.964346093189573</v>
       </c>
       <c r="K10" t="n">
-        <v>6.825329639401382</v>
+        <v>4.040913418477888</v>
       </c>
       <c r="L10" t="n">
-        <v>6.469108692914428</v>
+        <v>3.616016346589919</v>
       </c>
       <c r="M10" t="n">
-        <v>6.655921499603398</v>
+        <v>3.674523091787176</v>
       </c>
       <c r="N10" t="n">
-        <v>6.542191282721913</v>
+        <v>3.67157764880396</v>
       </c>
       <c r="O10" t="n">
-        <v>6.73826497507704</v>
+        <v>3.978527815267522</v>
       </c>
       <c r="P10" t="n">
-        <v>6.538572223722177</v>
+        <v>3.41137974844192</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.740593224387198</v>
+        <v>3.975253402620749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.736948409092032</v>
+        <v>3.880999227157829</v>
       </c>
       <c r="B11" t="n">
-        <v>6.712321796759169</v>
+        <v>3.858683147901249</v>
       </c>
       <c r="C11" t="n">
-        <v>6.717022021183355</v>
+        <v>3.860241750853697</v>
       </c>
       <c r="D11" t="n">
-        <v>6.521578459590843</v>
+        <v>3.715946704367172</v>
       </c>
       <c r="E11" t="n">
-        <v>6.627473970792661</v>
+        <v>3.794388865614164</v>
       </c>
       <c r="F11" t="n">
-        <v>6.392269876859451</v>
+        <v>3.688442074819674</v>
       </c>
       <c r="G11" t="n">
-        <v>6.661973630045857</v>
+        <v>3.73885449233276</v>
       </c>
       <c r="H11" t="n">
-        <v>6.309601752266667</v>
+        <v>3.798521001155851</v>
       </c>
       <c r="I11" t="n">
-        <v>6.733536598422966</v>
+        <v>3.807901731230147</v>
       </c>
       <c r="J11" t="n">
-        <v>6.405587079564042</v>
+        <v>4.025478045414371</v>
       </c>
       <c r="K11" t="n">
-        <v>6.827215239820311</v>
+        <v>4.055957958113683</v>
       </c>
       <c r="L11" t="n">
-        <v>6.465666334081015</v>
+        <v>3.626253707845644</v>
       </c>
       <c r="M11" t="n">
-        <v>6.650666616352043</v>
+        <v>3.686117452905072</v>
       </c>
       <c r="N11" t="n">
-        <v>6.53473034281779</v>
+        <v>3.723480255224418</v>
       </c>
       <c r="O11" t="n">
-        <v>6.734953793655236</v>
+        <v>3.990632006583033</v>
       </c>
       <c r="P11" t="n">
-        <v>6.52980430157088</v>
+        <v>3.452586110038351</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.746608816829164</v>
+        <v>3.967238042212012</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.729187378396967</v>
+        <v>3.909026423560269</v>
       </c>
       <c r="B12" t="n">
-        <v>6.706829715996411</v>
+        <v>3.887236550203582</v>
       </c>
       <c r="C12" t="n">
-        <v>6.718536251761199</v>
+        <v>3.89151970611073</v>
       </c>
       <c r="D12" t="n">
-        <v>6.541517426155428</v>
+        <v>3.7409171030109</v>
       </c>
       <c r="E12" t="n">
-        <v>6.613769824673003</v>
+        <v>3.83709924448878</v>
       </c>
       <c r="F12" t="n">
-        <v>6.399619405811249</v>
+        <v>3.701274075125354</v>
       </c>
       <c r="G12" t="n">
-        <v>6.668572632528494</v>
+        <v>3.770725975821275</v>
       </c>
       <c r="H12" t="n">
-        <v>6.324235520956266</v>
+        <v>3.797472592305513</v>
       </c>
       <c r="I12" t="n">
-        <v>6.710096572630731</v>
+        <v>3.819783940803656</v>
       </c>
       <c r="J12" t="n">
-        <v>6.428674304007245</v>
+        <v>4.026429291764523</v>
       </c>
       <c r="K12" t="n">
-        <v>6.817192446996314</v>
+        <v>4.05613881864774</v>
       </c>
       <c r="L12" t="n">
-        <v>6.448884011165654</v>
+        <v>3.646931125160857</v>
       </c>
       <c r="M12" t="n">
-        <v>6.647357231881083</v>
+        <v>3.711893536100918</v>
       </c>
       <c r="N12" t="n">
-        <v>6.482504961456153</v>
+        <v>3.797507163232545</v>
       </c>
       <c r="O12" t="n">
-        <v>6.709376594325918</v>
+        <v>4.012962642019415</v>
       </c>
       <c r="P12" t="n">
-        <v>6.490503189662621</v>
+        <v>3.545328262324194</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.694836866063819</v>
+        <v>3.961935953718626</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.728397917992853</v>
+        <v>3.933112170376445</v>
       </c>
       <c r="B13" t="n">
-        <v>6.705427495354508</v>
+        <v>3.912722601516845</v>
       </c>
       <c r="C13" t="n">
-        <v>6.718279287790513</v>
+        <v>3.913042473568024</v>
       </c>
       <c r="D13" t="n">
-        <v>6.538811817168038</v>
+        <v>3.780424758424275</v>
       </c>
       <c r="E13" t="n">
-        <v>6.611721899694503</v>
+        <v>3.846755450265855</v>
       </c>
       <c r="F13" t="n">
-        <v>6.398127337627147</v>
+        <v>3.72563529764431</v>
       </c>
       <c r="G13" t="n">
-        <v>6.668018572684939</v>
+        <v>3.798518453824386</v>
       </c>
       <c r="H13" t="n">
-        <v>6.321062105765831</v>
+        <v>3.817671111305193</v>
       </c>
       <c r="I13" t="n">
-        <v>6.711683280225949</v>
+        <v>3.854667461797988</v>
       </c>
       <c r="J13" t="n">
-        <v>6.409756604505644</v>
+        <v>4.048721717228922</v>
       </c>
       <c r="K13" t="n">
-        <v>6.82140869265986</v>
+        <v>4.080332645098957</v>
       </c>
       <c r="L13" t="n">
-        <v>6.454102955400129</v>
+        <v>3.670032874222325</v>
       </c>
       <c r="M13" t="n">
-        <v>6.652188034733263</v>
+        <v>3.733278747659071</v>
       </c>
       <c r="N13" t="n">
-        <v>6.478037142674453</v>
+        <v>3.841936990846437</v>
       </c>
       <c r="O13" t="n">
-        <v>6.702946505222613</v>
+        <v>4.024059909597026</v>
       </c>
       <c r="P13" t="n">
-        <v>6.490246824675549</v>
+        <v>3.628352345068798</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.690799716501055</v>
+        <v>3.96997969867798</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.724635701909215</v>
+        <v>3.958123326323623</v>
       </c>
       <c r="B14" t="n">
-        <v>6.702498465478852</v>
+        <v>3.942279652416622</v>
       </c>
       <c r="C14" t="n">
-        <v>6.712297837414583</v>
+        <v>3.944700345117925</v>
       </c>
       <c r="D14" t="n">
-        <v>6.52464405773064</v>
+        <v>3.808251807354419</v>
       </c>
       <c r="E14" t="n">
-        <v>6.610180714854</v>
+        <v>3.879992667324424</v>
       </c>
       <c r="F14" t="n">
-        <v>6.38922943603147</v>
+        <v>3.751720699660977</v>
       </c>
       <c r="G14" t="n">
-        <v>6.66997125926871</v>
+        <v>3.813420706802603</v>
       </c>
       <c r="H14" t="n">
-        <v>6.33517835261237</v>
+        <v>3.861198455771275</v>
       </c>
       <c r="I14" t="n">
-        <v>6.713447286971103</v>
+        <v>3.870237843429181</v>
       </c>
       <c r="J14" t="n">
-        <v>6.437632103964388</v>
+        <v>4.077087708716286</v>
       </c>
       <c r="K14" t="n">
-        <v>6.816920508435262</v>
+        <v>4.098654508617486</v>
       </c>
       <c r="L14" t="n">
-        <v>6.449732171964003</v>
+        <v>3.69039988100323</v>
       </c>
       <c r="M14" t="n">
-        <v>6.656724137647034</v>
+        <v>3.74584873672829</v>
       </c>
       <c r="N14" t="n">
-        <v>6.478274340185855</v>
+        <v>3.87454610874649</v>
       </c>
       <c r="O14" t="n">
-        <v>6.70702258872033</v>
+        <v>4.056006721316024</v>
       </c>
       <c r="P14" t="n">
-        <v>6.502907541338479</v>
+        <v>3.66168563291407</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.695568225057311</v>
+        <v>3.965966559906185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.711302326647029</v>
+        <v>3.966589928306266</v>
       </c>
       <c r="B15" t="n">
-        <v>6.696563136841251</v>
+        <v>3.946033327283421</v>
       </c>
       <c r="C15" t="n">
-        <v>6.700685941060911</v>
+        <v>3.96154257295944</v>
       </c>
       <c r="D15" t="n">
-        <v>6.512936323998623</v>
+        <v>3.842814000679592</v>
       </c>
       <c r="E15" t="n">
-        <v>6.633461411004737</v>
+        <v>3.882033079828365</v>
       </c>
       <c r="F15" t="n">
-        <v>6.387628352829501</v>
+        <v>3.775652514875734</v>
       </c>
       <c r="G15" t="n">
-        <v>6.674516945920315</v>
+        <v>3.829391747282884</v>
       </c>
       <c r="H15" t="n">
-        <v>6.329628769422605</v>
+        <v>3.875119258326249</v>
       </c>
       <c r="I15" t="n">
-        <v>6.710793789558188</v>
+        <v>3.8881532256267</v>
       </c>
       <c r="J15" t="n">
-        <v>6.433793816961688</v>
+        <v>4.067663310102581</v>
       </c>
       <c r="K15" t="n">
-        <v>6.807633866473674</v>
+        <v>4.107908236022997</v>
       </c>
       <c r="L15" t="n">
-        <v>6.446651000250226</v>
+        <v>3.721282999883096</v>
       </c>
       <c r="M15" t="n">
-        <v>6.657423750508949</v>
+        <v>3.776441459821077</v>
       </c>
       <c r="N15" t="n">
-        <v>6.485088976769768</v>
+        <v>3.873615604952558</v>
       </c>
       <c r="O15" t="n">
-        <v>6.717287969908261</v>
+        <v>4.097935433335198</v>
       </c>
       <c r="P15" t="n">
-        <v>6.506358884926113</v>
+        <v>3.651213553259015</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.706507462811728</v>
+        <v>3.981305134374009</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.574211748794059</v>
+        <v>3.994125489735846</v>
       </c>
       <c r="B16" t="n">
-        <v>6.548094266244323</v>
+        <v>3.97826143717712</v>
       </c>
       <c r="C16" t="n">
-        <v>6.55708860420196</v>
+        <v>3.983725463170818</v>
       </c>
       <c r="D16" t="n">
-        <v>6.317042925711506</v>
+        <v>3.837878727917252</v>
       </c>
       <c r="E16" t="n">
-        <v>6.462905019617462</v>
+        <v>3.92652331558844</v>
       </c>
       <c r="F16" t="n">
-        <v>6.204091387529071</v>
+        <v>3.769271085649927</v>
       </c>
       <c r="G16" t="n">
-        <v>6.36933359628714</v>
+        <v>3.869669424607859</v>
       </c>
       <c r="H16" t="n">
-        <v>6.36222066586313</v>
+        <v>3.865304390189317</v>
       </c>
       <c r="I16" t="n">
-        <v>6.410474186876</v>
+        <v>3.894606344038039</v>
       </c>
       <c r="J16" t="n">
-        <v>6.706587127632477</v>
+        <v>4.074605152250817</v>
       </c>
       <c r="K16" t="n">
-        <v>6.789785951707844</v>
+        <v>4.125003377488595</v>
       </c>
       <c r="L16" t="n">
-        <v>6.131464025268722</v>
+        <v>3.725129834300637</v>
       </c>
       <c r="M16" t="n">
-        <v>6.287197968127782</v>
+        <v>3.819764289960921</v>
       </c>
       <c r="N16" t="n">
-        <v>6.349044224307983</v>
+        <v>3.857315230904225</v>
       </c>
       <c r="O16" t="n">
-        <v>6.826284419283139</v>
+        <v>4.147259048598991</v>
       </c>
       <c r="P16" t="n">
-        <v>5.980678286050315</v>
+        <v>3.633558362775481</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.619732706556879</v>
+        <v>4.021811343721897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.615754856371965</v>
+        <v>4.019311319840664</v>
       </c>
       <c r="B17" t="n">
-        <v>6.590507697014321</v>
+        <v>4.003976384417792</v>
       </c>
       <c r="C17" t="n">
-        <v>6.596368152700091</v>
+        <v>4.007559388076396</v>
       </c>
       <c r="D17" t="n">
-        <v>6.363561191192725</v>
+        <v>3.866171210696609</v>
       </c>
       <c r="E17" t="n">
-        <v>6.502251654280435</v>
+        <v>3.950431113106521</v>
       </c>
       <c r="F17" t="n">
-        <v>6.23907921842821</v>
+        <v>3.790586791449518</v>
       </c>
       <c r="G17" t="n">
-        <v>6.407216913979513</v>
+        <v>3.892706762573696</v>
       </c>
       <c r="H17" t="n">
-        <v>6.401753584430259</v>
+        <v>3.889464737426986</v>
       </c>
       <c r="I17" t="n">
-        <v>6.466230576646018</v>
+        <v>3.928484760816947</v>
       </c>
       <c r="J17" t="n">
-        <v>6.75031412946941</v>
+        <v>4.10115962716165</v>
       </c>
       <c r="K17" t="n">
-        <v>6.805601515069155</v>
+        <v>4.134647210512837</v>
       </c>
       <c r="L17" t="n">
-        <v>6.196828112217784</v>
+        <v>3.76482053367504</v>
       </c>
       <c r="M17" t="n">
-        <v>6.364665117994531</v>
+        <v>3.866772744826984</v>
       </c>
       <c r="N17" t="n">
-        <v>6.385712204246225</v>
+        <v>3.87962949063833</v>
       </c>
       <c r="O17" t="n">
-        <v>6.883372948612148</v>
+        <v>4.181971898385128</v>
       </c>
       <c r="P17" t="n">
-        <v>6.012499290578782</v>
+        <v>3.652884238795949</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.751934979130662</v>
+        <v>4.102090130955581</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.721319129634879</v>
+        <v>4.083483694121896</v>
       </c>
       <c r="B18" t="n">
-        <v>6.693216016402567</v>
+        <v>4.066424579201311</v>
       </c>
       <c r="C18" t="n">
-        <v>6.697486170591432</v>
+        <v>4.069006117689443</v>
       </c>
       <c r="D18" t="n">
-        <v>6.436160401223185</v>
+        <v>3.910282621877301</v>
       </c>
       <c r="E18" t="n">
-        <v>6.627390113086609</v>
+        <v>4.026479510584845</v>
       </c>
       <c r="F18" t="n">
-        <v>6.319910260274852</v>
+        <v>3.839706256291568</v>
       </c>
       <c r="G18" t="n">
-        <v>6.513044740032875</v>
+        <v>3.957027609888923</v>
       </c>
       <c r="H18" t="n">
-        <v>6.485851482911222</v>
+        <v>3.940456490896247</v>
       </c>
       <c r="I18" t="n">
-        <v>6.552436897450561</v>
+        <v>3.980868448979908</v>
       </c>
       <c r="J18" t="n">
-        <v>6.891072882978518</v>
+        <v>4.186637154012115</v>
       </c>
       <c r="K18" t="n">
-        <v>6.917618638812731</v>
+        <v>4.202665327498125</v>
       </c>
       <c r="L18" t="n">
-        <v>6.217050398032099</v>
+        <v>3.777147434541542</v>
       </c>
       <c r="M18" t="n">
-        <v>6.409019854659621</v>
+        <v>3.893764632940908</v>
       </c>
       <c r="N18" t="n">
-        <v>6.372908330499392</v>
+        <v>3.8718652243312</v>
       </c>
       <c r="O18" t="n">
-        <v>6.946268624085221</v>
+        <v>4.220174228374634</v>
       </c>
       <c r="P18" t="n">
-        <v>5.999490564435737</v>
+        <v>3.645002795241403</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.904842917295786</v>
+        <v>4.194986942651836</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.79743377449974</v>
+        <v>4.129600582975002</v>
       </c>
       <c r="B19" t="n">
-        <v>6.763893686997219</v>
+        <v>4.109230664958135</v>
       </c>
       <c r="C19" t="n">
-        <v>6.780702365191624</v>
+        <v>4.11944582803966</v>
       </c>
       <c r="D19" t="n">
-        <v>6.527977401546186</v>
+        <v>3.965941086591529</v>
       </c>
       <c r="E19" t="n">
-        <v>6.661790341059772</v>
+        <v>4.047244992787868</v>
       </c>
       <c r="F19" t="n">
-        <v>6.476059897762481</v>
+        <v>3.934424046081226</v>
       </c>
       <c r="G19" t="n">
-        <v>6.546640533011559</v>
+        <v>3.977343306136021</v>
       </c>
       <c r="H19" t="n">
-        <v>6.625113376367311</v>
+        <v>4.024988593868482</v>
       </c>
       <c r="I19" t="n">
-        <v>6.633227807395022</v>
+        <v>4.029882017613887</v>
       </c>
       <c r="J19" t="n">
-        <v>6.934426718023522</v>
+        <v>4.212816079484019</v>
       </c>
       <c r="K19" t="n">
-        <v>7.017418892751834</v>
+        <v>4.263303825227588</v>
       </c>
       <c r="L19" t="n">
-        <v>6.325157356739217</v>
+        <v>3.842791438600897</v>
       </c>
       <c r="M19" t="n">
-        <v>6.445844768304902</v>
+        <v>3.916142939866147</v>
       </c>
       <c r="N19" t="n">
-        <v>6.381334233006722</v>
+        <v>3.876944967178089</v>
       </c>
       <c r="O19" t="n">
-        <v>6.987287022016691</v>
+        <v>4.245039094714787</v>
       </c>
       <c r="P19" t="n">
-        <v>6.010454360518354</v>
+        <v>3.651661155787969</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.080338527569494</v>
+        <v>4.301541090048622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.881486749209603</v>
+        <v>4.180751362708614</v>
       </c>
       <c r="B20" t="n">
-        <v>6.841406958602295</v>
+        <v>4.156403968560471</v>
       </c>
       <c r="C20" t="n">
-        <v>6.859915552295088</v>
+        <v>4.167652256503542</v>
       </c>
       <c r="D20" t="n">
-        <v>6.610376582495991</v>
+        <v>4.016083123064767</v>
       </c>
       <c r="E20" t="n">
-        <v>6.726190064389241</v>
+        <v>4.086409122357883</v>
       </c>
       <c r="F20" t="n">
-        <v>6.524173256609522</v>
+        <v>3.963683059199528</v>
       </c>
       <c r="G20" t="n">
-        <v>6.641896897249901</v>
+        <v>4.035241239113001</v>
       </c>
       <c r="H20" t="n">
-        <v>6.623323613326726</v>
+        <v>4.023807723781932</v>
       </c>
       <c r="I20" t="n">
-        <v>6.707380181938278</v>
+        <v>4.074976334835804</v>
       </c>
       <c r="J20" t="n">
-        <v>6.995202590484337</v>
+        <v>4.249707261577735</v>
       </c>
       <c r="K20" t="n">
-        <v>7.133345582548253</v>
+        <v>4.333777933650203</v>
       </c>
       <c r="L20" t="n">
-        <v>6.370589664927069</v>
+        <v>3.87040523949692</v>
       </c>
       <c r="M20" t="n">
-        <v>6.520364918787555</v>
+        <v>3.961437040655865</v>
       </c>
       <c r="N20" t="n">
-        <v>6.436311944077691</v>
+        <v>3.910302636624531</v>
       </c>
       <c r="O20" t="n">
-        <v>7.026298225855458</v>
+        <v>4.268903951502448</v>
       </c>
       <c r="P20" t="n">
-        <v>6.020994675185412</v>
+        <v>3.658030212260943</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.184236428416441</v>
+        <v>4.364763673597682</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.94454115534056</v>
+        <v>4.219076692417459</v>
       </c>
       <c r="B21" t="n">
-        <v>6.900465545039899</v>
+        <v>4.192291865961238</v>
       </c>
       <c r="C21" t="n">
-        <v>6.908560808591941</v>
+        <v>4.197218405015696</v>
       </c>
       <c r="D21" t="n">
-        <v>6.64606462524066</v>
+        <v>4.037753271842571</v>
       </c>
       <c r="E21" t="n">
-        <v>6.774637057109643</v>
+        <v>4.115839170588875</v>
       </c>
       <c r="F21" t="n">
-        <v>6.537918133614975</v>
+        <v>3.972032120030259</v>
       </c>
       <c r="G21" t="n">
-        <v>6.716427230454004</v>
+        <v>4.080457464340771</v>
       </c>
       <c r="H21" t="n">
-        <v>6.544880120168092</v>
+        <v>3.976161708240481</v>
       </c>
       <c r="I21" t="n">
-        <v>6.782480148559916</v>
+        <v>4.12066963885663</v>
       </c>
       <c r="J21" t="n">
-        <v>6.916293687057117</v>
+        <v>4.201505199967794</v>
       </c>
       <c r="K21" t="n">
-        <v>7.201745318456378</v>
+        <v>4.375385681904713</v>
       </c>
       <c r="L21" t="n">
-        <v>6.419829711953272</v>
+        <v>3.900361493627805</v>
       </c>
       <c r="M21" t="n">
-        <v>6.592505307369191</v>
+        <v>4.005231854925834</v>
       </c>
       <c r="N21" t="n">
-        <v>6.537247870950178</v>
+        <v>3.971766469748847</v>
       </c>
       <c r="O21" t="n">
-        <v>7.071799417158994</v>
+        <v>4.296435509982583</v>
       </c>
       <c r="P21" t="n">
-        <v>6.06527453889867</v>
+        <v>3.684947499953375</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.24857685236806</v>
+        <v>4.403892504431674</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.982565234182378</v>
+        <v>4.242155515495735</v>
       </c>
       <c r="B22" t="n">
-        <v>6.940977202833372</v>
+        <v>4.216887442975028</v>
       </c>
       <c r="C22" t="n">
-        <v>6.955454037815932</v>
+        <v>4.225701573750477</v>
       </c>
       <c r="D22" t="n">
-        <v>6.700675159355847</v>
+        <v>4.070997766991042</v>
       </c>
       <c r="E22" t="n">
-        <v>6.833039756489201</v>
+        <v>4.151320222764137</v>
       </c>
       <c r="F22" t="n">
-        <v>6.622785127057153</v>
+        <v>4.023594475747812</v>
       </c>
       <c r="G22" t="n">
-        <v>6.730022960539409</v>
+        <v>4.088763220536586</v>
       </c>
       <c r="H22" t="n">
-        <v>6.724563823875457</v>
+        <v>4.085301760979339</v>
       </c>
       <c r="I22" t="n">
-        <v>6.836907393689019</v>
+        <v>4.1536328358304</v>
       </c>
       <c r="J22" t="n">
-        <v>7.048408508023161</v>
+        <v>4.282105678775133</v>
       </c>
       <c r="K22" t="n">
-        <v>7.218831326064367</v>
+        <v>4.385674353694244</v>
       </c>
       <c r="L22" t="n">
-        <v>6.542322460133523</v>
+        <v>3.974695537029784</v>
       </c>
       <c r="M22" t="n">
-        <v>6.656687599646539</v>
+        <v>4.044191470169611</v>
       </c>
       <c r="N22" t="n">
-        <v>6.673133293770466</v>
+        <v>4.054200663306919</v>
       </c>
       <c r="O22" t="n">
-        <v>7.126731006491634</v>
+        <v>4.329785173530133</v>
       </c>
       <c r="P22" t="n">
-        <v>6.192949693312902</v>
+        <v>3.762453698839008</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.243854465550132</v>
+        <v>4.400905940240514</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.045926918907652</v>
+        <v>4.28065042469929</v>
       </c>
       <c r="B23" t="n">
-        <v>7.006530568604664</v>
+        <v>4.256718609484534</v>
       </c>
       <c r="C23" t="n">
-        <v>7.015884296731092</v>
+        <v>4.262415170450591</v>
       </c>
       <c r="D23" t="n">
-        <v>6.767812836787896</v>
+        <v>4.111721955131485</v>
       </c>
       <c r="E23" t="n">
-        <v>6.922370974811392</v>
+        <v>4.205600945059974</v>
       </c>
       <c r="F23" t="n">
-        <v>6.696757806516013</v>
+        <v>4.068530858418862</v>
       </c>
       <c r="G23" t="n">
-        <v>6.783101893551926</v>
+        <v>4.12101170908201</v>
       </c>
       <c r="H23" t="n">
-        <v>6.841056553187723</v>
+        <v>4.156236572492732</v>
       </c>
       <c r="I23" t="n">
-        <v>6.881858119050689</v>
+        <v>4.180934770574137</v>
       </c>
       <c r="J23" t="n">
-        <v>7.181970473402208</v>
+        <v>4.36342304943779</v>
       </c>
       <c r="K23" t="n">
-        <v>7.255271692229041</v>
+        <v>4.407740066658206</v>
       </c>
       <c r="L23" t="n">
-        <v>6.619248727796239</v>
+        <v>4.021411048777304</v>
       </c>
       <c r="M23" t="n">
-        <v>6.691971927434932</v>
+        <v>4.065627264452581</v>
       </c>
       <c r="N23" t="n">
-        <v>6.966228555076318</v>
+        <v>4.232315174044148</v>
       </c>
       <c r="O23" t="n">
-        <v>7.233149430389044</v>
+        <v>4.3944732004809</v>
       </c>
       <c r="P23" t="n">
-        <v>6.42766321966571</v>
+        <v>3.905041305434595</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.256667923034798</v>
+        <v>4.4087029579522</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.109792348852849</v>
+        <v>4.319404433903344</v>
       </c>
       <c r="B24" t="n">
-        <v>7.080360090979621</v>
+        <v>4.301521439205888</v>
       </c>
       <c r="C24" t="n">
-        <v>7.086577540899724</v>
+        <v>4.305304590336789</v>
       </c>
       <c r="D24" t="n">
-        <v>6.843318315316655</v>
+        <v>4.157573193703178</v>
       </c>
       <c r="E24" t="n">
-        <v>6.995576955243495</v>
+        <v>4.250017308207547</v>
       </c>
       <c r="F24" t="n">
-        <v>6.746449487187665</v>
+        <v>4.098660694993902</v>
       </c>
       <c r="G24" t="n">
-        <v>6.834955905072478</v>
+        <v>4.152511646081044</v>
       </c>
       <c r="H24" t="n">
-        <v>6.880068356010105</v>
+        <v>4.179955139673369</v>
       </c>
       <c r="I24" t="n">
-        <v>6.891254375013758</v>
+        <v>4.186628056399738</v>
       </c>
       <c r="J24" t="n">
-        <v>7.247336357302112</v>
+        <v>4.402987837856894</v>
       </c>
       <c r="K24" t="n">
-        <v>7.271916847896646</v>
+        <v>4.417969422015039</v>
       </c>
       <c r="L24" t="n">
-        <v>6.647537525949093</v>
+        <v>4.038583701900355</v>
       </c>
       <c r="M24" t="n">
-        <v>6.72478424984565</v>
+        <v>4.085561952693325</v>
       </c>
       <c r="N24" t="n">
-        <v>7.063653838983321</v>
+        <v>4.291460571630278</v>
       </c>
       <c r="O24" t="n">
-        <v>7.35553735643673</v>
+        <v>4.46878795694464</v>
       </c>
       <c r="P24" t="n">
-        <v>6.56891912957498</v>
+        <v>3.990919127229654</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.262762581313898</v>
+        <v>4.412355467369366</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.170647886134413</v>
+        <v>4.356477932149097</v>
       </c>
       <c r="B25" t="n">
-        <v>7.142715483232277</v>
+        <v>4.339502515262382</v>
       </c>
       <c r="C25" t="n">
-        <v>7.164805399957083</v>
+        <v>4.352936049698437</v>
       </c>
       <c r="D25" t="n">
-        <v>6.914483558573634</v>
+        <v>4.200854902635078</v>
       </c>
       <c r="E25" t="n">
-        <v>7.035872379952078</v>
+        <v>4.274584136766227</v>
       </c>
       <c r="F25" t="n">
-        <v>6.730226614968391</v>
+        <v>4.088870572362636</v>
       </c>
       <c r="G25" t="n">
-        <v>6.916959157852997</v>
+        <v>4.202336357834568</v>
       </c>
       <c r="H25" t="n">
-        <v>6.74530962136898</v>
+        <v>4.097940164093634</v>
       </c>
       <c r="I25" t="n">
-        <v>6.958047636867382</v>
+        <v>4.227296567152433</v>
       </c>
       <c r="J25" t="n">
-        <v>7.063858092395918</v>
+        <v>4.291478402950538</v>
       </c>
       <c r="K25" t="n">
-        <v>7.337046732252378</v>
+        <v>4.457486902849782</v>
       </c>
       <c r="L25" t="n">
-        <v>6.632462905319109</v>
+        <v>4.029523935590724</v>
       </c>
       <c r="M25" t="n">
-        <v>6.781354059364368</v>
+        <v>4.119994232113753</v>
       </c>
       <c r="N25" t="n">
-        <v>7.0759976933141</v>
+        <v>4.298926800155933</v>
       </c>
       <c r="O25" t="n">
-        <v>7.484488944933789</v>
+        <v>4.547120946843106</v>
       </c>
       <c r="P25" t="n">
-        <v>6.697785662398759</v>
+        <v>4.069156046341418</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.312253003491026</v>
+        <v>4.442545348186095</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.221010428454477</v>
+        <v>4.386939285719159</v>
       </c>
       <c r="B26" t="n">
-        <v>7.189012723759689</v>
+        <v>4.367510788631078</v>
       </c>
       <c r="C26" t="n">
-        <v>7.207559652403819</v>
+        <v>4.378749251152781</v>
       </c>
       <c r="D26" t="n">
-        <v>6.944645977473125</v>
+        <v>4.21899517781056</v>
       </c>
       <c r="E26" t="n">
-        <v>7.083704815483847</v>
+        <v>4.303538197917647</v>
       </c>
       <c r="F26" t="n">
-        <v>6.769980558489327</v>
+        <v>4.112937396145068</v>
       </c>
       <c r="G26" t="n">
-        <v>6.988844978398404</v>
+        <v>4.245916832356932</v>
       </c>
       <c r="H26" t="n">
-        <v>6.736172126327442</v>
+        <v>4.092454303830231</v>
       </c>
       <c r="I26" t="n">
-        <v>7.027420122165704</v>
+        <v>4.26946873127882</v>
       </c>
       <c r="J26" t="n">
-        <v>6.987896188352794</v>
+        <v>4.245388443030069</v>
       </c>
       <c r="K26" t="n">
-        <v>7.307815133890059</v>
+        <v>4.439875017001163</v>
       </c>
       <c r="L26" t="n">
-        <v>6.708264880737121</v>
+        <v>4.075510546634589</v>
       </c>
       <c r="M26" t="n">
-        <v>6.889259759576962</v>
+        <v>4.185481393335726</v>
       </c>
       <c r="N26" t="n">
-        <v>7.063188428714735</v>
+        <v>4.291174906601637</v>
       </c>
       <c r="O26" t="n">
-        <v>7.591646514611681</v>
+        <v>4.612241656238528</v>
       </c>
       <c r="P26" t="n">
-        <v>6.707047147048531</v>
+        <v>4.074773640032042</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.440968592443912</v>
+        <v>4.52074078218542</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.296073258092006</v>
+        <v>4.432599474430933</v>
       </c>
       <c r="B27" t="n">
-        <v>7.261964136155564</v>
+        <v>4.411885302761717</v>
       </c>
       <c r="C27" t="n">
-        <v>7.28379529195884</v>
+        <v>4.42514197961316</v>
       </c>
       <c r="D27" t="n">
-        <v>7.018606078276077</v>
+        <v>4.263996335481735</v>
       </c>
       <c r="E27" t="n">
-        <v>7.162351364087847</v>
+        <v>4.351390911212307</v>
       </c>
       <c r="F27" t="n">
-        <v>6.828631836068967</v>
+        <v>4.14865171110168</v>
       </c>
       <c r="G27" t="n">
-        <v>7.024620472750812</v>
+        <v>4.267743096163128</v>
       </c>
       <c r="H27" t="n">
-        <v>6.835276361306318</v>
+        <v>4.152596071923904</v>
       </c>
       <c r="I27" t="n">
-        <v>7.050252179589064</v>
+        <v>4.283390261642783</v>
       </c>
       <c r="J27" t="n">
-        <v>7.063529849375088</v>
+        <v>4.291308459551333</v>
       </c>
       <c r="K27" t="n">
-        <v>7.356236969298646</v>
+        <v>4.469187524080243</v>
       </c>
       <c r="L27" t="n">
-        <v>6.803588331140305</v>
+        <v>4.133440867111631</v>
       </c>
       <c r="M27" t="n">
-        <v>6.979966244278396</v>
+        <v>4.24058563150394</v>
       </c>
       <c r="N27" t="n">
-        <v>7.104701587111909</v>
+        <v>4.316431334178501</v>
       </c>
       <c r="O27" t="n">
-        <v>7.66970965317501</v>
+        <v>4.659615471217657</v>
       </c>
       <c r="P27" t="n">
-        <v>6.72917479974106</v>
+        <v>4.088286505648025</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.518728046314611</v>
+        <v>4.567851494214601</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7.279894111676602</v>
+        <v>4.42282026893452</v>
       </c>
       <c r="B28" t="n">
-        <v>7.236352794760212</v>
+        <v>4.39636332042837</v>
       </c>
       <c r="C28" t="n">
-        <v>7.260228281640298</v>
+        <v>4.410856908658607</v>
       </c>
       <c r="D28" t="n">
-        <v>7.034818168790288</v>
+        <v>4.27388944308511</v>
       </c>
       <c r="E28" t="n">
-        <v>7.135319832542151</v>
+        <v>4.33498718828737</v>
       </c>
       <c r="F28" t="n">
-        <v>6.937879259578384</v>
+        <v>4.215044266707424</v>
       </c>
       <c r="G28" t="n">
-        <v>7.026730093041622</v>
+        <v>4.26904369082856</v>
       </c>
       <c r="H28" t="n">
-        <v>7.048044924969067</v>
+        <v>4.282012883128887</v>
       </c>
       <c r="I28" t="n">
-        <v>7.258089910135986</v>
+        <v>4.409566503319036</v>
       </c>
       <c r="J28" t="n">
-        <v>7.289876173614802</v>
+        <v>4.428784299704464</v>
       </c>
       <c r="K28" t="n">
-        <v>7.455748513135486</v>
+        <v>4.529620779674478</v>
       </c>
       <c r="L28" t="n">
-        <v>6.898714715934267</v>
+        <v>4.191230720453571</v>
       </c>
       <c r="M28" t="n">
-        <v>7.032753472270578</v>
+        <v>4.272655079037782</v>
       </c>
       <c r="N28" t="n">
-        <v>7.108793244183607</v>
+        <v>4.318954284042924</v>
       </c>
       <c r="O28" t="n">
-        <v>7.750864146173566</v>
+        <v>4.708892142801583</v>
       </c>
       <c r="P28" t="n">
-        <v>6.728260151761484</v>
+        <v>4.087706805787355</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.687543192334088</v>
+        <v>4.670334278120379</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7.363189372113928</v>
+        <v>4.473374245296193</v>
       </c>
       <c r="B29" t="n">
-        <v>7.31520359677681</v>
+        <v>4.444224403526417</v>
       </c>
       <c r="C29" t="n">
-        <v>7.339285733003952</v>
+        <v>4.458851544706349</v>
       </c>
       <c r="D29" t="n">
-        <v>7.13438901200498</v>
+        <v>4.3344074884267</v>
       </c>
       <c r="E29" t="n">
-        <v>7.204247273014785</v>
+        <v>4.376816554379386</v>
       </c>
       <c r="F29" t="n">
-        <v>6.965167156111153</v>
+        <v>4.231619024745051</v>
       </c>
       <c r="G29" t="n">
-        <v>7.166152514106439</v>
+        <v>4.353647482986328</v>
       </c>
       <c r="H29" t="n">
-        <v>6.976012353438069</v>
+        <v>4.238192231639768</v>
       </c>
       <c r="I29" t="n">
-        <v>7.243318974198631</v>
+        <v>4.400542035745429</v>
       </c>
       <c r="J29" t="n">
-        <v>7.1797710055692</v>
+        <v>4.361928129771982</v>
       </c>
       <c r="K29" t="n">
-        <v>7.595264375644188</v>
+        <v>4.614228574781691</v>
       </c>
       <c r="L29" t="n">
-        <v>6.974460985876116</v>
+        <v>4.237260272227855</v>
       </c>
       <c r="M29" t="n">
-        <v>7.16821481469169</v>
+        <v>4.354913870629223</v>
       </c>
       <c r="N29" t="n">
-        <v>7.142551361721862</v>
+        <v>4.339486139560103</v>
       </c>
       <c r="O29" t="n">
-        <v>7.83071465184302</v>
+        <v>4.757458836715598</v>
       </c>
       <c r="P29" t="n">
-        <v>6.735178412510731</v>
+        <v>4.091915361273011</v>
       </c>
       <c r="Q29" t="n">
-        <v>7.910612477218033</v>
+        <v>4.806029897483555</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7.439746665870018</v>
+        <v>4.519836843419629</v>
       </c>
       <c r="B30" t="n">
-        <v>7.396771388469475</v>
+        <v>4.493748530167</v>
       </c>
       <c r="C30" t="n">
-        <v>7.41117155354936</v>
+        <v>4.502469865296202</v>
       </c>
       <c r="D30" t="n">
-        <v>7.203256554116148</v>
+        <v>4.376162618001718</v>
       </c>
       <c r="E30" t="n">
-        <v>7.286325398747136</v>
+        <v>4.426724964166779</v>
       </c>
       <c r="F30" t="n">
-        <v>7.09776895075591</v>
+        <v>4.312149269984839</v>
       </c>
       <c r="G30" t="n">
-        <v>7.219689669584166</v>
+        <v>4.386252961841429</v>
       </c>
       <c r="H30" t="n">
-        <v>7.3140259949904</v>
+        <v>4.443603582457802</v>
       </c>
       <c r="I30" t="n">
-        <v>7.337697228457891</v>
+        <v>4.457965073356323</v>
       </c>
       <c r="J30" t="n">
-        <v>7.535969789662412</v>
+        <v>4.578425103223784</v>
       </c>
       <c r="K30" t="n">
-        <v>7.717247987751983</v>
+        <v>4.688537144869015</v>
       </c>
       <c r="L30" t="n">
-        <v>7.101540151593768</v>
+        <v>4.314384735298145</v>
       </c>
       <c r="M30" t="n">
-        <v>7.265644291483995</v>
+        <v>4.414106211895219</v>
       </c>
       <c r="N30" t="n">
-        <v>7.186980372355169</v>
+        <v>4.366352844527718</v>
       </c>
       <c r="O30" t="n">
-        <v>7.91881016696818</v>
+        <v>4.810880744403035</v>
       </c>
       <c r="P30" t="n">
-        <v>6.761262351978046</v>
+        <v>4.107844188831862</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.101245601401262</v>
+        <v>4.921862517791518</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.506078111356745</v>
+        <v>4.560240795604398</v>
       </c>
       <c r="B31" t="n">
-        <v>7.463141168907539</v>
+        <v>4.534161579964146</v>
       </c>
       <c r="C31" t="n">
-        <v>7.486384129090553</v>
+        <v>4.54827561580601</v>
       </c>
       <c r="D31" t="n">
-        <v>7.277219649837174</v>
+        <v>4.421170325953805</v>
       </c>
       <c r="E31" t="n">
-        <v>7.335973952598533</v>
+        <v>4.456953054955492</v>
       </c>
       <c r="F31" t="n">
-        <v>7.154035075581999</v>
+        <v>4.346346467101442</v>
       </c>
       <c r="G31" t="n">
-        <v>7.251245923354955</v>
+        <v>4.405414353030119</v>
       </c>
       <c r="H31" t="n">
-        <v>7.370912666841271</v>
+        <v>4.477907039686969</v>
       </c>
       <c r="I31" t="n">
-        <v>7.396522810269395</v>
+        <v>4.493569853059913</v>
       </c>
       <c r="J31" t="n">
-        <v>7.610777452280098</v>
+        <v>4.623708650783145</v>
       </c>
       <c r="K31" t="n">
-        <v>7.824619993563921</v>
+        <v>4.753384561988629</v>
       </c>
       <c r="L31" t="n">
-        <v>7.142787960249651</v>
+        <v>4.339503970880362</v>
       </c>
       <c r="M31" t="n">
-        <v>7.326576498668235</v>
+        <v>4.451141500168988</v>
       </c>
       <c r="N31" t="n">
-        <v>7.157847007305653</v>
+        <v>4.348735136207178</v>
       </c>
       <c r="O31" t="n">
-        <v>8.025590376968841</v>
+        <v>4.875747448460888</v>
       </c>
       <c r="P31" t="n">
-        <v>6.725946877041692</v>
+        <v>4.086303953958804</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.296093174297194</v>
+        <v>5.039808695406934</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7.691352728123284</v>
+        <v>4.672851041608385</v>
       </c>
       <c r="B32" t="n">
-        <v>7.658482304301946</v>
+        <v>4.652864315024844</v>
       </c>
       <c r="C32" t="n">
-        <v>7.660031275929439</v>
+        <v>4.653824658987372</v>
       </c>
       <c r="D32" t="n">
-        <v>7.426681635267196</v>
+        <v>4.511994701550551</v>
       </c>
       <c r="E32" t="n">
-        <v>7.563966283811315</v>
+        <v>4.595434727133037</v>
       </c>
       <c r="F32" t="n">
-        <v>7.305706112582864</v>
+        <v>4.438504188768179</v>
       </c>
       <c r="G32" t="n">
-        <v>7.440316299287554</v>
+        <v>4.520244416454124</v>
       </c>
       <c r="H32" t="n">
-        <v>7.608588766152154</v>
+        <v>4.622370210050224</v>
       </c>
       <c r="I32" t="n">
-        <v>7.614257547081235</v>
+        <v>4.625794187444476</v>
       </c>
       <c r="J32" t="n">
-        <v>7.783680062485971</v>
+        <v>4.728574645227233</v>
       </c>
       <c r="K32" t="n">
-        <v>8.000828394339067</v>
+        <v>4.860607565847381</v>
       </c>
       <c r="L32" t="n">
-        <v>7.221537534035372</v>
+        <v>4.387374515495281</v>
       </c>
       <c r="M32" t="n">
-        <v>7.439485509014029</v>
+        <v>4.519764426425107</v>
       </c>
       <c r="N32" t="n">
-        <v>7.193951942646121</v>
+        <v>4.370587237232525</v>
       </c>
       <c r="O32" t="n">
-        <v>8.136383178204065</v>
+        <v>4.94326556066993</v>
       </c>
       <c r="P32" t="n">
-        <v>6.691304659688208</v>
+        <v>4.065239706165316</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.483376183123667</v>
+        <v>5.154158404897426</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.728743082300798</v>
+        <v>4.695516469180246</v>
       </c>
       <c r="B33" t="n">
-        <v>7.685213745056701</v>
+        <v>4.669058792865107</v>
       </c>
       <c r="C33" t="n">
-        <v>7.688928641434781</v>
+        <v>4.671327737391961</v>
       </c>
       <c r="D33" t="n">
-        <v>7.467849180118716</v>
+        <v>4.536961461149328</v>
       </c>
       <c r="E33" t="n">
-        <v>7.599564479013785</v>
+        <v>4.617004074365703</v>
       </c>
       <c r="F33" t="n">
-        <v>7.366932420721898</v>
+        <v>4.475626450216273</v>
       </c>
       <c r="G33" t="n">
-        <v>7.580044201995843</v>
+        <v>4.605108400325877</v>
       </c>
       <c r="H33" t="n">
-        <v>7.64948676837708</v>
+        <v>4.647339880884961</v>
       </c>
       <c r="I33" t="n">
-        <v>7.933065378013318</v>
+        <v>4.819597712678296</v>
       </c>
       <c r="J33" t="n">
-        <v>7.882646531233476</v>
+        <v>4.788984610933784</v>
       </c>
       <c r="K33" t="n">
-        <v>8.361344053343085</v>
+        <v>5.079654418096243</v>
       </c>
       <c r="L33" t="n">
-        <v>7.31725152175531</v>
+        <v>4.445493702405273</v>
       </c>
       <c r="M33" t="n">
-        <v>7.557704509103727</v>
+        <v>4.591602084990805</v>
       </c>
       <c r="N33" t="n">
-        <v>7.374849187156773</v>
+        <v>4.480535521854967</v>
       </c>
       <c r="O33" t="n">
-        <v>8.22975813490878</v>
+        <v>4.999980076228894</v>
       </c>
       <c r="P33" t="n">
-        <v>6.750030211236064</v>
+        <v>4.100898707638674</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.607684450639931</v>
+        <v>5.229620916138664</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.951865077742832</v>
+        <v>4.831025405537444</v>
       </c>
       <c r="B34" t="n">
-        <v>7.895198831862155</v>
+        <v>4.796595309543987</v>
       </c>
       <c r="C34" t="n">
-        <v>7.901606758571718</v>
+        <v>4.800494910113315</v>
       </c>
       <c r="D34" t="n">
-        <v>7.646742824438352</v>
+        <v>4.645689210095257</v>
       </c>
       <c r="E34" t="n">
-        <v>7.770707874343421</v>
+        <v>4.721010890296896</v>
       </c>
       <c r="F34" t="n">
-        <v>7.523067083619161</v>
+        <v>4.570585144781678</v>
       </c>
       <c r="G34" t="n">
-        <v>7.850872846410568</v>
+        <v>4.769726057244906</v>
       </c>
       <c r="H34" t="n">
-        <v>7.693941535305816</v>
+        <v>4.674306659588725</v>
       </c>
       <c r="I34" t="n">
-        <v>8.426473937698816</v>
+        <v>5.119471756234935</v>
       </c>
       <c r="J34" t="n">
-        <v>8.13480186146138</v>
+        <v>4.941943859543782</v>
       </c>
       <c r="K34" t="n">
-        <v>8.92200709226549</v>
+        <v>5.420498649232003</v>
       </c>
       <c r="L34" t="n">
-        <v>7.519832572100032</v>
+        <v>4.568601137474475</v>
       </c>
       <c r="M34" t="n">
-        <v>7.823525051516334</v>
+        <v>4.753067237268915</v>
       </c>
       <c r="N34" t="n">
-        <v>7.519946378986816</v>
+        <v>4.568665912474601</v>
       </c>
       <c r="O34" t="n">
-        <v>8.487890722627309</v>
+        <v>5.156676624003413</v>
       </c>
       <c r="P34" t="n">
-        <v>6.829455438539115</v>
+        <v>4.149231047057855</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.776134216654469</v>
+        <v>5.331714686139196</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8.021783237114104</v>
+        <v>4.873458489186805</v>
       </c>
       <c r="B35" t="n">
-        <v>7.977468632351195</v>
+        <v>4.846546296157305</v>
       </c>
       <c r="C35" t="n">
-        <v>7.991303356898846</v>
+        <v>4.854956129038714</v>
       </c>
       <c r="D35" t="n">
-        <v>7.790545612677128</v>
+        <v>4.73302446939313</v>
       </c>
       <c r="E35" t="n">
-        <v>8.063664171450673</v>
+        <v>4.898923434039354</v>
       </c>
       <c r="F35" t="n">
-        <v>7.706501023737871</v>
+        <v>4.681957387693386</v>
       </c>
       <c r="G35" t="n">
-        <v>8.183767573992071</v>
+        <v>4.97189101606229</v>
       </c>
       <c r="H35" t="n">
-        <v>7.545274401132438</v>
+        <v>4.584034327111022</v>
       </c>
       <c r="I35" t="n">
-        <v>8.505563734177661</v>
+        <v>5.167473670372579</v>
       </c>
       <c r="J35" t="n">
-        <v>7.466153457505632</v>
+        <v>4.535997478141849</v>
       </c>
       <c r="K35" t="n">
-        <v>8.735984344964248</v>
+        <v>5.307547424716121</v>
       </c>
       <c r="L35" t="n">
-        <v>7.815620264753752</v>
+        <v>4.748254236416924</v>
       </c>
       <c r="M35" t="n">
-        <v>8.193953889342868</v>
+        <v>4.978100682366416</v>
       </c>
       <c r="N35" t="n">
-        <v>7.667474845308738</v>
+        <v>4.658294497900498</v>
       </c>
       <c r="O35" t="n">
-        <v>8.784710464049079</v>
+        <v>5.337146324632831</v>
       </c>
       <c r="P35" t="n">
-        <v>7.282154675838304</v>
+        <v>4.42419291668998</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.793758111548419</v>
+        <v>5.342748998239157</v>
       </c>
     </row>
   </sheetData>
@@ -2365,1804 +2365,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.368919249371704</v>
+        <v>2.559073935840908</v>
       </c>
       <c r="B2" t="n">
-        <v>3.32822729751022</v>
+        <v>2.53378075391004</v>
       </c>
       <c r="C2" t="n">
-        <v>3.331084449352117</v>
+        <v>2.524234265338233</v>
       </c>
       <c r="D2" t="n">
-        <v>3.332906258016085</v>
+        <v>2.507061612215182</v>
       </c>
       <c r="E2" t="n">
-        <v>3.336516332261602</v>
+        <v>2.484877084433576</v>
       </c>
       <c r="F2" t="n">
-        <v>3.535109050208154</v>
+        <v>2.65030879570811</v>
       </c>
       <c r="G2" t="n">
-        <v>3.543677211323965</v>
+        <v>2.588605513426029</v>
       </c>
       <c r="H2" t="n">
-        <v>3.841216931050547</v>
+        <v>2.958316104729894</v>
       </c>
       <c r="I2" t="n">
-        <v>3.842265751359805</v>
+        <v>2.779739981140649</v>
       </c>
       <c r="J2" t="n">
-        <v>4.054947462398429</v>
+        <v>2.946180435675559</v>
       </c>
       <c r="K2" t="n">
-        <v>4.068559065549622</v>
+        <v>3.029469258940337</v>
       </c>
       <c r="L2" t="n">
-        <v>4.065058904797395</v>
+        <v>3.087277671411526</v>
       </c>
       <c r="M2" t="n">
-        <v>4.073411132320123</v>
+        <v>3.05073601958534</v>
       </c>
       <c r="N2" t="n">
-        <v>4.524541931024341</v>
+        <v>3.350089133857265</v>
       </c>
       <c r="O2" t="n">
-        <v>4.520324487393566</v>
+        <v>3.326146401507657</v>
       </c>
       <c r="P2" t="n">
-        <v>4.937375813850268</v>
+        <v>3.63816721320573</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.942728331430811</v>
+        <v>3.71554859284955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.38484173130823</v>
+        <v>2.600202239923143</v>
       </c>
       <c r="B3" t="n">
-        <v>3.34525730015024</v>
+        <v>2.57501313467787</v>
       </c>
       <c r="C3" t="n">
-        <v>3.340493283971094</v>
+        <v>2.566789256993448</v>
       </c>
       <c r="D3" t="n">
-        <v>3.332128178300651</v>
+        <v>2.537708193173243</v>
       </c>
       <c r="E3" t="n">
-        <v>3.342230935437204</v>
+        <v>2.565936810713712</v>
       </c>
       <c r="F3" t="n">
-        <v>3.537062335775539</v>
+        <v>2.730754979009534</v>
       </c>
       <c r="G3" t="n">
-        <v>3.548299567878246</v>
+        <v>2.611820800689963</v>
       </c>
       <c r="H3" t="n">
-        <v>3.848282541768999</v>
+        <v>3.004102932205957</v>
       </c>
       <c r="I3" t="n">
-        <v>3.858542532104399</v>
+        <v>2.610835529269521</v>
       </c>
       <c r="J3" t="n">
-        <v>4.06054676122821</v>
+        <v>2.755523774562985</v>
       </c>
       <c r="K3" t="n">
-        <v>4.078905010033724</v>
+        <v>3.034385426716685</v>
       </c>
       <c r="L3" t="n">
-        <v>4.09405779802542</v>
+        <v>3.083547650336907</v>
       </c>
       <c r="M3" t="n">
-        <v>4.101347428615753</v>
+        <v>3.136342914483808</v>
       </c>
       <c r="N3" t="n">
-        <v>4.540988224131882</v>
+        <v>3.363703164922882</v>
       </c>
       <c r="O3" t="n">
-        <v>4.537120586932065</v>
+        <v>3.351729251416612</v>
       </c>
       <c r="P3" t="n">
-        <v>4.949845754231932</v>
+        <v>3.649938068003743</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.939203312858576</v>
+        <v>3.714295305768478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.384809985176653</v>
+        <v>2.6032890598027</v>
       </c>
       <c r="B4" t="n">
-        <v>3.340737369794065</v>
+        <v>2.577635430469451</v>
       </c>
       <c r="C4" t="n">
-        <v>3.345696355139781</v>
+        <v>2.569665922027093</v>
       </c>
       <c r="D4" t="n">
-        <v>3.326150621318216</v>
+        <v>2.540062473304194</v>
       </c>
       <c r="E4" t="n">
-        <v>3.339274951298889</v>
+        <v>2.564134391749557</v>
       </c>
       <c r="F4" t="n">
-        <v>3.518011362419678</v>
+        <v>2.714765379400003</v>
       </c>
       <c r="G4" t="n">
-        <v>3.550098615164857</v>
+        <v>2.64416972687603</v>
       </c>
       <c r="H4" t="n">
-        <v>3.822274673220746</v>
+        <v>3.005625872517887</v>
       </c>
       <c r="I4" t="n">
-        <v>3.864286485477118</v>
+        <v>2.799173572891662</v>
       </c>
       <c r="J4" t="n">
-        <v>4.056858519620981</v>
+        <v>2.951486163213895</v>
       </c>
       <c r="K4" t="n">
-        <v>4.097192578772709</v>
+        <v>3.065465235976144</v>
       </c>
       <c r="L4" t="n">
-        <v>4.076063132274001</v>
+        <v>3.09851467831525</v>
       </c>
       <c r="M4" t="n">
-        <v>4.093808321349917</v>
+        <v>3.137537976845667</v>
       </c>
       <c r="N4" t="n">
-        <v>4.535799528569946</v>
+        <v>3.38217095414394</v>
       </c>
       <c r="O4" t="n">
-        <v>4.530466178465072</v>
+        <v>3.378452578013163</v>
       </c>
       <c r="P4" t="n">
-        <v>4.935979583044511</v>
+        <v>3.658840263667002</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.946462994268176</v>
+        <v>3.730907545969098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.365342119224993</v>
+        <v>2.632460189985439</v>
       </c>
       <c r="B5" t="n">
-        <v>3.326941579181366</v>
+        <v>2.606847499907887</v>
       </c>
       <c r="C5" t="n">
-        <v>3.322582775417533</v>
+        <v>2.598428387461853</v>
       </c>
       <c r="D5" t="n">
-        <v>3.317235349197714</v>
+        <v>2.558994422708732</v>
       </c>
       <c r="E5" t="n">
-        <v>3.328080546524629</v>
+        <v>2.584466281746687</v>
       </c>
       <c r="F5" t="n">
-        <v>3.509929276507159</v>
+        <v>2.723760734614004</v>
       </c>
       <c r="G5" t="n">
-        <v>3.538994956408219</v>
+        <v>2.654414366221657</v>
       </c>
       <c r="H5" t="n">
-        <v>3.810136270269793</v>
+        <v>3.015035896904037</v>
       </c>
       <c r="I5" t="n">
-        <v>3.851313997842761</v>
+        <v>2.83273666642558</v>
       </c>
       <c r="J5" t="n">
-        <v>4.053247247408235</v>
+        <v>2.996274982612188</v>
       </c>
       <c r="K5" t="n">
-        <v>4.092957465125302</v>
+        <v>3.087204162703519</v>
       </c>
       <c r="L5" t="n">
-        <v>4.043398159832488</v>
+        <v>3.100030340537278</v>
       </c>
       <c r="M5" t="n">
-        <v>4.05912058124172</v>
+        <v>3.14105147474571</v>
       </c>
       <c r="N5" t="n">
-        <v>4.505323242256377</v>
+        <v>3.376282251604477</v>
       </c>
       <c r="O5" t="n">
-        <v>4.500355571648249</v>
+        <v>3.379676752734629</v>
       </c>
       <c r="P5" t="n">
-        <v>4.916213423252754</v>
+        <v>3.656073861695367</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.92277109586598</v>
+        <v>3.735930155810258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.36767276446961</v>
+        <v>2.597588677839445</v>
       </c>
       <c r="B6" t="n">
-        <v>3.324836451267666</v>
+        <v>2.573814615223308</v>
       </c>
       <c r="C6" t="n">
-        <v>3.329154224653896</v>
+        <v>2.563449159585313</v>
       </c>
       <c r="D6" t="n">
-        <v>3.317864880976715</v>
+        <v>2.54342549669552</v>
       </c>
       <c r="E6" t="n">
-        <v>3.330023349878758</v>
+        <v>2.573820437695229</v>
       </c>
       <c r="F6" t="n">
-        <v>3.511677709678332</v>
+        <v>2.669410870464101</v>
       </c>
       <c r="G6" t="n">
-        <v>3.541767052576835</v>
+        <v>2.729915451339373</v>
       </c>
       <c r="H6" t="n">
-        <v>3.814621160084511</v>
+        <v>3.01048017653007</v>
       </c>
       <c r="I6" t="n">
-        <v>3.858943252142602</v>
+        <v>2.846130353319423</v>
       </c>
       <c r="J6" t="n">
-        <v>4.058203537327685</v>
+        <v>2.989557669537418</v>
       </c>
       <c r="K6" t="n">
-        <v>4.101710113194426</v>
+        <v>3.0843329562373</v>
       </c>
       <c r="L6" t="n">
-        <v>4.053432333345163</v>
+        <v>3.104902293917473</v>
       </c>
       <c r="M6" t="n">
-        <v>4.070566259642326</v>
+        <v>3.141728337106568</v>
       </c>
       <c r="N6" t="n">
-        <v>4.512992628458401</v>
+        <v>3.388922838145743</v>
       </c>
       <c r="O6" t="n">
-        <v>4.508239992967932</v>
+        <v>3.383020307235467</v>
       </c>
       <c r="P6" t="n">
-        <v>4.921652493965614</v>
+        <v>3.663976775615124</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.934149688101744</v>
+        <v>3.741743530119238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.375668297249812</v>
+        <v>2.581496275210053</v>
       </c>
       <c r="B7" t="n">
-        <v>3.337809238393831</v>
+        <v>2.546648234903991</v>
       </c>
       <c r="C7" t="n">
-        <v>3.332383045828685</v>
+        <v>2.558789362525752</v>
       </c>
       <c r="D7" t="n">
-        <v>3.317896028124677</v>
+        <v>2.524148565829641</v>
       </c>
       <c r="E7" t="n">
-        <v>3.331309667191227</v>
+        <v>2.559930021165595</v>
       </c>
       <c r="F7" t="n">
-        <v>3.516035614966744</v>
+        <v>2.644033262690373</v>
       </c>
       <c r="G7" t="n">
-        <v>3.534345346099471</v>
+        <v>2.713685856715334</v>
       </c>
       <c r="H7" t="n">
-        <v>3.828623300552457</v>
+        <v>3.004098019495274</v>
       </c>
       <c r="I7" t="n">
-        <v>3.851938438261037</v>
+        <v>2.810451519051083</v>
       </c>
       <c r="J7" t="n">
-        <v>4.053520383936517</v>
+        <v>2.922409284295383</v>
       </c>
       <c r="K7" t="n">
-        <v>4.078829837590085</v>
+        <v>3.047614810730998</v>
       </c>
       <c r="L7" t="n">
-        <v>4.061206841171558</v>
+        <v>3.103529282257518</v>
       </c>
       <c r="M7" t="n">
-        <v>4.074901403553381</v>
+        <v>3.141735979100965</v>
       </c>
       <c r="N7" t="n">
-        <v>4.515041152420515</v>
+        <v>3.381025018888918</v>
       </c>
       <c r="O7" t="n">
-        <v>4.513589515630403</v>
+        <v>3.378179285737354</v>
       </c>
       <c r="P7" t="n">
-        <v>4.927521335421989</v>
+        <v>3.661939638251639</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.936572576823018</v>
+        <v>3.75010205246684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.378396368122751</v>
+        <v>2.599185308811629</v>
       </c>
       <c r="B8" t="n">
-        <v>3.340687055170434</v>
+        <v>2.561488806070291</v>
       </c>
       <c r="C8" t="n">
-        <v>3.334623544039297</v>
+        <v>2.576306269301153</v>
       </c>
       <c r="D8" t="n">
-        <v>3.315899316245229</v>
+        <v>2.531791106083164</v>
       </c>
       <c r="E8" t="n">
-        <v>3.332991613181174</v>
+        <v>2.576611221268034</v>
       </c>
       <c r="F8" t="n">
-        <v>3.513267412191623</v>
+        <v>2.653057366359486</v>
       </c>
       <c r="G8" t="n">
-        <v>3.537033884053843</v>
+        <v>2.729156710467121</v>
       </c>
       <c r="H8" t="n">
-        <v>3.830175866081639</v>
+        <v>2.996094485982626</v>
       </c>
       <c r="I8" t="n">
-        <v>3.858226268755862</v>
+        <v>2.795866772744827</v>
       </c>
       <c r="J8" t="n">
-        <v>4.062173600725608</v>
+        <v>2.850531596235226</v>
       </c>
       <c r="K8" t="n">
-        <v>4.086033514031715</v>
+        <v>2.978830492831309</v>
       </c>
       <c r="L8" t="n">
-        <v>4.073579746207647</v>
+        <v>3.114200053766889</v>
       </c>
       <c r="M8" t="n">
-        <v>4.090227896793326</v>
+        <v>3.154001016203302</v>
       </c>
       <c r="N8" t="n">
-        <v>4.524542829499763</v>
+        <v>3.399190767379055</v>
       </c>
       <c r="O8" t="n">
-        <v>4.520428411050709</v>
+        <v>3.380343061865129</v>
       </c>
       <c r="P8" t="n">
-        <v>4.928012202494198</v>
+        <v>3.671982310602494</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.938616608408023</v>
+        <v>3.752303674662103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.359469084883316</v>
+        <v>2.527196265975976</v>
       </c>
       <c r="B9" t="n">
-        <v>3.319955633283663</v>
+        <v>2.499314267467075</v>
       </c>
       <c r="C9" t="n">
-        <v>3.317283567378694</v>
+        <v>2.490016507617658</v>
       </c>
       <c r="D9" t="n">
-        <v>3.31537041371349</v>
+        <v>2.481692374244841</v>
       </c>
       <c r="E9" t="n">
-        <v>3.323313834919218</v>
+        <v>2.508892415729954</v>
       </c>
       <c r="F9" t="n">
-        <v>3.515650169010714</v>
+        <v>2.651439810878834</v>
       </c>
       <c r="G9" t="n">
-        <v>3.534343848640435</v>
+        <v>2.695818327958919</v>
       </c>
       <c r="H9" t="n">
-        <v>3.822699352603535</v>
+        <v>2.999894376720301</v>
       </c>
       <c r="I9" t="n">
-        <v>3.851285246629257</v>
+        <v>2.874808392911322</v>
       </c>
       <c r="J9" t="n">
-        <v>4.079235050005399</v>
+        <v>2.989656833512329</v>
       </c>
       <c r="K9" t="n">
-        <v>4.118388811944452</v>
+        <v>3.056731164189614</v>
       </c>
       <c r="L9" t="n">
-        <v>4.062324544596501</v>
+        <v>3.127292973595545</v>
       </c>
       <c r="M9" t="n">
-        <v>4.074666901468244</v>
+        <v>3.15673830581533</v>
       </c>
       <c r="N9" t="n">
-        <v>4.509896482154256</v>
+        <v>3.39773041864028</v>
       </c>
       <c r="O9" t="n">
-        <v>4.502040512556269</v>
+        <v>3.400898571174488</v>
       </c>
       <c r="P9" t="n">
-        <v>4.910704570948786</v>
+        <v>3.658561876728262</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.933534232437689</v>
+        <v>3.762316142939866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.367769200831569</v>
+        <v>2.480375221924882</v>
       </c>
       <c r="B10" t="n">
-        <v>3.330372557326101</v>
+        <v>2.455768545823991</v>
       </c>
       <c r="C10" t="n">
-        <v>3.331464803947422</v>
+        <v>2.446285012729834</v>
       </c>
       <c r="D10" t="n">
-        <v>3.31825422032624</v>
+        <v>2.456145368928651</v>
       </c>
       <c r="E10" t="n">
-        <v>3.329443833231581</v>
+        <v>2.485086511470497</v>
       </c>
       <c r="F10" t="n">
-        <v>3.511213197885168</v>
+        <v>2.618905657304769</v>
       </c>
       <c r="G10" t="n">
-        <v>3.535161461274436</v>
+        <v>2.686210703431938</v>
       </c>
       <c r="H10" t="n">
-        <v>3.77367344221957</v>
+        <v>2.994616305923592</v>
       </c>
       <c r="I10" t="n">
-        <v>3.841234002083564</v>
+        <v>2.782970361343517</v>
       </c>
       <c r="J10" t="n">
-        <v>3.970271544729326</v>
+        <v>2.900895068593723</v>
       </c>
       <c r="K10" t="n">
-        <v>4.095299491058597</v>
+        <v>3.053366139323565</v>
       </c>
       <c r="L10" t="n">
-        <v>4.06919338919754</v>
+        <v>3.115179684667658</v>
       </c>
       <c r="M10" t="n">
-        <v>4.085837945881531</v>
+        <v>3.15034304821871</v>
       </c>
       <c r="N10" t="n">
-        <v>4.501160905118151</v>
+        <v>3.390132456687405</v>
       </c>
       <c r="O10" t="n">
-        <v>4.506763498357811</v>
+        <v>3.398135808247805</v>
       </c>
       <c r="P10" t="n">
-        <v>4.903343361816502</v>
+        <v>3.653545089359023</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.91160933569872</v>
+        <v>3.757532982256472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.36144932471336</v>
+        <v>2.502544283765447</v>
       </c>
       <c r="B11" t="n">
-        <v>3.324782842234155</v>
+        <v>2.477217622621031</v>
       </c>
       <c r="C11" t="n">
-        <v>3.32681459465506</v>
+        <v>2.469533779207316</v>
       </c>
       <c r="D11" t="n">
-        <v>3.321376422417621</v>
+        <v>2.474005073738423</v>
       </c>
       <c r="E11" t="n">
-        <v>3.329968542878017</v>
+        <v>2.496967083473778</v>
       </c>
       <c r="F11" t="n">
-        <v>3.517953859992672</v>
+        <v>2.63921298374848</v>
       </c>
       <c r="G11" t="n">
-        <v>3.537169254350755</v>
+        <v>2.678191158121507</v>
       </c>
       <c r="H11" t="n">
-        <v>3.781670771950616</v>
+        <v>2.856835877708075</v>
       </c>
       <c r="I11" t="n">
-        <v>3.838640403032115</v>
+        <v>2.983274858429779</v>
       </c>
       <c r="J11" t="n">
-        <v>3.969864535363169</v>
+        <v>2.981716255477331</v>
       </c>
       <c r="K11" t="n">
-        <v>4.080774737386865</v>
+        <v>3.061019778664189</v>
       </c>
       <c r="L11" t="n">
-        <v>4.066909464674866</v>
+        <v>3.099687542502908</v>
       </c>
       <c r="M11" t="n">
-        <v>4.080757067370233</v>
+        <v>3.124382465443857</v>
       </c>
       <c r="N11" t="n">
-        <v>4.493599335966765</v>
+        <v>3.383712089680624</v>
       </c>
       <c r="O11" t="n">
-        <v>4.496093503738182</v>
+        <v>3.379097780682949</v>
       </c>
       <c r="P11" t="n">
-        <v>4.895269961166395</v>
+        <v>3.648204426989159</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.900876447799551</v>
+        <v>3.748574381396474</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.354272902026197</v>
+        <v>2.535275855528096</v>
       </c>
       <c r="B12" t="n">
-        <v>3.316520761745432</v>
+        <v>2.501715309325644</v>
       </c>
       <c r="C12" t="n">
-        <v>3.310766326159456</v>
+        <v>2.50954198525368</v>
       </c>
       <c r="D12" t="n">
-        <v>3.315350347762399</v>
+        <v>2.497636303840239</v>
       </c>
       <c r="E12" t="n">
-        <v>3.332926623458984</v>
+        <v>2.521915647847801</v>
       </c>
       <c r="F12" t="n">
-        <v>3.522342013953623</v>
+        <v>2.650932164108191</v>
       </c>
       <c r="G12" t="n">
-        <v>3.560503559535003</v>
+        <v>2.694074315666225</v>
       </c>
       <c r="H12" t="n">
-        <v>3.834557730714637</v>
+        <v>2.878987108228381</v>
       </c>
       <c r="I12" t="n">
-        <v>3.882725896562418</v>
+        <v>2.994733847075504</v>
       </c>
       <c r="J12" t="n">
-        <v>4.102274655251237</v>
+        <v>2.992962541945679</v>
       </c>
       <c r="K12" t="n">
-        <v>4.137152572657087</v>
+        <v>3.062595485127906</v>
       </c>
       <c r="L12" t="n">
-        <v>4.090949971540791</v>
+        <v>3.103766911892808</v>
       </c>
       <c r="M12" t="n">
-        <v>4.111260008454654</v>
+        <v>3.135476093976516</v>
       </c>
       <c r="N12" t="n">
-        <v>4.49898629510515</v>
+        <v>3.36923378543918</v>
       </c>
       <c r="O12" t="n">
-        <v>4.504011468140286</v>
+        <v>3.384419520019069</v>
       </c>
       <c r="P12" t="n">
-        <v>4.867199492541082</v>
+        <v>3.630617650550701</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.876608626651866</v>
+        <v>3.750562755557618</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.346780515482304</v>
+        <v>2.556033695736722</v>
       </c>
       <c r="B13" t="n">
-        <v>3.310000825099929</v>
+        <v>2.53014261872043</v>
       </c>
       <c r="C13" t="n">
-        <v>3.304198171332974</v>
+        <v>2.517430524945881</v>
       </c>
       <c r="D13" t="n">
-        <v>3.311617481875879</v>
+        <v>2.495771657207424</v>
       </c>
       <c r="E13" t="n">
-        <v>3.330483668786619</v>
+        <v>2.530191199970524</v>
       </c>
       <c r="F13" t="n">
-        <v>3.520995199296074</v>
+        <v>2.631227827412835</v>
       </c>
       <c r="G13" t="n">
-        <v>3.560960284541177</v>
+        <v>2.694371261734214</v>
       </c>
       <c r="H13" t="n">
-        <v>3.826481035654649</v>
+        <v>2.858991284032462</v>
       </c>
       <c r="I13" t="n">
-        <v>3.883536321393044</v>
+        <v>3.005565464371703</v>
       </c>
       <c r="J13" t="n">
-        <v>4.088146129240598</v>
+        <v>2.985809635190293</v>
       </c>
       <c r="K13" t="n">
-        <v>4.133527823313011</v>
+        <v>3.064011437518281</v>
       </c>
       <c r="L13" t="n">
-        <v>4.099073087830914</v>
+        <v>3.0940317388403</v>
       </c>
       <c r="M13" t="n">
-        <v>4.11938492169562</v>
+        <v>3.134222806895445</v>
       </c>
       <c r="N13" t="n">
-        <v>4.519247215362612</v>
+        <v>3.37266467701884</v>
       </c>
       <c r="O13" t="n">
-        <v>4.523423928107591</v>
+        <v>3.386068735190793</v>
       </c>
       <c r="P13" t="n">
-        <v>4.883062974591565</v>
+        <v>3.650500300448649</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.890690132448754</v>
+        <v>3.754340812025588</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.346217171392722</v>
+        <v>2.529152980446047</v>
       </c>
       <c r="B14" t="n">
-        <v>3.30783969221826</v>
+        <v>2.500600851809447</v>
       </c>
       <c r="C14" t="n">
-        <v>3.30420535913635</v>
+        <v>2.491832754952626</v>
       </c>
       <c r="D14" t="n">
-        <v>3.313579153213869</v>
+        <v>2.472710847401653</v>
       </c>
       <c r="E14" t="n">
-        <v>3.325699287164575</v>
+        <v>2.49615102764355</v>
       </c>
       <c r="F14" t="n">
-        <v>3.52474543570742</v>
+        <v>2.620094897194706</v>
       </c>
       <c r="G14" t="n">
-        <v>3.548521790799282</v>
+        <v>2.65938348210204</v>
       </c>
       <c r="H14" t="n">
-        <v>3.840149841741042</v>
+        <v>2.898079539515252</v>
       </c>
       <c r="I14" t="n">
-        <v>3.867260139632065</v>
+        <v>2.994122487523762</v>
       </c>
       <c r="J14" t="n">
-        <v>4.102673578338596</v>
+        <v>3.016952763831896</v>
       </c>
       <c r="K14" t="n">
-        <v>4.112434615322989</v>
+        <v>3.071693097505025</v>
       </c>
       <c r="L14" t="n">
-        <v>4.097365385545537</v>
+        <v>3.08613573910595</v>
       </c>
       <c r="M14" t="n">
-        <v>4.110035386454495</v>
+        <v>3.11523354253293</v>
       </c>
       <c r="N14" t="n">
-        <v>4.516549093670405</v>
+        <v>3.386103306117826</v>
       </c>
       <c r="O14" t="n">
-        <v>4.513707814894296</v>
+        <v>3.383153496280669</v>
       </c>
       <c r="P14" t="n">
-        <v>4.887074966842513</v>
+        <v>3.674671200916675</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.893462228617371</v>
+        <v>3.760711688021037</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.356140832428494</v>
+        <v>2.512326946354564</v>
       </c>
       <c r="B15" t="n">
-        <v>3.318364732803143</v>
+        <v>2.484558668000377</v>
       </c>
       <c r="C15" t="n">
-        <v>3.315041871200853</v>
+        <v>2.475084778375339</v>
       </c>
       <c r="D15" t="n">
-        <v>3.321109575217292</v>
+        <v>2.462985317818265</v>
       </c>
       <c r="E15" t="n">
-        <v>3.332784963834118</v>
+        <v>2.487843269973012</v>
       </c>
       <c r="F15" t="n">
-        <v>3.523896975417263</v>
+        <v>2.618283744522669</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55429509436912</v>
+        <v>2.661435175645328</v>
       </c>
       <c r="H15" t="n">
-        <v>3.821361522700206</v>
+        <v>2.873669371841707</v>
       </c>
       <c r="I15" t="n">
-        <v>3.866644983459816</v>
+        <v>2.990483078668419</v>
       </c>
       <c r="J15" t="n">
-        <v>4.083080524811473</v>
+        <v>3.010851359115057</v>
       </c>
       <c r="K15" t="n">
-        <v>4.09659988448601</v>
+        <v>3.078129112405095</v>
       </c>
       <c r="L15" t="n">
-        <v>4.091624726582698</v>
+        <v>3.085657568599409</v>
       </c>
       <c r="M15" t="n">
-        <v>4.108348049612016</v>
+        <v>3.109231665695496</v>
       </c>
       <c r="N15" t="n">
-        <v>4.510202862273152</v>
+        <v>3.425851502402452</v>
       </c>
       <c r="O15" t="n">
-        <v>4.506011474429614</v>
+        <v>3.382393299790436</v>
       </c>
       <c r="P15" t="n">
-        <v>4.883388222694321</v>
+        <v>3.742396738687915</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.891779084660194</v>
+        <v>3.743761380544483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.171837018355403</v>
+        <v>2.534506379473239</v>
       </c>
       <c r="B16" t="n">
-        <v>4.126157629426507</v>
+        <v>2.506737919166804</v>
       </c>
       <c r="C16" t="n">
-        <v>4.111657134591169</v>
+        <v>2.497928883054287</v>
       </c>
       <c r="D16" t="n">
-        <v>4.085834052488035</v>
+        <v>2.482229315327339</v>
       </c>
       <c r="E16" t="n">
-        <v>4.124732048423632</v>
+        <v>2.505860545429155</v>
       </c>
       <c r="F16" t="n">
-        <v>4.335768351472804</v>
+        <v>2.634164172783674</v>
       </c>
       <c r="G16" t="n">
-        <v>4.391430700815322</v>
+        <v>2.667973447708516</v>
       </c>
       <c r="H16" t="n">
-        <v>4.742141896522885</v>
+        <v>2.88106682241779</v>
       </c>
       <c r="I16" t="n">
-        <v>4.939202713874962</v>
+        <v>3.000724078969095</v>
       </c>
       <c r="J16" t="n">
-        <v>4.947955661435892</v>
+        <v>3.006167908263316</v>
       </c>
       <c r="K16" t="n">
-        <v>5.077948283455219</v>
+        <v>3.085128087559061</v>
       </c>
       <c r="L16" t="n">
-        <v>5.102764174610313</v>
+        <v>3.100172991099351</v>
       </c>
       <c r="M16" t="n">
-        <v>5.129380610511054</v>
+        <v>3.116343087338444</v>
       </c>
       <c r="N16" t="n">
-        <v>5.681994507619746</v>
+        <v>3.451983484194491</v>
       </c>
       <c r="O16" t="n">
-        <v>5.551353186345749</v>
+        <v>3.372598446400734</v>
       </c>
       <c r="P16" t="n">
-        <v>6.199418716351159</v>
+        <v>3.766276879464369</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.155374253198461</v>
+        <v>3.739546638682411</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.188704396944045</v>
+        <v>2.544785953650394</v>
       </c>
       <c r="B17" t="n">
-        <v>4.14647215871748</v>
+        <v>2.519130504794669</v>
       </c>
       <c r="C17" t="n">
-        <v>4.13418670528913</v>
+        <v>2.511663002603282</v>
       </c>
       <c r="D17" t="n">
-        <v>4.110814364645352</v>
+        <v>2.497479642955104</v>
       </c>
       <c r="E17" t="n">
-        <v>4.146555716931724</v>
+        <v>2.519205287168409</v>
       </c>
       <c r="F17" t="n">
-        <v>4.365738796123797</v>
+        <v>2.65242107934983</v>
       </c>
       <c r="G17" t="n">
-        <v>4.399094097181198</v>
+        <v>2.672644525807424</v>
       </c>
       <c r="H17" t="n">
-        <v>4.800151063667616</v>
+        <v>2.916380478525313</v>
       </c>
       <c r="I17" t="n">
-        <v>4.946518100760724</v>
+        <v>3.005176814370953</v>
       </c>
       <c r="J17" t="n">
-        <v>4.969868578502568</v>
+        <v>3.019289758499331</v>
       </c>
       <c r="K17" t="n">
-        <v>5.089857874665374</v>
+        <v>3.092096130830944</v>
       </c>
       <c r="L17" t="n">
-        <v>5.152185114688141</v>
+        <v>3.130264981606902</v>
       </c>
       <c r="M17" t="n">
-        <v>5.16368979297479</v>
+        <v>3.137218468698982</v>
       </c>
       <c r="N17" t="n">
-        <v>5.711471090280457</v>
+        <v>3.470009493358515</v>
       </c>
       <c r="O17" t="n">
-        <v>5.544640376976328</v>
+        <v>3.368563473359234</v>
       </c>
       <c r="P17" t="n">
-        <v>6.217761391582693</v>
+        <v>3.777537176255778</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.150826170612397</v>
+        <v>3.736801343171491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.212804802171435</v>
+        <v>2.559346500307727</v>
       </c>
       <c r="B18" t="n">
-        <v>4.151687808542075</v>
+        <v>2.52221113829781</v>
       </c>
       <c r="C18" t="n">
-        <v>4.167276357113432</v>
+        <v>2.531687939158807</v>
       </c>
       <c r="D18" t="n">
-        <v>4.123195655452046</v>
+        <v>2.504926220638025</v>
       </c>
       <c r="E18" t="n">
-        <v>4.16679028191014</v>
+        <v>2.531425927922347</v>
       </c>
       <c r="F18" t="n">
-        <v>4.41029598925064</v>
+        <v>2.679468462899254</v>
       </c>
       <c r="G18" t="n">
-        <v>4.423246014999449</v>
+        <v>2.687326434613868</v>
       </c>
       <c r="H18" t="n">
-        <v>4.869949725807763</v>
+        <v>2.958785541528553</v>
       </c>
       <c r="I18" t="n">
-        <v>4.975009355375331</v>
+        <v>3.022577999516917</v>
       </c>
       <c r="J18" t="n">
-        <v>5.055221647148037</v>
+        <v>3.071530796100217</v>
       </c>
       <c r="K18" t="n">
-        <v>5.106267030788806</v>
+        <v>3.102505255008349</v>
       </c>
       <c r="L18" t="n">
-        <v>5.168487052744551</v>
+        <v>3.140143896934969</v>
       </c>
       <c r="M18" t="n">
-        <v>5.176137271470904</v>
+        <v>3.144776037252903</v>
       </c>
       <c r="N18" t="n">
-        <v>5.717636428626085</v>
+        <v>3.473641624123957</v>
       </c>
       <c r="O18" t="n">
-        <v>5.539844315173798</v>
+        <v>3.365609296668136</v>
       </c>
       <c r="P18" t="n">
-        <v>6.229060019505901</v>
+        <v>3.784251578094587</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.19319527659491</v>
+        <v>3.762464615973861</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.136820735734569</v>
+        <v>2.513321497339631</v>
       </c>
       <c r="B19" t="n">
-        <v>4.086987694929858</v>
+        <v>2.483045007253072</v>
       </c>
       <c r="C19" t="n">
-        <v>4.074042760541775</v>
+        <v>2.475176482308101</v>
       </c>
       <c r="D19" t="n">
-        <v>4.059324834654316</v>
+        <v>2.466255545563345</v>
       </c>
       <c r="E19" t="n">
-        <v>4.0995384980995</v>
+        <v>2.490699556354933</v>
       </c>
       <c r="F19" t="n">
-        <v>4.345828580772716</v>
+        <v>2.640326895407935</v>
       </c>
       <c r="G19" t="n">
-        <v>4.383991623813133</v>
+        <v>2.663568383795515</v>
       </c>
       <c r="H19" t="n">
-        <v>4.913250850294678</v>
+        <v>2.985065632450091</v>
       </c>
       <c r="I19" t="n">
-        <v>4.780857202456012</v>
+        <v>2.90464965322176</v>
       </c>
       <c r="J19" t="n">
-        <v>5.05199252648144</v>
+        <v>3.069401590899477</v>
       </c>
       <c r="K19" t="n">
-        <v>5.096027405896304</v>
+        <v>3.096158396709575</v>
       </c>
       <c r="L19" t="n">
-        <v>5.139470489499892</v>
+        <v>3.122514907575082</v>
       </c>
       <c r="M19" t="n">
-        <v>5.156584050354157</v>
+        <v>3.132940407454766</v>
       </c>
       <c r="N19" t="n">
-        <v>5.681472193907767</v>
+        <v>3.451661792620836</v>
       </c>
       <c r="O19" t="n">
-        <v>5.578287682545872</v>
+        <v>3.389071675084232</v>
       </c>
       <c r="P19" t="n">
-        <v>6.203802078443194</v>
+        <v>3.768999976801088</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.224597591576733</v>
+        <v>3.781613634409717</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.109613402497971</v>
+        <v>2.496701251240118</v>
       </c>
       <c r="B20" t="n">
-        <v>4.060081051467817</v>
+        <v>2.466614537347746</v>
       </c>
       <c r="C20" t="n">
-        <v>4.047452979411885</v>
+        <v>2.458946523779566</v>
       </c>
       <c r="D20" t="n">
-        <v>4.048907611120071</v>
+        <v>2.459860833823467</v>
       </c>
       <c r="E20" t="n">
-        <v>4.088781950347553</v>
+        <v>2.484070126215725</v>
       </c>
       <c r="F20" t="n">
-        <v>4.347844160636025</v>
+        <v>2.641500123500088</v>
       </c>
       <c r="G20" t="n">
-        <v>4.388197986247037</v>
+        <v>2.66599417115975</v>
       </c>
       <c r="H20" t="n">
-        <v>4.777630777215681</v>
+        <v>2.902676199144915</v>
       </c>
       <c r="I20" t="n">
-        <v>4.907179851868357</v>
+        <v>2.981300858496192</v>
       </c>
       <c r="J20" t="n">
-        <v>5.031099978002326</v>
+        <v>3.056718063627791</v>
       </c>
       <c r="K20" t="n">
-        <v>5.101878876827855</v>
+        <v>3.09969773182877</v>
       </c>
       <c r="L20" t="n">
-        <v>5.143049416597447</v>
+        <v>3.124593530051006</v>
       </c>
       <c r="M20" t="n">
-        <v>5.16625883369804</v>
+        <v>3.138687915050135</v>
       </c>
       <c r="N20" t="n">
-        <v>5.689556076771131</v>
+        <v>3.456610165944999</v>
       </c>
       <c r="O20" t="n">
-        <v>5.629089279855477</v>
+        <v>3.419882740874071</v>
       </c>
       <c r="P20" t="n">
-        <v>6.165070599952471</v>
+        <v>3.745539781811962</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.255392537173297</v>
+        <v>3.800331789923394</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.091026341951659</v>
+        <v>2.485448050586364</v>
       </c>
       <c r="B21" t="n">
-        <v>4.041415224576178</v>
+        <v>2.455309844207937</v>
       </c>
       <c r="C21" t="n">
-        <v>4.022603844666178</v>
+        <v>2.443877056685858</v>
       </c>
       <c r="D21" t="n">
-        <v>4.015605919096181</v>
+        <v>2.439646121073755</v>
       </c>
       <c r="E21" t="n">
-        <v>4.072472225504153</v>
+        <v>2.47421632029782</v>
       </c>
       <c r="F21" t="n">
-        <v>4.310819485955257</v>
+        <v>2.618987535816163</v>
       </c>
       <c r="G21" t="n">
-        <v>4.397173755712619</v>
+        <v>2.671528430720999</v>
       </c>
       <c r="H21" t="n">
-        <v>4.694112095890089</v>
+        <v>2.851681716391941</v>
       </c>
       <c r="I21" t="n">
-        <v>4.942006556175154</v>
+        <v>3.00253468578439</v>
       </c>
       <c r="J21" t="n">
-        <v>4.944733429080864</v>
+        <v>3.003882042177441</v>
       </c>
       <c r="K21" t="n">
-        <v>5.13867863316132</v>
+        <v>3.121984698725743</v>
       </c>
       <c r="L21" t="n">
-        <v>5.119741167200436</v>
+        <v>3.110477674686667</v>
       </c>
       <c r="M21" t="n">
-        <v>5.1646589484633</v>
+        <v>3.137782520666364</v>
       </c>
       <c r="N21" t="n">
-        <v>5.66829695031985</v>
+        <v>3.443802911144985</v>
       </c>
       <c r="O21" t="n">
-        <v>5.634396873664921</v>
+        <v>3.423153150571398</v>
       </c>
       <c r="P21" t="n">
-        <v>6.118636192177304</v>
+        <v>3.717404141869987</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.274835545304949</v>
+        <v>3.812229283485696</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.111090496091707</v>
+        <v>2.497734558053911</v>
       </c>
       <c r="B22" t="n">
-        <v>4.065820512463427</v>
+        <v>2.470234295360354</v>
       </c>
       <c r="C22" t="n">
-        <v>4.043521250965299</v>
+        <v>2.456685585151605</v>
       </c>
       <c r="D22" t="n">
-        <v>4.021848526328101</v>
+        <v>2.443516791235724</v>
       </c>
       <c r="E22" t="n">
-        <v>4.090588784421155</v>
+        <v>2.485286476990546</v>
       </c>
       <c r="F22" t="n">
-        <v>4.293003017829196</v>
+        <v>2.608211595907712</v>
       </c>
       <c r="G22" t="n">
-        <v>4.426995053443564</v>
+        <v>2.689678895222343</v>
       </c>
       <c r="H22" t="n">
-        <v>4.645876244893852</v>
+        <v>2.822526416054739</v>
       </c>
       <c r="I22" t="n">
-        <v>4.969321107478774</v>
+        <v>3.019109079917521</v>
       </c>
       <c r="J22" t="n">
-        <v>4.930433294264627</v>
+        <v>2.995329376781711</v>
       </c>
       <c r="K22" t="n">
-        <v>5.140179686099642</v>
+        <v>3.122815128783527</v>
       </c>
       <c r="L22" t="n">
-        <v>5.095402067002607</v>
+        <v>3.09568568477046</v>
       </c>
       <c r="M22" t="n">
-        <v>5.163272900378992</v>
+        <v>3.136942629091708</v>
       </c>
       <c r="N22" t="n">
-        <v>5.611799617818504</v>
+        <v>3.409326599280652</v>
       </c>
       <c r="O22" t="n">
-        <v>5.612874793406808</v>
+        <v>3.409987449843726</v>
       </c>
       <c r="P22" t="n">
-        <v>6.049603330588491</v>
+        <v>3.675426666648471</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.279204531790231</v>
+        <v>3.814732946411879</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.10681165664043</v>
+        <v>2.495006366054261</v>
       </c>
       <c r="B23" t="n">
-        <v>4.059774970840729</v>
+        <v>2.466428218246262</v>
       </c>
       <c r="C23" t="n">
-        <v>4.041141489064281</v>
+        <v>2.455113517732839</v>
       </c>
       <c r="D23" t="n">
-        <v>4.026030629925611</v>
+        <v>2.445949674737613</v>
       </c>
       <c r="E23" t="n">
-        <v>4.087454003673866</v>
+        <v>2.483250431340547</v>
       </c>
       <c r="F23" t="n">
-        <v>4.305774546460838</v>
+        <v>2.615968766077187</v>
       </c>
       <c r="G23" t="n">
-        <v>4.436148122059084</v>
+        <v>2.695117811805881</v>
       </c>
       <c r="H23" t="n">
-        <v>4.692460398572682</v>
+        <v>2.851080728118309</v>
       </c>
       <c r="I23" t="n">
-        <v>4.983223217683075</v>
+        <v>3.027514000088247</v>
       </c>
       <c r="J23" t="n">
-        <v>5.03188045365222</v>
+        <v>3.057220615735503</v>
       </c>
       <c r="K23" t="n">
-        <v>5.180799759927368</v>
+        <v>3.147570095966164</v>
       </c>
       <c r="L23" t="n">
-        <v>5.067977003222083</v>
+        <v>3.079066166479938</v>
       </c>
       <c r="M23" t="n">
-        <v>5.154379191668617</v>
+        <v>3.131537191721719</v>
       </c>
       <c r="N23" t="n">
-        <v>5.472419724590329</v>
+        <v>3.32481196372418</v>
       </c>
       <c r="O23" t="n">
-        <v>5.567568870761648</v>
+        <v>3.382544684060392</v>
       </c>
       <c r="P23" t="n">
-        <v>5.89091639850919</v>
+        <v>3.579061481209564</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.277496829504854</v>
+        <v>3.813775877589806</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.120690705975566</v>
+        <v>2.503351423935545</v>
       </c>
       <c r="B24" t="n">
-        <v>4.071114329649734</v>
+        <v>2.473229957163892</v>
       </c>
       <c r="C24" t="n">
-        <v>4.054856416889002</v>
+        <v>2.463353771119539</v>
       </c>
       <c r="D24" t="n">
-        <v>4.026818592870687</v>
+        <v>2.446328681269244</v>
       </c>
       <c r="E24" t="n">
-        <v>4.082908916005875</v>
+        <v>2.480398875717063</v>
       </c>
       <c r="F24" t="n">
-        <v>4.288008991942023</v>
+        <v>2.605025430100997</v>
       </c>
       <c r="G24" t="n">
-        <v>4.440765986236255</v>
+        <v>2.697808885547033</v>
       </c>
       <c r="H24" t="n">
-        <v>4.989288825256863</v>
+        <v>3.031108284786199</v>
       </c>
       <c r="I24" t="n">
-        <v>4.669347118342241</v>
+        <v>2.836845330127335</v>
       </c>
       <c r="J24" t="n">
-        <v>5.054265070315435</v>
+        <v>3.070778241604382</v>
       </c>
       <c r="K24" t="n">
-        <v>5.239238398323804</v>
+        <v>3.18306715993921</v>
       </c>
       <c r="L24" t="n">
-        <v>5.041827774540771</v>
+        <v>3.063102767994054</v>
       </c>
       <c r="M24" t="n">
-        <v>5.141688525824954</v>
+        <v>3.123760552661757</v>
       </c>
       <c r="N24" t="n">
-        <v>5.408129615262342</v>
+        <v>3.285651837103611</v>
       </c>
       <c r="O24" t="n">
-        <v>5.532298319596393</v>
+        <v>3.361084872080747</v>
       </c>
       <c r="P24" t="n">
-        <v>5.889961618627432</v>
+        <v>3.578459947079189</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.232809057950018</v>
+        <v>3.786629693969966</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.180011347744579</v>
+        <v>2.539434738050173</v>
       </c>
       <c r="B25" t="n">
-        <v>4.127505342559478</v>
+        <v>2.507527773873386</v>
       </c>
       <c r="C25" t="n">
-        <v>4.112762259360204</v>
+        <v>2.498579180387003</v>
       </c>
       <c r="D25" t="n">
-        <v>4.061808819704285</v>
+        <v>2.467654212490203</v>
       </c>
       <c r="E25" t="n">
-        <v>4.116924297006625</v>
+        <v>2.501111955672794</v>
       </c>
       <c r="F25" t="n">
-        <v>4.299602020311834</v>
+        <v>2.612170149005244</v>
       </c>
       <c r="G25" t="n">
-        <v>4.423163055768819</v>
+        <v>2.68715521754893</v>
       </c>
       <c r="H25" t="n">
-        <v>4.648911594361109</v>
+        <v>2.824457111353411</v>
       </c>
       <c r="I25" t="n">
-        <v>4.964128219031537</v>
+        <v>3.015817017902736</v>
       </c>
       <c r="J25" t="n">
-        <v>4.911762974995878</v>
+        <v>2.984179161100065</v>
       </c>
       <c r="K25" t="n">
-        <v>5.226531559922545</v>
+        <v>3.175317085907389</v>
       </c>
       <c r="L25" t="n">
-        <v>5.066415452938681</v>
+        <v>3.078091994146596</v>
       </c>
       <c r="M25" t="n">
-        <v>5.135380030395424</v>
+        <v>3.119959570210596</v>
       </c>
       <c r="N25" t="n">
-        <v>5.475548814993279</v>
+        <v>3.326684252351392</v>
       </c>
       <c r="O25" t="n">
-        <v>5.451714657982603</v>
+        <v>3.312208859345909</v>
       </c>
       <c r="P25" t="n">
-        <v>6.048610814739011</v>
+        <v>3.674833138416988</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.149535959906433</v>
+        <v>3.736166329827568</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.212533462593997</v>
+        <v>2.559399630364009</v>
       </c>
       <c r="B26" t="n">
-        <v>4.16232036668579</v>
+        <v>2.52888623845115</v>
       </c>
       <c r="C26" t="n">
-        <v>4.151917818250102</v>
+        <v>2.522577226219865</v>
       </c>
       <c r="D26" t="n">
-        <v>4.114632286205153</v>
+        <v>2.49995128228572</v>
       </c>
       <c r="E26" t="n">
-        <v>4.151270316962662</v>
+        <v>2.522197309926996</v>
       </c>
       <c r="F26" t="n">
-        <v>4.358981362475084</v>
+        <v>2.648384104833607</v>
       </c>
       <c r="G26" t="n">
-        <v>4.42456557590253</v>
+        <v>2.688258757930275</v>
       </c>
       <c r="H26" t="n">
-        <v>4.735924147110975</v>
+        <v>2.877352085331965</v>
       </c>
       <c r="I26" t="n">
-        <v>4.983010578499872</v>
+        <v>3.027491438009552</v>
       </c>
       <c r="J26" t="n">
-        <v>4.988555669312527</v>
+        <v>3.030807881625507</v>
       </c>
       <c r="K26" t="n">
-        <v>5.208580619974995</v>
+        <v>3.164399951054846</v>
       </c>
       <c r="L26" t="n">
-        <v>5.128975697587548</v>
+        <v>3.116172780034744</v>
       </c>
       <c r="M26" t="n">
-        <v>5.164268411146546</v>
+        <v>3.137629680778428</v>
       </c>
       <c r="N26" t="n">
-        <v>5.609645672740211</v>
+        <v>3.408154826806479</v>
       </c>
       <c r="O26" t="n">
-        <v>5.485136745713037</v>
+        <v>3.332539475677306</v>
       </c>
       <c r="P26" t="n">
-        <v>6.152465588765703</v>
+        <v>3.737873041909516</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.129059106055889</v>
+        <v>3.72363928148877</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.193705311142788</v>
+        <v>2.547877322336139</v>
       </c>
       <c r="B27" t="n">
-        <v>4.145977398251777</v>
+        <v>2.518881048263288</v>
       </c>
       <c r="C27" t="n">
-        <v>4.128584711033083</v>
+        <v>2.508315081248502</v>
       </c>
       <c r="D27" t="n">
-        <v>4.100309390011559</v>
+        <v>2.491158076018739</v>
       </c>
       <c r="E27" t="n">
-        <v>4.159978939736109</v>
+        <v>2.527410059866838</v>
       </c>
       <c r="F27" t="n">
-        <v>4.382002998212483</v>
+        <v>2.662310002051512</v>
       </c>
       <c r="G27" t="n">
-        <v>4.475219224259315</v>
+        <v>2.718923898017585</v>
       </c>
       <c r="H27" t="n">
-        <v>4.716978295379485</v>
+        <v>2.865934217894185</v>
       </c>
       <c r="I27" t="n">
-        <v>5.028893921349558</v>
+        <v>3.055251164608105</v>
       </c>
       <c r="J27" t="n">
-        <v>4.980478674760732</v>
+        <v>3.026162822697997</v>
       </c>
       <c r="K27" t="n">
-        <v>5.238695120185313</v>
+        <v>3.18279022861845</v>
       </c>
       <c r="L27" t="n">
-        <v>5.153561579034615</v>
+        <v>3.130976778799288</v>
       </c>
       <c r="M27" t="n">
-        <v>5.196898642538408</v>
+        <v>3.157300902164732</v>
       </c>
       <c r="N27" t="n">
-        <v>5.644592772753553</v>
+        <v>3.429307867296767</v>
       </c>
       <c r="O27" t="n">
-        <v>5.479786624066952</v>
+        <v>3.329228672581024</v>
       </c>
       <c r="P27" t="n">
-        <v>6.133052529814784</v>
+        <v>3.726097456353068</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.116191141062289</v>
+        <v>3.715879745940077</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.250434150811196</v>
+        <v>2.582426960956232</v>
       </c>
       <c r="B28" t="n">
-        <v>4.203856885443934</v>
+        <v>2.554132476702152</v>
       </c>
       <c r="C28" t="n">
-        <v>4.187290795613463</v>
+        <v>2.544073974505761</v>
       </c>
       <c r="D28" t="n">
-        <v>4.17620450738165</v>
+        <v>2.537368124422586</v>
       </c>
       <c r="E28" t="n">
-        <v>4.234235237936508</v>
+        <v>2.572608999631092</v>
       </c>
       <c r="F28" t="n">
-        <v>4.409651183389466</v>
+        <v>2.679195534527941</v>
       </c>
       <c r="G28" t="n">
-        <v>4.549488700099237</v>
+        <v>2.764092451756499</v>
       </c>
       <c r="H28" t="n">
-        <v>5.009237076067475</v>
+        <v>3.043340206579484</v>
       </c>
       <c r="I28" t="n">
-        <v>4.364300636465014</v>
+        <v>2.651782972817699</v>
       </c>
       <c r="J28" t="n">
-        <v>5.250177636078221</v>
+        <v>3.189584325541683</v>
       </c>
       <c r="K28" t="n">
-        <v>4.253332333030697</v>
+        <v>2.584338551268912</v>
       </c>
       <c r="L28" t="n">
-        <v>5.189177743745526</v>
+        <v>3.152641105105171</v>
       </c>
       <c r="M28" t="n">
-        <v>5.234003880515347</v>
+        <v>3.17984806077569</v>
       </c>
       <c r="N28" t="n">
-        <v>5.665266093229703</v>
+        <v>3.441842921534458</v>
       </c>
       <c r="O28" t="n">
-        <v>5.50732549473426</v>
+        <v>3.345866386096301</v>
       </c>
       <c r="P28" t="n">
-        <v>6.139568872558599</v>
+        <v>3.729975222652691</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.170129016578219</v>
+        <v>3.74851178982332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.299490908851316</v>
+        <v>2.612147768878796</v>
       </c>
       <c r="B29" t="n">
-        <v>4.256753128453983</v>
+        <v>2.586174995303358</v>
       </c>
       <c r="C29" t="n">
-        <v>4.239538938352457</v>
+        <v>2.575714924496641</v>
       </c>
       <c r="D29" t="n">
-        <v>4.23780877418153</v>
+        <v>2.57466142098337</v>
       </c>
       <c r="E29" t="n">
-        <v>4.285214733379664</v>
+        <v>2.603466463244054</v>
       </c>
       <c r="F29" t="n">
-        <v>4.511160637072983</v>
+        <v>2.74074943401479</v>
       </c>
       <c r="G29" t="n">
-        <v>4.580928152065169</v>
+        <v>2.783151767734317</v>
       </c>
       <c r="H29" t="n">
-        <v>4.766846975709267</v>
+        <v>2.896039672868054</v>
       </c>
       <c r="I29" t="n">
-        <v>5.105297276316682</v>
+        <v>3.101718129585481</v>
       </c>
       <c r="J29" t="n">
-        <v>4.961153965892975</v>
+        <v>3.014113580961244</v>
       </c>
       <c r="K29" t="n">
-        <v>5.320699570933062</v>
+        <v>3.232523600343708</v>
       </c>
       <c r="L29" t="n">
-        <v>5.255006641979557</v>
+        <v>3.192690978216222</v>
       </c>
       <c r="M29" t="n">
-        <v>5.280128613761739</v>
+        <v>3.207948401981642</v>
       </c>
       <c r="N29" t="n">
-        <v>5.746906960923357</v>
+        <v>3.491447471068455</v>
       </c>
       <c r="O29" t="n">
-        <v>5.541268099225829</v>
+        <v>3.366432448636018</v>
       </c>
       <c r="P29" t="n">
-        <v>6.19144085358759</v>
+        <v>3.76138673085942</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.127429271640417</v>
+        <v>3.722484248621371</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.36088972427137</v>
+        <v>2.649650310524255</v>
       </c>
       <c r="B30" t="n">
-        <v>4.318328943532167</v>
+        <v>2.623799626906917</v>
       </c>
       <c r="C30" t="n">
-        <v>4.302960521439195</v>
+        <v>2.614462201467536</v>
       </c>
       <c r="D30" t="n">
-        <v>4.29144865534917</v>
+        <v>2.607420467535398</v>
       </c>
       <c r="E30" t="n">
-        <v>4.341934588293854</v>
+        <v>2.638109261414888</v>
       </c>
       <c r="F30" t="n">
-        <v>4.506893777293999</v>
+        <v>2.738201192787959</v>
       </c>
       <c r="G30" t="n">
-        <v>4.646636355100847</v>
+        <v>2.823163976730127</v>
       </c>
       <c r="H30" t="n">
-        <v>4.561432433375427</v>
+        <v>2.771214790534298</v>
       </c>
       <c r="I30" t="n">
-        <v>5.147105134652265</v>
+        <v>3.12714304494357</v>
       </c>
       <c r="J30" t="n">
-        <v>4.598040814444011</v>
+        <v>2.793635310380967</v>
       </c>
       <c r="K30" t="n">
-        <v>5.353802999380501</v>
+        <v>3.252675539568018</v>
       </c>
       <c r="L30" t="n">
-        <v>5.244262672883518</v>
+        <v>3.186170901377788</v>
       </c>
       <c r="M30" t="n">
-        <v>5.299209236806525</v>
+        <v>3.219564961273738</v>
       </c>
       <c r="N30" t="n">
-        <v>5.733006348178094</v>
+        <v>3.483019806866787</v>
       </c>
       <c r="O30" t="n">
-        <v>5.604529753687456</v>
+        <v>3.404957198008169</v>
       </c>
       <c r="P30" t="n">
-        <v>6.180233271173809</v>
+        <v>3.754679243206017</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.184301567884535</v>
+        <v>3.757158888435525</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.430158585404357</v>
+        <v>2.691456386728585</v>
       </c>
       <c r="B31" t="n">
-        <v>4.38628962445075</v>
+        <v>2.664816940118151</v>
       </c>
       <c r="C31" t="n">
-        <v>4.36616197804755</v>
+        <v>2.652591204701282</v>
       </c>
       <c r="D31" t="n">
-        <v>4.321404424901606</v>
+        <v>2.625448296221898</v>
       </c>
       <c r="E31" t="n">
-        <v>4.383610670234213</v>
+        <v>2.663234319469027</v>
       </c>
       <c r="F31" t="n">
-        <v>4.517918370213503</v>
+        <v>2.744850819626643</v>
       </c>
       <c r="G31" t="n">
-        <v>4.637134378529792</v>
+        <v>2.817221780229888</v>
       </c>
       <c r="H31" t="n">
-        <v>5.092788102508258</v>
+        <v>3.094029919317824</v>
       </c>
       <c r="I31" t="n">
-        <v>4.551667502997539</v>
+        <v>2.765507312433388</v>
       </c>
       <c r="J31" t="n">
-        <v>4.585056646629167</v>
+        <v>2.78563250467731</v>
       </c>
       <c r="K31" t="n">
-        <v>5.282429309825623</v>
+        <v>3.20929448470896</v>
       </c>
       <c r="L31" t="n">
-        <v>5.331327936191474</v>
+        <v>3.238961070861758</v>
       </c>
       <c r="M31" t="n">
-        <v>5.373694047255913</v>
+        <v>3.26467965714738</v>
       </c>
       <c r="N31" t="n">
-        <v>5.815900888577218</v>
+        <v>3.533358351767371</v>
       </c>
       <c r="O31" t="n">
-        <v>5.605088006416312</v>
+        <v>3.405301087756024</v>
       </c>
       <c r="P31" t="n">
-        <v>6.198157855842314</v>
+        <v>3.765572360361885</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.225152250403903</v>
+        <v>3.781907669241746</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.454099361498441</v>
+        <v>2.705989822501034</v>
       </c>
       <c r="B32" t="n">
-        <v>4.391994344396711</v>
+        <v>2.668264207400089</v>
       </c>
       <c r="C32" t="n">
-        <v>4.411503839709589</v>
+        <v>2.680116758757248</v>
       </c>
       <c r="D32" t="n">
-        <v>4.351376666503444</v>
+        <v>2.643611133476075</v>
       </c>
       <c r="E32" t="n">
-        <v>4.417048930522244</v>
+        <v>2.683519083834043</v>
       </c>
       <c r="F32" t="n">
-        <v>4.503938991122913</v>
+        <v>2.736289784427526</v>
       </c>
       <c r="G32" t="n">
-        <v>4.645403946313698</v>
+        <v>2.822253305731177</v>
       </c>
       <c r="H32" t="n">
-        <v>4.286159031048166</v>
+        <v>2.603929167809554</v>
       </c>
       <c r="I32" t="n">
-        <v>5.00208221679044</v>
+        <v>3.038872369141081</v>
       </c>
       <c r="J32" t="n">
-        <v>4.323266065975949</v>
+        <v>2.626406092852961</v>
       </c>
       <c r="K32" t="n">
-        <v>5.169565223250927</v>
+        <v>3.140571120812198</v>
       </c>
       <c r="L32" t="n">
-        <v>5.381955229269215</v>
+        <v>3.269711364600917</v>
       </c>
       <c r="M32" t="n">
-        <v>5.427589394935204</v>
+        <v>3.29744889302527</v>
       </c>
       <c r="N32" t="n">
-        <v>5.862755183866256</v>
+        <v>3.56185425715948</v>
       </c>
       <c r="O32" t="n">
-        <v>5.662752757982617</v>
+        <v>3.440366197093404</v>
       </c>
       <c r="P32" t="n">
-        <v>6.205284562889461</v>
+        <v>3.769995255595145</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.283145244991037</v>
+        <v>3.817282097399948</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.437271815320174</v>
+        <v>2.695668217354696</v>
       </c>
       <c r="B33" t="n">
-        <v>4.376149430838282</v>
+        <v>2.658525031398135</v>
       </c>
       <c r="C33" t="n">
-        <v>4.401714949987114</v>
+        <v>2.674056657200601</v>
       </c>
       <c r="D33" t="n">
-        <v>4.366494413953682</v>
+        <v>2.652685819870004</v>
       </c>
       <c r="E33" t="n">
-        <v>4.444854348898073</v>
+        <v>2.700291623964749</v>
       </c>
       <c r="F33" t="n">
-        <v>4.552043964199348</v>
+        <v>2.765480929357495</v>
       </c>
       <c r="G33" t="n">
-        <v>4.782940467467777</v>
+        <v>2.905778121061018</v>
       </c>
       <c r="H33" t="n">
-        <v>4.252577613676234</v>
+        <v>2.583449714539668</v>
       </c>
       <c r="I33" t="n">
-        <v>5.179363996203043</v>
+        <v>3.146614482762072</v>
       </c>
       <c r="J33" t="n">
-        <v>4.300126130974656</v>
+        <v>2.612385216561839</v>
       </c>
       <c r="K33" t="n">
-        <v>5.201436542403023</v>
+        <v>3.159849689248305</v>
       </c>
       <c r="L33" t="n">
-        <v>5.412513576337991</v>
+        <v>3.28835200845714</v>
       </c>
       <c r="M33" t="n">
-        <v>5.485794429721927</v>
+        <v>3.332885184947636</v>
       </c>
       <c r="N33" t="n">
-        <v>5.865838751514493</v>
+        <v>3.563759661095744</v>
       </c>
       <c r="O33" t="n">
-        <v>5.746006089566919</v>
+        <v>3.490946738483219</v>
       </c>
       <c r="P33" t="n">
-        <v>6.192714292752343</v>
+        <v>3.762387104316408</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.315393324836751</v>
+        <v>3.836879446173749</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.536293690052036</v>
+        <v>2.7560186846763</v>
       </c>
       <c r="B34" t="n">
-        <v>4.491135416867888</v>
+        <v>2.728582833078373</v>
       </c>
       <c r="C34" t="n">
-        <v>4.482330657224289</v>
+        <v>2.723235074570854</v>
       </c>
       <c r="D34" t="n">
-        <v>4.503962950467499</v>
+        <v>2.736366204371494</v>
       </c>
       <c r="E34" t="n">
-        <v>4.51728015317209</v>
+        <v>2.744467264288824</v>
       </c>
       <c r="F34" t="n">
-        <v>4.818777956624302</v>
+        <v>2.927592921875618</v>
       </c>
       <c r="G34" t="n">
-        <v>4.746327893513891</v>
+        <v>2.883642174529506</v>
       </c>
       <c r="H34" t="n">
-        <v>5.104425755157362</v>
+        <v>3.101045634078564</v>
       </c>
       <c r="I34" t="n">
-        <v>4.995707833163297</v>
+        <v>3.035161089147958</v>
       </c>
       <c r="J34" t="n">
-        <v>5.121580645881036</v>
+        <v>3.111291729042172</v>
       </c>
       <c r="K34" t="n">
-        <v>4.967691273063303</v>
+        <v>3.017830683426288</v>
       </c>
       <c r="L34" t="n">
-        <v>5.580887271433468</v>
+        <v>3.390532751631998</v>
       </c>
       <c r="M34" t="n">
-        <v>5.557658087873592</v>
+        <v>3.376429996829482</v>
       </c>
       <c r="N34" t="n">
-        <v>5.934303177653</v>
+        <v>3.605275705417492</v>
       </c>
       <c r="O34" t="n">
-        <v>5.76258116415161</v>
+        <v>3.500909351845155</v>
       </c>
       <c r="P34" t="n">
-        <v>6.210622704863253</v>
+        <v>3.773122650825904</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.363664216374445</v>
+        <v>3.866044208027824</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.338678513364597</v>
+        <v>2.63601389933219</v>
       </c>
       <c r="B35" t="n">
-        <v>4.294390862864349</v>
+        <v>2.609119901527444</v>
       </c>
       <c r="C35" t="n">
-        <v>4.297664008826622</v>
+        <v>2.61109845026722</v>
       </c>
       <c r="D35" t="n">
-        <v>4.346555447389098</v>
+        <v>2.640775771602622</v>
       </c>
       <c r="E35" t="n">
-        <v>4.327376591031508</v>
+        <v>2.62911517986662</v>
       </c>
       <c r="F35" t="n">
-        <v>4.705268465204817</v>
+        <v>2.8586626782734</v>
       </c>
       <c r="G35" t="n">
-        <v>4.640848675924258</v>
+        <v>2.819552042664163</v>
       </c>
       <c r="H35" t="n">
-        <v>5.194911214904988</v>
+        <v>3.156154239100719</v>
       </c>
       <c r="I35" t="n">
-        <v>5.112061598276964</v>
+        <v>3.1057887652675</v>
       </c>
       <c r="J35" t="n">
-        <v>5.583789347046464</v>
+        <v>3.392511664276269</v>
       </c>
       <c r="K35" t="n">
-        <v>4.973140526497613</v>
+        <v>3.02138875962698</v>
       </c>
       <c r="L35" t="n">
-        <v>5.514177867285896</v>
+        <v>3.350046193126845</v>
       </c>
       <c r="M35" t="n">
-        <v>5.488741429106021</v>
+        <v>3.334603178068932</v>
       </c>
       <c r="N35" t="n">
-        <v>5.838947382134624</v>
+        <v>3.547331556569636</v>
       </c>
       <c r="O35" t="n">
-        <v>5.737740714668315</v>
+        <v>3.485837883276723</v>
       </c>
       <c r="P35" t="n">
-        <v>6.296100661592377</v>
+        <v>3.825036174381215</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.341281396662074</v>
+        <v>3.852399972889115</v>
       </c>
     </row>
   </sheetData>
@@ -4239,1804 +4239,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.65750581126416</v>
+        <v>8.216093767271248</v>
       </c>
       <c r="B2" t="n">
-        <v>10.68244868694556</v>
+        <v>8.254305922682121</v>
       </c>
       <c r="C2" t="n">
-        <v>10.66972268106863</v>
+        <v>8.230730733872548</v>
       </c>
       <c r="D2" t="n">
-        <v>10.83500262579442</v>
+        <v>8.376598939491325</v>
       </c>
       <c r="E2" t="n">
-        <v>10.69752270859193</v>
+        <v>8.300839118277604</v>
       </c>
       <c r="F2" t="n">
-        <v>10.92752283288103</v>
+        <v>8.540473139526897</v>
       </c>
       <c r="G2" t="n">
-        <v>10.66700928529425</v>
+        <v>8.214960568673554</v>
       </c>
       <c r="H2" t="n">
-        <v>10.97967513824167</v>
+        <v>8.617612886585979</v>
       </c>
       <c r="I2" t="n">
-        <v>10.65760883644588</v>
+        <v>8.054004154879573</v>
       </c>
       <c r="J2" t="n">
-        <v>10.9136647479724</v>
+        <v>8.530750339227222</v>
       </c>
       <c r="K2" t="n">
-        <v>10.69521901760997</v>
+        <v>7.820055049652494</v>
       </c>
       <c r="L2" t="n">
-        <v>10.96289760719523</v>
+        <v>8.453830390483169</v>
       </c>
       <c r="M2" t="n">
-        <v>10.78065205056799</v>
+        <v>8.194921803747215</v>
       </c>
       <c r="N2" t="n">
-        <v>10.98998604218432</v>
+        <v>8.480752045029542</v>
       </c>
       <c r="O2" t="n">
-        <v>10.77238607668578</v>
+        <v>7.931568487508295</v>
       </c>
       <c r="P2" t="n">
-        <v>11.03023774108903</v>
+        <v>8.475481980131724</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.78141755162752</v>
+        <v>7.783779593964462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.66300807474836</v>
+        <v>8.178175646692404</v>
       </c>
       <c r="B3" t="n">
-        <v>10.66429229561818</v>
+        <v>8.211611191700793</v>
       </c>
       <c r="C3" t="n">
-        <v>10.66406228591015</v>
+        <v>8.183380936590096</v>
       </c>
       <c r="D3" t="n">
-        <v>10.8294752049984</v>
+        <v>8.328823373949623</v>
       </c>
       <c r="E3" t="n">
-        <v>10.68932142494009</v>
+        <v>8.228206692294641</v>
       </c>
       <c r="F3" t="n">
-        <v>10.93973730675104</v>
+        <v>8.475270187715585</v>
       </c>
       <c r="G3" t="n">
-        <v>10.671307591713</v>
+        <v>8.169460861844113</v>
       </c>
       <c r="H3" t="n">
-        <v>11.00184352182</v>
+        <v>8.547381502461587</v>
       </c>
       <c r="I3" t="n">
-        <v>10.65455761391283</v>
+        <v>8.020564970826232</v>
       </c>
       <c r="J3" t="n">
-        <v>10.93336891296004</v>
+        <v>8.484148001777674</v>
       </c>
       <c r="K3" t="n">
-        <v>10.66523389786042</v>
+        <v>7.756222562169671</v>
       </c>
       <c r="L3" t="n">
-        <v>10.95304432673418</v>
+        <v>8.413651695180858</v>
       </c>
       <c r="M3" t="n">
-        <v>10.76443516818487</v>
+        <v>8.164178424193462</v>
       </c>
       <c r="N3" t="n">
-        <v>10.98913428748428</v>
+        <v>8.44923718794621</v>
       </c>
       <c r="O3" t="n">
-        <v>10.78596024336105</v>
+        <v>7.856111434834485</v>
       </c>
       <c r="P3" t="n">
-        <v>11.01214005015589</v>
+        <v>8.47992234278075</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.81851260688301</v>
+        <v>7.650211360279552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.63904513626054</v>
+        <v>8.121066658660768</v>
       </c>
       <c r="B4" t="n">
-        <v>10.63768304752081</v>
+        <v>8.152214700013054</v>
       </c>
       <c r="C4" t="n">
-        <v>10.63650544573441</v>
+        <v>8.120169997984879</v>
       </c>
       <c r="D4" t="n">
-        <v>10.80954582217165</v>
+        <v>8.259377295725622</v>
       </c>
       <c r="E4" t="n">
-        <v>10.66934172748971</v>
+        <v>8.154972368276807</v>
       </c>
       <c r="F4" t="n">
-        <v>10.93102449109229</v>
+        <v>8.403321902183382</v>
       </c>
       <c r="G4" t="n">
-        <v>10.66899192105875</v>
+        <v>8.096085342882187</v>
       </c>
       <c r="H4" t="n">
-        <v>10.99608968521764</v>
+        <v>8.478494381542037</v>
       </c>
       <c r="I4" t="n">
-        <v>10.61298934902311</v>
+        <v>7.931788285823327</v>
       </c>
       <c r="J4" t="n">
-        <v>10.9260421453856</v>
+        <v>8.448117817719329</v>
       </c>
       <c r="K4" t="n">
-        <v>10.50878177364739</v>
+        <v>7.672333842344746</v>
       </c>
       <c r="L4" t="n">
-        <v>10.95850346339813</v>
+        <v>8.360742892831491</v>
       </c>
       <c r="M4" t="n">
-        <v>10.7816331857288</v>
+        <v>8.111899904429581</v>
       </c>
       <c r="N4" t="n">
-        <v>10.99274975258233</v>
+        <v>8.402217815945294</v>
       </c>
       <c r="O4" t="n">
-        <v>10.79794350955581</v>
+        <v>7.804578919285528</v>
       </c>
       <c r="P4" t="n">
-        <v>11.01303373370896</v>
+        <v>8.487533769199942</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.82470250355684</v>
+        <v>7.598027455684393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.63861267009076</v>
+        <v>8.084122346510769</v>
       </c>
       <c r="B5" t="n">
-        <v>10.63737397197565</v>
+        <v>8.118550622981752</v>
       </c>
       <c r="C5" t="n">
-        <v>10.63573635077319</v>
+        <v>8.089719197645174</v>
       </c>
       <c r="D5" t="n">
-        <v>10.80544757628019</v>
+        <v>8.226368974594463</v>
       </c>
       <c r="E5" t="n">
-        <v>10.65627669688689</v>
+        <v>8.134042765146502</v>
       </c>
       <c r="F5" t="n">
-        <v>10.91584385036251</v>
+        <v>8.356716653497873</v>
       </c>
       <c r="G5" t="n">
-        <v>10.6469493240395</v>
+        <v>8.059861561632458</v>
       </c>
       <c r="H5" t="n">
-        <v>10.98186502233685</v>
+        <v>8.394324727446905</v>
       </c>
       <c r="I5" t="n">
-        <v>10.58911506011025</v>
+        <v>7.897847641375759</v>
       </c>
       <c r="J5" t="n">
-        <v>10.92308077039475</v>
+        <v>8.342260183526134</v>
       </c>
       <c r="K5" t="n">
-        <v>10.47800839146095</v>
+        <v>7.62719949562837</v>
       </c>
       <c r="L5" t="n">
-        <v>10.95459689226336</v>
+        <v>8.324867004279062</v>
       </c>
       <c r="M5" t="n">
-        <v>10.77476523960318</v>
+        <v>8.074791835256796</v>
       </c>
       <c r="N5" t="n">
-        <v>10.98804653324007</v>
+        <v>8.384471649337989</v>
       </c>
       <c r="O5" t="n">
-        <v>10.8024394805674</v>
+        <v>7.76226919926</v>
       </c>
       <c r="P5" t="n">
-        <v>11.01193519775968</v>
+        <v>8.49571725348541</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.84023534665203</v>
+        <v>7.579613888233102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.62294086279696</v>
+        <v>8.011283222774599</v>
       </c>
       <c r="B6" t="n">
-        <v>10.62482167134698</v>
+        <v>8.042631411599183</v>
       </c>
       <c r="C6" t="n">
-        <v>10.62405137841853</v>
+        <v>8.018870631497117</v>
       </c>
       <c r="D6" t="n">
-        <v>10.80025438834114</v>
+        <v>8.147598935397399</v>
       </c>
       <c r="E6" t="n">
-        <v>10.65847376878544</v>
+        <v>8.067652029063233</v>
       </c>
       <c r="F6" t="n">
-        <v>10.91180310689806</v>
+        <v>8.292244421912692</v>
       </c>
       <c r="G6" t="n">
-        <v>10.65012872906608</v>
+        <v>7.986397977782721</v>
       </c>
       <c r="H6" t="n">
-        <v>10.97501863962136</v>
+        <v>8.348959665280645</v>
       </c>
       <c r="I6" t="n">
-        <v>10.59025193101086</v>
+        <v>7.813932720427188</v>
       </c>
       <c r="J6" t="n">
-        <v>10.90383303092148</v>
+        <v>8.314962251731844</v>
       </c>
       <c r="K6" t="n">
-        <v>10.46177713347107</v>
+        <v>7.540697213719746</v>
       </c>
       <c r="L6" t="n">
-        <v>10.95278556581265</v>
+        <v>8.267521478325621</v>
       </c>
       <c r="M6" t="n">
-        <v>10.77879400339534</v>
+        <v>8.015860413513776</v>
       </c>
       <c r="N6" t="n">
-        <v>10.98120254645904</v>
+        <v>8.333666214970211</v>
       </c>
       <c r="O6" t="n">
-        <v>10.80501391214318</v>
+        <v>7.725182236547929</v>
       </c>
       <c r="P6" t="n">
-        <v>11.00628798024073</v>
+        <v>8.471209741359429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.8484378282711</v>
+        <v>7.570970428665849</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.62492829043038</v>
+        <v>8.011529222213277</v>
       </c>
       <c r="B7" t="n">
-        <v>10.62531044197653</v>
+        <v>8.044755158232498</v>
       </c>
       <c r="C7" t="n">
-        <v>10.62445269744035</v>
+        <v>8.015043084017815</v>
       </c>
       <c r="D7" t="n">
-        <v>10.79581831569102</v>
+        <v>8.143699334828071</v>
       </c>
       <c r="E7" t="n">
-        <v>10.65106913334109</v>
+        <v>8.042070998676753</v>
       </c>
       <c r="F7" t="n">
-        <v>10.90762220126778</v>
+        <v>8.262463205843943</v>
       </c>
       <c r="G7" t="n">
-        <v>10.64751955644065</v>
+        <v>7.946145045963412</v>
       </c>
       <c r="H7" t="n">
-        <v>10.97840649094584</v>
+        <v>8.320926646406283</v>
       </c>
       <c r="I7" t="n">
-        <v>10.58466820575507</v>
+        <v>7.761889282967132</v>
       </c>
       <c r="J7" t="n">
-        <v>10.8998689573597</v>
+        <v>8.269906508386407</v>
       </c>
       <c r="K7" t="n">
-        <v>10.43052696032737</v>
+        <v>7.496846722062029</v>
       </c>
       <c r="L7" t="n">
-        <v>10.95307427591491</v>
+        <v>8.2203026866614</v>
       </c>
       <c r="M7" t="n">
-        <v>10.77992608242703</v>
+        <v>7.962952338973398</v>
       </c>
       <c r="N7" t="n">
-        <v>10.97813575035202</v>
+        <v>8.313564858470718</v>
       </c>
       <c r="O7" t="n">
-        <v>10.80338707264578</v>
+        <v>7.675901562014557</v>
       </c>
       <c r="P7" t="n">
-        <v>11.00316128577224</v>
+        <v>8.456887188241883</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.84943573497311</v>
+        <v>7.535410409215154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.63020892997717</v>
+        <v>7.902029631833273</v>
       </c>
       <c r="B8" t="n">
-        <v>10.62998251417083</v>
+        <v>7.938770885275014</v>
       </c>
       <c r="C8" t="n">
-        <v>10.62935358137544</v>
+        <v>7.915777215848586</v>
       </c>
       <c r="D8" t="n">
-        <v>10.79859280779409</v>
+        <v>8.048488090543078</v>
       </c>
       <c r="E8" t="n">
-        <v>10.65127877760622</v>
+        <v>7.975795256413931</v>
       </c>
       <c r="F8" t="n">
-        <v>10.90479619657384</v>
+        <v>8.212031865297112</v>
       </c>
       <c r="G8" t="n">
-        <v>10.64493314519258</v>
+        <v>7.891473490239854</v>
       </c>
       <c r="H8" t="n">
-        <v>10.97695096076223</v>
+        <v>8.25760435302557</v>
       </c>
       <c r="I8" t="n">
-        <v>10.57529770608743</v>
+        <v>7.712302200848899</v>
       </c>
       <c r="J8" t="n">
-        <v>10.8997910894898</v>
+        <v>8.208238524840349</v>
       </c>
       <c r="K8" t="n">
-        <v>10.41324867897908</v>
+        <v>7.478018303486341</v>
       </c>
       <c r="L8" t="n">
-        <v>10.94938453684865</v>
+        <v>8.172589712692853</v>
       </c>
       <c r="M8" t="n">
-        <v>10.77845617663667</v>
+        <v>7.899156969749074</v>
       </c>
       <c r="N8" t="n">
-        <v>10.97153974278745</v>
+        <v>8.311117236836779</v>
       </c>
       <c r="O8" t="n">
-        <v>10.80520798283433</v>
+        <v>7.625243872871784</v>
       </c>
       <c r="P8" t="n">
-        <v>10.98887552656275</v>
+        <v>8.479506763847363</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.84546087970627</v>
+        <v>7.509132137816091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.6251702798107</v>
+        <v>7.827016542643466</v>
       </c>
       <c r="B9" t="n">
-        <v>10.6274224582018</v>
+        <v>7.862963028667942</v>
       </c>
       <c r="C9" t="n">
-        <v>10.62491391482363</v>
+        <v>7.840714635647448</v>
       </c>
       <c r="D9" t="n">
-        <v>10.80032506840767</v>
+        <v>7.997916282861144</v>
       </c>
       <c r="E9" t="n">
-        <v>10.65726621781829</v>
+        <v>7.898976473119512</v>
       </c>
       <c r="F9" t="n">
-        <v>10.91267402907377</v>
+        <v>8.155978200301222</v>
       </c>
       <c r="G9" t="n">
-        <v>10.64482413017471</v>
+        <v>7.821493928026059</v>
       </c>
       <c r="H9" t="n">
-        <v>10.97737504116141</v>
+        <v>8.220978821213267</v>
       </c>
       <c r="I9" t="n">
-        <v>10.56582777513975</v>
+        <v>7.653557826016351</v>
       </c>
       <c r="J9" t="n">
-        <v>10.90470754699887</v>
+        <v>8.190315500648433</v>
       </c>
       <c r="K9" t="n">
-        <v>10.3921249228247</v>
+        <v>7.404984854749795</v>
       </c>
       <c r="L9" t="n">
-        <v>10.94502633206843</v>
+        <v>8.111598591507653</v>
       </c>
       <c r="M9" t="n">
-        <v>10.769681066682</v>
+        <v>7.837148371595617</v>
       </c>
       <c r="N9" t="n">
-        <v>10.96937860990578</v>
+        <v>8.24760498530963</v>
       </c>
       <c r="O9" t="n">
-        <v>10.80147272101335</v>
+        <v>7.585736945267399</v>
       </c>
       <c r="P9" t="n">
-        <v>10.97381348458868</v>
+        <v>8.430060148864232</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.8427642554731</v>
+        <v>7.520066012275408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.62837244621464</v>
+        <v>7.810728905252461</v>
       </c>
       <c r="B10" t="n">
-        <v>10.62853297382337</v>
+        <v>7.841761952784301</v>
       </c>
       <c r="C10" t="n">
-        <v>10.62703671275396</v>
+        <v>7.828814230849185</v>
       </c>
       <c r="D10" t="n">
-        <v>10.79940862347725</v>
+        <v>7.950758627152097</v>
       </c>
       <c r="E10" t="n">
-        <v>10.65176754823578</v>
+        <v>7.904423395601941</v>
       </c>
       <c r="F10" t="n">
-        <v>10.90747365333134</v>
+        <v>8.115806783088813</v>
       </c>
       <c r="G10" t="n">
-        <v>10.64106011714023</v>
+        <v>7.780752636374347</v>
       </c>
       <c r="H10" t="n">
-        <v>10.96625191543729</v>
+        <v>8.172816061288795</v>
       </c>
       <c r="I10" t="n">
-        <v>10.56170077803479</v>
+        <v>7.623746769779006</v>
       </c>
       <c r="J10" t="n">
-        <v>10.87926871288454</v>
+        <v>8.148342028376362</v>
       </c>
       <c r="K10" t="n">
-        <v>10.38213148019783</v>
+        <v>7.365424797089128</v>
       </c>
       <c r="L10" t="n">
-        <v>10.94628779156089</v>
+        <v>8.065672388609972</v>
       </c>
       <c r="M10" t="n">
-        <v>10.77156067726478</v>
+        <v>7.792049687519759</v>
       </c>
       <c r="N10" t="n">
-        <v>10.96718034004</v>
+        <v>8.175978391351082</v>
       </c>
       <c r="O10" t="n">
-        <v>10.80128224422389</v>
+        <v>7.586031707908418</v>
       </c>
       <c r="P10" t="n">
-        <v>10.97660954010188</v>
+        <v>8.349714403203452</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.8424168449766</v>
+        <v>7.544467264288824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.62590343575504</v>
+        <v>7.75025016159634</v>
       </c>
       <c r="B11" t="n">
-        <v>10.6262616279566</v>
+        <v>7.79072361953967</v>
       </c>
       <c r="C11" t="n">
-        <v>10.62570696912943</v>
+        <v>7.771619361356708</v>
       </c>
       <c r="D11" t="n">
-        <v>10.7993942478705</v>
+        <v>7.92029763748653</v>
       </c>
       <c r="E11" t="n">
-        <v>10.64915837561035</v>
+        <v>7.840435156995222</v>
       </c>
       <c r="F11" t="n">
-        <v>10.90482614575458</v>
+        <v>8.074034186098029</v>
       </c>
       <c r="G11" t="n">
-        <v>10.63997116492879</v>
+        <v>7.740195480397147</v>
       </c>
       <c r="H11" t="n">
-        <v>10.9674498826666</v>
+        <v>8.135711631160961</v>
       </c>
       <c r="I11" t="n">
-        <v>10.55868908842031</v>
+        <v>7.568842315178593</v>
       </c>
       <c r="J11" t="n">
-        <v>10.89487103807904</v>
+        <v>8.104889648236268</v>
       </c>
       <c r="K11" t="n">
-        <v>10.37294187358181</v>
+        <v>7.330233048987458</v>
       </c>
       <c r="L11" t="n">
-        <v>10.94827521919431</v>
+        <v>8.042302441935627</v>
       </c>
       <c r="M11" t="n">
-        <v>10.77398775887136</v>
+        <v>7.774327538609129</v>
       </c>
       <c r="N11" t="n">
-        <v>10.97051667877362</v>
+        <v>8.14026262077649</v>
       </c>
       <c r="O11" t="n">
-        <v>10.80156855839169</v>
+        <v>7.554172597172735</v>
       </c>
       <c r="P11" t="n">
-        <v>10.9879578836651</v>
+        <v>8.27829159576215</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.83723443874262</v>
+        <v>7.534955528596297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.62035564951612</v>
+        <v>7.710935375565359</v>
       </c>
       <c r="B12" t="n">
-        <v>10.62100135385272</v>
+        <v>7.748250870300344</v>
       </c>
       <c r="C12" t="n">
-        <v>10.61986927482102</v>
+        <v>7.719607947492221</v>
       </c>
       <c r="D12" t="n">
-        <v>10.79755177427183</v>
+        <v>7.885515645846326</v>
       </c>
       <c r="E12" t="n">
-        <v>10.64193942508654</v>
+        <v>7.777184916704535</v>
       </c>
       <c r="F12" t="n">
-        <v>10.90173299436851</v>
+        <v>8.030509025058919</v>
       </c>
       <c r="G12" t="n">
-        <v>10.6368935871167</v>
+        <v>7.704311585945827</v>
       </c>
       <c r="H12" t="n">
-        <v>10.96043099267009</v>
+        <v>8.115326429155301</v>
       </c>
       <c r="I12" t="n">
-        <v>10.55659024983457</v>
+        <v>7.530540639261929</v>
       </c>
       <c r="J12" t="n">
-        <v>10.88885724258791</v>
+        <v>8.07974311981692</v>
       </c>
       <c r="K12" t="n">
-        <v>10.36804697948286</v>
+        <v>7.283731149178553</v>
       </c>
       <c r="L12" t="n">
-        <v>10.95146540592595</v>
+        <v>7.986725491828297</v>
       </c>
       <c r="M12" t="n">
-        <v>10.77512223383751</v>
+        <v>7.734117547520241</v>
       </c>
       <c r="N12" t="n">
-        <v>10.97682277826869</v>
+        <v>8.048781397566115</v>
       </c>
       <c r="O12" t="n">
-        <v>10.8029138755902</v>
+        <v>7.543959981422676</v>
       </c>
       <c r="P12" t="n">
-        <v>11.00654314726057</v>
+        <v>8.16309544441609</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.83823833528078</v>
+        <v>7.526558796276711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10.61929904241987</v>
+        <v>7.682028985902795</v>
       </c>
       <c r="B13" t="n">
-        <v>10.62013642151316</v>
+        <v>7.716777498329451</v>
       </c>
       <c r="C13" t="n">
-        <v>10.61813581624021</v>
+        <v>7.68428446596333</v>
       </c>
       <c r="D13" t="n">
-        <v>10.7960710867764</v>
+        <v>7.836645455583409</v>
       </c>
       <c r="E13" t="n">
-        <v>10.64186395315109</v>
+        <v>7.732512000887927</v>
       </c>
       <c r="F13" t="n">
-        <v>10.90013131218292</v>
+        <v>8.00056332415839</v>
       </c>
       <c r="G13" t="n">
-        <v>10.63714755616931</v>
+        <v>7.663116869293239</v>
       </c>
       <c r="H13" t="n">
-        <v>10.96680298036277</v>
+        <v>8.095682864510623</v>
       </c>
       <c r="I13" t="n">
-        <v>10.56384993124417</v>
+        <v>7.509009138096753</v>
       </c>
       <c r="J13" t="n">
-        <v>10.89175392734838</v>
+        <v>8.067825247602892</v>
       </c>
       <c r="K13" t="n">
-        <v>10.38433813583421</v>
+        <v>7.240658685331328</v>
       </c>
       <c r="L13" t="n">
-        <v>10.95674005563659</v>
+        <v>7.960656829418403</v>
       </c>
       <c r="M13" t="n">
-        <v>10.78248613839606</v>
+        <v>7.714121723324322</v>
       </c>
       <c r="N13" t="n">
-        <v>10.97800397395679</v>
+        <v>7.984715283397449</v>
       </c>
       <c r="O13" t="n">
-        <v>10.80350087953257</v>
+        <v>7.546756951371897</v>
       </c>
       <c r="P13" t="n">
-        <v>11.01433712205444</v>
+        <v>8.043482948117681</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.83741413382702</v>
+        <v>7.541003621304607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10.62550451266768</v>
+        <v>7.639102083853603</v>
       </c>
       <c r="B14" t="n">
-        <v>10.62509959974417</v>
+        <v>7.676809867634288</v>
       </c>
       <c r="C14" t="n">
-        <v>10.62195373780001</v>
+        <v>7.658358454115509</v>
       </c>
       <c r="D14" t="n">
-        <v>10.7999584904355</v>
+        <v>7.800199692591677</v>
       </c>
       <c r="E14" t="n">
-        <v>10.64259111925928</v>
+        <v>7.74415403349468</v>
       </c>
       <c r="F14" t="n">
-        <v>10.90625532065914</v>
+        <v>7.976285799673304</v>
       </c>
       <c r="G14" t="n">
-        <v>10.64152133452351</v>
+        <v>7.648330701848954</v>
       </c>
       <c r="H14" t="n">
-        <v>10.96771103952259</v>
+        <v>8.064884171473617</v>
       </c>
       <c r="I14" t="n">
-        <v>10.55381575773149</v>
+        <v>7.497126928523244</v>
       </c>
       <c r="J14" t="n">
-        <v>10.90237390683619</v>
+        <v>8.03596104220428</v>
       </c>
       <c r="K14" t="n">
-        <v>10.38852023943172</v>
+        <v>7.228259731374799</v>
       </c>
       <c r="L14" t="n">
-        <v>10.95944147173868</v>
+        <v>7.911791006009428</v>
       </c>
       <c r="M14" t="n">
-        <v>10.78426871363327</v>
+        <v>7.671942281108034</v>
       </c>
       <c r="N14" t="n">
-        <v>10.98548408133658</v>
+        <v>7.915379832139954</v>
       </c>
       <c r="O14" t="n">
-        <v>10.80570633720172</v>
+        <v>7.53951525191971</v>
       </c>
       <c r="P14" t="n">
-        <v>11.01414185339607</v>
+        <v>7.911697118649696</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.82809035488132</v>
+        <v>7.542169571306858</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.6193409712729</v>
+        <v>7.602181789400281</v>
       </c>
       <c r="B15" t="n">
-        <v>10.61811545079732</v>
+        <v>7.638353896211709</v>
       </c>
       <c r="C15" t="n">
-        <v>10.61537330380943</v>
+        <v>7.615418451504495</v>
       </c>
       <c r="D15" t="n">
-        <v>10.79282100168329</v>
+        <v>7.75887469812985</v>
       </c>
       <c r="E15" t="n">
-        <v>10.63779445847314</v>
+        <v>7.70020747105026</v>
       </c>
       <c r="F15" t="n">
-        <v>10.90672132991134</v>
+        <v>7.943529300452743</v>
       </c>
       <c r="G15" t="n">
-        <v>10.63734881466384</v>
+        <v>7.622287512753715</v>
       </c>
       <c r="H15" t="n">
-        <v>10.97878145468861</v>
+        <v>8.0318874952863</v>
       </c>
       <c r="I15" t="n">
-        <v>10.56684365135021</v>
+        <v>7.47561071134686</v>
       </c>
       <c r="J15" t="n">
-        <v>10.90843202711479</v>
+        <v>8.013957193004481</v>
       </c>
       <c r="K15" t="n">
-        <v>10.41587222721126</v>
+        <v>7.212624938647976</v>
       </c>
       <c r="L15" t="n">
-        <v>10.96844299749969</v>
+        <v>7.863026348050086</v>
       </c>
       <c r="M15" t="n">
-        <v>10.791419380025</v>
+        <v>7.632572181593802</v>
       </c>
       <c r="N15" t="n">
-        <v>10.98423579948365</v>
+        <v>7.853543724717166</v>
       </c>
       <c r="O15" t="n">
-        <v>10.81523257260917</v>
+        <v>7.515405123502362</v>
       </c>
       <c r="P15" t="n">
-        <v>11.01089656017187</v>
+        <v>7.808925394574821</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.84653785224542</v>
+        <v>7.531121430836084</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.62177404271562</v>
+        <v>7.551283923290752</v>
       </c>
       <c r="B16" t="n">
-        <v>10.62227000114855</v>
+        <v>7.587948028979534</v>
       </c>
       <c r="C16" t="n">
-        <v>10.6192595095013</v>
+        <v>7.56230804606485</v>
       </c>
       <c r="D16" t="n">
-        <v>10.7985317114654</v>
+        <v>7.709551082866057</v>
       </c>
       <c r="E16" t="n">
-        <v>10.64763096739298</v>
+        <v>7.645385258865737</v>
       </c>
       <c r="F16" t="n">
-        <v>10.91417987388101</v>
+        <v>7.908269138305998</v>
       </c>
       <c r="G16" t="n">
-        <v>10.64566869707137</v>
+        <v>7.584473468860465</v>
       </c>
       <c r="H16" t="n">
-        <v>10.99478749483938</v>
+        <v>8.010758472492686</v>
       </c>
       <c r="I16" t="n">
-        <v>10.58015546320227</v>
+        <v>7.450444532084777</v>
       </c>
       <c r="J16" t="n">
-        <v>10.93262018344173</v>
+        <v>7.983920515980183</v>
       </c>
       <c r="K16" t="n">
-        <v>10.43888996955516</v>
+        <v>7.187950758263248</v>
       </c>
       <c r="L16" t="n">
-        <v>10.96836872353148</v>
+        <v>7.816033904981807</v>
       </c>
       <c r="M16" t="n">
-        <v>10.79140380645102</v>
+        <v>7.586771889651421</v>
       </c>
       <c r="N16" t="n">
-        <v>10.9886035880017</v>
+        <v>7.794601385839293</v>
       </c>
       <c r="O16" t="n">
-        <v>10.81501933444235</v>
+        <v>7.459405316371745</v>
       </c>
       <c r="P16" t="n">
-        <v>11.01603104771668</v>
+        <v>7.710254874159551</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.83995382435315</v>
+        <v>7.507226006070836</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.62951171304971</v>
+        <v>7.552716979192396</v>
       </c>
       <c r="B17" t="n">
-        <v>10.62957400734564</v>
+        <v>7.585060082906542</v>
       </c>
       <c r="C17" t="n">
-        <v>10.62663179983046</v>
+        <v>7.553254830036131</v>
       </c>
       <c r="D17" t="n">
-        <v>10.80404835055636</v>
+        <v>7.709202462359766</v>
       </c>
       <c r="E17" t="n">
-        <v>10.65169686816925</v>
+        <v>7.602954722547841</v>
       </c>
       <c r="F17" t="n">
-        <v>10.91752220245077</v>
+        <v>7.892244967769434</v>
       </c>
       <c r="G17" t="n">
-        <v>10.64647013714778</v>
+        <v>7.547313725249377</v>
       </c>
       <c r="H17" t="n">
-        <v>10.98219206739045</v>
+        <v>7.982925601090622</v>
       </c>
       <c r="I17" t="n">
-        <v>10.58364394377401</v>
+        <v>7.418864900001319</v>
       </c>
       <c r="J17" t="n">
-        <v>10.9197635991368</v>
+        <v>7.947492948213206</v>
       </c>
       <c r="K17" t="n">
-        <v>10.45996940092204</v>
+        <v>7.150507169145993</v>
       </c>
       <c r="L17" t="n">
-        <v>10.96327496687246</v>
+        <v>7.795854672920365</v>
       </c>
       <c r="M17" t="n">
-        <v>10.78044360427009</v>
+        <v>7.558601314877917</v>
       </c>
       <c r="N17" t="n">
-        <v>10.99423403397944</v>
+        <v>7.747447369175196</v>
       </c>
       <c r="O17" t="n">
-        <v>10.80458983174401</v>
+        <v>7.376243677727999</v>
       </c>
       <c r="P17" t="n">
-        <v>11.01633053952401</v>
+        <v>7.654355504669577</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.83514638186194</v>
+        <v>7.431198351148733</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.63784357512954</v>
+        <v>7.499848206337488</v>
       </c>
       <c r="B18" t="n">
-        <v>10.63812749336289</v>
+        <v>7.530481686733725</v>
       </c>
       <c r="C18" t="n">
-        <v>10.63442098275541</v>
+        <v>7.511410907764311</v>
       </c>
       <c r="D18" t="n">
-        <v>10.812217289093</v>
+        <v>7.657380278832722</v>
       </c>
       <c r="E18" t="n">
-        <v>10.65712246175078</v>
+        <v>7.585221656502359</v>
       </c>
       <c r="F18" t="n">
-        <v>10.92358870849998</v>
+        <v>7.855051017135808</v>
       </c>
       <c r="G18" t="n">
-        <v>10.65251747572132</v>
+        <v>7.507080444272803</v>
       </c>
       <c r="H18" t="n">
-        <v>10.99442810467059</v>
+        <v>7.951824139513706</v>
       </c>
       <c r="I18" t="n">
-        <v>10.59542595147424</v>
+        <v>7.353952343977085</v>
       </c>
       <c r="J18" t="n">
-        <v>10.92380074869957</v>
+        <v>7.920061099564725</v>
       </c>
       <c r="K18" t="n">
-        <v>10.48331299035232</v>
+        <v>7.089521142623724</v>
       </c>
       <c r="L18" t="n">
-        <v>10.97738941676816</v>
+        <v>7.759070478748205</v>
       </c>
       <c r="M18" t="n">
-        <v>10.79417111075072</v>
+        <v>7.516418233616679</v>
       </c>
       <c r="N18" t="n">
-        <v>11.00599927013847</v>
+        <v>7.714383734560784</v>
       </c>
       <c r="O18" t="n">
-        <v>10.81055331261149</v>
+        <v>7.313874086315417</v>
       </c>
       <c r="P18" t="n">
-        <v>11.03671395193067</v>
+        <v>7.633645699854302</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.84310927003514</v>
+        <v>7.354049142572777</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.64953573528758</v>
+        <v>7.467378463859053</v>
       </c>
       <c r="B19" t="n">
-        <v>10.64811135225193</v>
+        <v>7.497688797063654</v>
       </c>
       <c r="C19" t="n">
-        <v>10.64392086288382</v>
+        <v>7.479516862197101</v>
       </c>
       <c r="D19" t="n">
-        <v>10.81656351420093</v>
+        <v>7.62196436556208</v>
       </c>
       <c r="E19" t="n">
-        <v>10.66211918306422</v>
+        <v>7.554941163466354</v>
       </c>
       <c r="F19" t="n">
-        <v>10.93073338505557</v>
+        <v>7.82171008729614</v>
       </c>
       <c r="G19" t="n">
-        <v>10.65863309842693</v>
+        <v>7.470917798978247</v>
       </c>
       <c r="H19" t="n">
-        <v>11.00630355381471</v>
+        <v>7.900094387728412</v>
       </c>
       <c r="I19" t="n">
-        <v>10.61182851877791</v>
+        <v>7.318315176773432</v>
       </c>
       <c r="J19" t="n">
-        <v>10.93357735925794</v>
+        <v>7.885888284049293</v>
       </c>
       <c r="K19" t="n">
-        <v>10.54494481039847</v>
+        <v>7.041581820059235</v>
       </c>
       <c r="L19" t="n">
-        <v>10.98685934771583</v>
+        <v>7.723322684578046</v>
       </c>
       <c r="M19" t="n">
-        <v>10.80149428442348</v>
+        <v>7.469358104312314</v>
       </c>
       <c r="N19" t="n">
-        <v>11.00756261737271</v>
+        <v>7.692941026092408</v>
       </c>
       <c r="O19" t="n">
-        <v>10.80769496280237</v>
+        <v>7.244709670170612</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04120393310611</v>
+        <v>7.648551227972975</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.83312660911333</v>
+        <v>7.210354174598647</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.65850132203171</v>
+        <v>7.429100077830074</v>
       </c>
       <c r="B20" t="n">
-        <v>10.65812156642002</v>
+        <v>7.460555982385203</v>
       </c>
       <c r="C20" t="n">
-        <v>10.65501164349274</v>
+        <v>7.438487358185281</v>
       </c>
       <c r="D20" t="n">
-        <v>10.82439342801168</v>
+        <v>7.579749988514265</v>
       </c>
       <c r="E20" t="n">
-        <v>10.67198324523033</v>
+        <v>7.504095699604117</v>
       </c>
       <c r="F20" t="n">
-        <v>10.93125569876755</v>
+        <v>7.777713306031399</v>
       </c>
       <c r="G20" t="n">
-        <v>10.66410301679595</v>
+        <v>7.429131373616651</v>
       </c>
       <c r="H20" t="n">
-        <v>11.00506245976515</v>
+        <v>7.870134858457072</v>
       </c>
       <c r="I20" t="n">
-        <v>10.62539549764981</v>
+        <v>7.271390419941238</v>
       </c>
       <c r="J20" t="n">
-        <v>10.92985886897817</v>
+        <v>7.858190785119399</v>
       </c>
       <c r="K20" t="n">
-        <v>10.58178949050304</v>
+        <v>7.01276276747549</v>
       </c>
       <c r="L20" t="n">
-        <v>10.97788657316832</v>
+        <v>7.6915792954718</v>
       </c>
       <c r="M20" t="n">
-        <v>10.79393511120655</v>
+        <v>7.430341719967303</v>
       </c>
       <c r="N20" t="n">
-        <v>10.99921877562059</v>
+        <v>7.678049326344548</v>
       </c>
       <c r="O20" t="n">
-        <v>10.7964999590445</v>
+        <v>7.184882315560692</v>
       </c>
       <c r="P20" t="n">
-        <v>11.03438989550581</v>
+        <v>7.652271059721731</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.82182139237036</v>
+        <v>7.05164887401126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.64305712851148</v>
+        <v>7.387316563704439</v>
       </c>
       <c r="B21" t="n">
-        <v>10.667530401039</v>
+        <v>7.421244107590184</v>
       </c>
       <c r="C21" t="n">
-        <v>10.65531113530007</v>
+        <v>7.39504807860701</v>
       </c>
       <c r="D21" t="n">
-        <v>10.82785794923883</v>
+        <v>7.545649226088859</v>
       </c>
       <c r="E21" t="n">
-        <v>10.6889907859848</v>
+        <v>7.45410250006937</v>
       </c>
       <c r="F21" t="n">
-        <v>10.94015060544515</v>
+        <v>7.716372108721926</v>
       </c>
       <c r="G21" t="n">
-        <v>10.66795088753648</v>
+        <v>7.373061696822977</v>
       </c>
       <c r="H21" t="n">
-        <v>11.00750870884739</v>
+        <v>7.811254383343363</v>
       </c>
       <c r="I21" t="n">
-        <v>10.64712422725498</v>
+        <v>7.197372245640993</v>
       </c>
       <c r="J21" t="n">
-        <v>10.96754931394663</v>
+        <v>7.791559144260384</v>
       </c>
       <c r="K21" t="n">
-        <v>10.63238204253113</v>
+        <v>6.922752446234248</v>
       </c>
       <c r="L21" t="n">
-        <v>10.97525224323107</v>
+        <v>7.649720817020177</v>
       </c>
       <c r="M21" t="n">
-        <v>10.7902010473528</v>
+        <v>7.388775092920739</v>
       </c>
       <c r="N21" t="n">
-        <v>10.99269823999147</v>
+        <v>7.646451499036336</v>
       </c>
       <c r="O21" t="n">
-        <v>10.78970149501818</v>
+        <v>7.117758675824323</v>
       </c>
       <c r="P21" t="n">
-        <v>11.02162196077586</v>
+        <v>7.632468832717198</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.80675815242905</v>
+        <v>6.938242404972027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.64504216021045</v>
+        <v>7.334252738040165</v>
       </c>
       <c r="B22" t="n">
-        <v>10.67150166240415</v>
+        <v>7.366368765349378</v>
       </c>
       <c r="C22" t="n">
-        <v>10.65884753456098</v>
+        <v>7.349341674024361</v>
       </c>
       <c r="D22" t="n">
-        <v>10.83060009622672</v>
+        <v>7.486776029065052</v>
       </c>
       <c r="E22" t="n">
-        <v>10.70288001804139</v>
+        <v>7.430398489068536</v>
       </c>
       <c r="F22" t="n">
-        <v>10.94107064427726</v>
+        <v>7.644943478808704</v>
       </c>
       <c r="G22" t="n">
-        <v>10.67938548474022</v>
+        <v>7.333776750960594</v>
       </c>
       <c r="H22" t="n">
-        <v>11.01120683368426</v>
+        <v>7.741889091917272</v>
       </c>
       <c r="I22" t="n">
-        <v>10.66336267304824</v>
+        <v>7.154515213254857</v>
       </c>
       <c r="J22" t="n">
-        <v>10.98078325792878</v>
+        <v>7.702784642684451</v>
       </c>
       <c r="K22" t="n">
-        <v>10.6624007053631</v>
+        <v>6.871102753437874</v>
       </c>
       <c r="L22" t="n">
-        <v>10.98006567555843</v>
+        <v>7.604363032943819</v>
       </c>
       <c r="M22" t="n">
-        <v>10.79881203579706</v>
+        <v>7.353534581616728</v>
       </c>
       <c r="N22" t="n">
-        <v>10.99040293478012</v>
+        <v>7.617268541957506</v>
       </c>
       <c r="O22" t="n">
-        <v>10.78921392235585</v>
+        <v>7.046703411923058</v>
       </c>
       <c r="P22" t="n">
-        <v>11.01306368288969</v>
+        <v>7.642447821781412</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.80005672374831</v>
+        <v>6.843504964339634</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.65246117126154</v>
+        <v>7.269452264600417</v>
       </c>
       <c r="B23" t="n">
-        <v>10.67953882454557</v>
+        <v>7.308983937710468</v>
       </c>
       <c r="C23" t="n">
-        <v>10.66656004758326</v>
+        <v>7.280128494677214</v>
       </c>
       <c r="D23" t="n">
-        <v>10.83642700883007</v>
+        <v>7.437478614924906</v>
       </c>
       <c r="E23" t="n">
-        <v>10.70945326422859</v>
+        <v>7.348908627675209</v>
       </c>
       <c r="F23" t="n">
-        <v>10.93781337138077</v>
+        <v>7.609657843347303</v>
       </c>
       <c r="G23" t="n">
-        <v>10.68209768254737</v>
+        <v>7.272155347189907</v>
       </c>
       <c r="H23" t="n">
-        <v>11.00741766333796</v>
+        <v>7.686054497427422</v>
       </c>
       <c r="I23" t="n">
-        <v>10.66384904774334</v>
+        <v>7.086192144302689</v>
       </c>
       <c r="J23" t="n">
-        <v>10.98258979251058</v>
+        <v>7.669194074361155</v>
       </c>
       <c r="K23" t="n">
-        <v>10.66184245263425</v>
+        <v>6.801692337854392</v>
       </c>
       <c r="L23" t="n">
-        <v>10.97304438962746</v>
+        <v>7.568552647200505</v>
       </c>
       <c r="M23" t="n">
-        <v>10.79793033191629</v>
+        <v>7.296056594427076</v>
       </c>
       <c r="N23" t="n">
-        <v>10.98382489672399</v>
+        <v>7.588114697238283</v>
       </c>
       <c r="O23" t="n">
-        <v>10.79975603397375</v>
+        <v>6.985761781749189</v>
       </c>
       <c r="P23" t="n">
-        <v>11.00221249572663</v>
+        <v>7.639593354921968</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.81269288208304</v>
+        <v>6.75275664478236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.66031025254796</v>
+        <v>7.219133006638073</v>
       </c>
       <c r="B24" t="n">
-        <v>10.68861342630757</v>
+        <v>7.260636314302493</v>
       </c>
       <c r="C24" t="n">
-        <v>10.67719320471059</v>
+        <v>7.229427136995032</v>
       </c>
       <c r="D24" t="n">
-        <v>10.84640248194851</v>
+        <v>7.393798430570889</v>
       </c>
       <c r="E24" t="n">
-        <v>10.72843505497696</v>
+        <v>7.283606693841235</v>
       </c>
       <c r="F24" t="n">
-        <v>10.94565406689659</v>
+        <v>7.542812954454169</v>
       </c>
       <c r="G24" t="n">
-        <v>10.68906865385471</v>
+        <v>7.203251486663582</v>
       </c>
       <c r="H24" t="n">
-        <v>11.01006157701305</v>
+        <v>7.63501106951986</v>
       </c>
       <c r="I24" t="n">
-        <v>10.66561485143933</v>
+        <v>6.994767690193547</v>
       </c>
       <c r="J24" t="n">
-        <v>11.00788247462294</v>
+        <v>7.62230789140544</v>
       </c>
       <c r="K24" t="n">
-        <v>10.67829054269263</v>
+        <v>6.71352992363919</v>
       </c>
       <c r="L24" t="n">
-        <v>10.97127978389869</v>
+        <v>7.517545609742451</v>
       </c>
       <c r="M24" t="n">
-        <v>10.79459998301881</v>
+        <v>7.242794076908486</v>
       </c>
       <c r="N24" t="n">
-        <v>10.98387760728208</v>
+        <v>7.552969528911984</v>
       </c>
       <c r="O24" t="n">
-        <v>10.80099712802331</v>
+        <v>6.900306816977419</v>
       </c>
       <c r="P24" t="n">
-        <v>10.99812143763854</v>
+        <v>7.64964949173914</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.8155895668435</v>
+        <v>6.666937775515505</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.67107398810329</v>
+        <v>7.139603862664263</v>
       </c>
       <c r="B25" t="n">
-        <v>10.70089498634242</v>
+        <v>7.180770194766235</v>
       </c>
       <c r="C25" t="n">
-        <v>10.68884583195006</v>
+        <v>7.143909580650107</v>
       </c>
       <c r="D25" t="n">
-        <v>10.85944355320674</v>
+        <v>7.314434499237848</v>
       </c>
       <c r="E25" t="n">
-        <v>10.74203917083297</v>
+        <v>7.184089003761408</v>
       </c>
       <c r="F25" t="n">
-        <v>10.95245492685736</v>
+        <v>7.462168807107418</v>
       </c>
       <c r="G25" t="n">
-        <v>10.69407615687321</v>
+        <v>7.114637103065486</v>
       </c>
       <c r="H25" t="n">
-        <v>11.01316071823526</v>
+        <v>7.568768078661596</v>
       </c>
       <c r="I25" t="n">
-        <v>10.66435099601242</v>
+        <v>6.901618328777704</v>
       </c>
       <c r="J25" t="n">
-        <v>11.02015325295273</v>
+        <v>7.56136189437763</v>
       </c>
       <c r="K25" t="n">
-        <v>10.68179938870727</v>
+        <v>6.639692245968507</v>
       </c>
       <c r="L25" t="n">
-        <v>10.98049095392483</v>
+        <v>7.453323744449888</v>
       </c>
       <c r="M25" t="n">
-        <v>10.8036781786825</v>
+        <v>7.174663149529722</v>
       </c>
       <c r="N25" t="n">
-        <v>10.99393334420489</v>
+        <v>7.501629882745423</v>
       </c>
       <c r="O25" t="n">
-        <v>10.81419034111967</v>
+        <v>6.856081503689764</v>
       </c>
       <c r="P25" t="n">
-        <v>11.00897981260498</v>
+        <v>7.655204129952114</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.83066598442433</v>
+        <v>6.632213280785524</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.68830435076241</v>
+        <v>7.063378243696833</v>
       </c>
       <c r="B26" t="n">
-        <v>10.71826071929846</v>
+        <v>7.098553252191729</v>
       </c>
       <c r="C26" t="n">
-        <v>10.70564013453771</v>
+        <v>7.067691967581568</v>
       </c>
       <c r="D26" t="n">
-        <v>10.87860144513782</v>
+        <v>7.210332340328942</v>
       </c>
       <c r="E26" t="n">
-        <v>10.75496403926996</v>
+        <v>7.108764412323808</v>
       </c>
       <c r="F26" t="n">
-        <v>10.97026989752439</v>
+        <v>7.364578355233561</v>
       </c>
       <c r="G26" t="n">
-        <v>10.7036694784455</v>
+        <v>7.031041690263598</v>
       </c>
       <c r="H26" t="n">
-        <v>11.02387294119973</v>
+        <v>7.48848565238296</v>
       </c>
       <c r="I26" t="n">
-        <v>10.67634624187947</v>
+        <v>6.815940654454941</v>
       </c>
       <c r="J26" t="n">
-        <v>11.00356739666297</v>
+        <v>7.457736450357286</v>
       </c>
       <c r="K26" t="n">
-        <v>10.68190960169237</v>
+        <v>6.511488692350136</v>
       </c>
       <c r="L26" t="n">
-        <v>10.98950445935814</v>
+        <v>7.362622732476975</v>
       </c>
       <c r="M26" t="n">
-        <v>10.80847004759973</v>
+        <v>7.091200197964045</v>
       </c>
       <c r="N26" t="n">
-        <v>10.99740744916988</v>
+        <v>7.453785903158646</v>
       </c>
       <c r="O26" t="n">
-        <v>10.82247548247756</v>
+        <v>6.777027618986535</v>
       </c>
       <c r="P26" t="n">
-        <v>11.01258928786688</v>
+        <v>7.632346560806849</v>
       </c>
       <c r="Q26" t="n">
-        <v>10.84472293189302</v>
+        <v>6.618394371489175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.69663142097332</v>
+        <v>6.940984061437996</v>
       </c>
       <c r="B27" t="n">
-        <v>10.7248028183377</v>
+        <v>6.977252966845116</v>
       </c>
       <c r="C27" t="n">
-        <v>10.71345447477448</v>
+        <v>6.944192243466663</v>
       </c>
       <c r="D27" t="n">
-        <v>10.88045470044156</v>
+        <v>7.099035789552211</v>
       </c>
       <c r="E27" t="n">
-        <v>10.7660715914201</v>
+        <v>6.995884149184468</v>
       </c>
       <c r="F27" t="n">
-        <v>10.98636578521735</v>
+        <v>7.262993687621652</v>
       </c>
       <c r="G27" t="n">
-        <v>10.72662372852625</v>
+        <v>6.917467097347637</v>
       </c>
       <c r="H27" t="n">
-        <v>11.0500736824719</v>
+        <v>7.435383980651198</v>
       </c>
       <c r="I27" t="n">
-        <v>10.6857083557765</v>
+        <v>6.667132828324871</v>
       </c>
       <c r="J27" t="n">
-        <v>10.9917758052249</v>
+        <v>7.402993569352692</v>
       </c>
       <c r="K27" t="n">
-        <v>10.67432886506531</v>
+        <v>6.372884748262242</v>
       </c>
       <c r="L27" t="n">
-        <v>10.98525047772687</v>
+        <v>7.290758144978641</v>
       </c>
       <c r="M27" t="n">
-        <v>10.81198488345052</v>
+        <v>7.014795537985034</v>
       </c>
       <c r="N27" t="n">
-        <v>10.96825012477577</v>
+        <v>7.406973956719929</v>
       </c>
       <c r="O27" t="n">
-        <v>10.80933857384098</v>
+        <v>6.699945368837676</v>
       </c>
       <c r="P27" t="n">
-        <v>10.98608785682015</v>
+        <v>7.625997155176609</v>
       </c>
       <c r="Q27" t="n">
-        <v>10.842654042488</v>
+        <v>6.627392274034641</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10.71758626374836</v>
+        <v>6.840924153660493</v>
       </c>
       <c r="B28" t="n">
-        <v>10.74385648711983</v>
+        <v>6.874203947544987</v>
       </c>
       <c r="C28" t="n">
-        <v>10.73488131663786</v>
+        <v>6.845917651142046</v>
       </c>
       <c r="D28" t="n">
-        <v>10.89744786558927</v>
+        <v>6.990039115184415</v>
       </c>
       <c r="E28" t="n">
-        <v>10.7840207344168</v>
+        <v>6.899675806582941</v>
       </c>
       <c r="F28" t="n">
-        <v>11.00094265046356</v>
+        <v>7.158101855958413</v>
       </c>
       <c r="G28" t="n">
-        <v>10.73299691418616</v>
+        <v>6.832918254768627</v>
       </c>
       <c r="H28" t="n">
-        <v>11.07016119697292</v>
+        <v>7.358702025446932</v>
       </c>
       <c r="I28" t="n">
-        <v>10.6815226582773</v>
+        <v>6.563723543574606</v>
       </c>
       <c r="J28" t="n">
-        <v>11.03220600124678</v>
+        <v>7.349631342002448</v>
       </c>
       <c r="K28" t="n">
-        <v>10.67080324750946</v>
+        <v>6.227443766520696</v>
       </c>
       <c r="L28" t="n">
-        <v>10.99489770782448</v>
+        <v>7.208438581336521</v>
       </c>
       <c r="M28" t="n">
-        <v>10.81622089557335</v>
+        <v>6.946040150492704</v>
       </c>
       <c r="N28" t="n">
-        <v>10.97664068724984</v>
+        <v>7.365170791751559</v>
       </c>
       <c r="O28" t="n">
-        <v>10.8135170835368</v>
+        <v>6.625840585267599</v>
       </c>
       <c r="P28" t="n">
-        <v>10.99248140792297</v>
+        <v>7.622718375675896</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.84198437880682</v>
+        <v>6.601212984658241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11.10444102923953</v>
+        <v>6.746349742241898</v>
       </c>
       <c r="B29" t="n">
-        <v>11.17338404328615</v>
+        <v>6.788236605244137</v>
       </c>
       <c r="C29" t="n">
-        <v>11.11215234429458</v>
+        <v>6.751032465284649</v>
       </c>
       <c r="D29" t="n">
-        <v>11.38238260407827</v>
+        <v>6.915217439759022</v>
       </c>
       <c r="E29" t="n">
-        <v>11.17364639810937</v>
+        <v>6.788404001311876</v>
       </c>
       <c r="F29" t="n">
-        <v>11.60266721413769</v>
+        <v>7.049057874006256</v>
       </c>
       <c r="G29" t="n">
-        <v>11.05865112783374</v>
+        <v>6.718559083761262</v>
       </c>
       <c r="H29" t="n">
-        <v>11.92335106175087</v>
+        <v>7.243891612865662</v>
       </c>
       <c r="I29" t="n">
-        <v>10.60556794203755</v>
+        <v>6.443340297555608</v>
       </c>
       <c r="J29" t="n">
-        <v>11.9575662037871</v>
+        <v>7.264599234253966</v>
       </c>
       <c r="K29" t="n">
-        <v>10.08067860051671</v>
+        <v>6.124339433737313</v>
       </c>
       <c r="L29" t="n">
-        <v>11.67302862138381</v>
+        <v>7.09177662268426</v>
       </c>
       <c r="M29" t="n">
-        <v>11.2448260169731</v>
+        <v>6.831616204485214</v>
       </c>
       <c r="N29" t="n">
-        <v>11.99199099008847</v>
+        <v>7.285641647777749</v>
       </c>
       <c r="O29" t="n">
-        <v>10.80276532765377</v>
+        <v>6.563101266888012</v>
       </c>
       <c r="P29" t="n">
-        <v>12.51592315579309</v>
+        <v>7.604001311875705</v>
       </c>
       <c r="Q29" t="n">
-        <v>10.82439702191337</v>
+        <v>6.57609993545244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.94394456766037</v>
+        <v>6.648780396828754</v>
       </c>
       <c r="B30" t="n">
-        <v>11.00500974920706</v>
+        <v>6.685881915720628</v>
       </c>
       <c r="C30" t="n">
-        <v>10.94267831629899</v>
+        <v>6.648017653007057</v>
       </c>
       <c r="D30" t="n">
-        <v>11.19659945022289</v>
+        <v>6.802289869035321</v>
       </c>
       <c r="E30" t="n">
-        <v>11.0081304538394</v>
+        <v>6.687762574151227</v>
       </c>
       <c r="F30" t="n">
-        <v>11.43047979036771</v>
+        <v>6.944377106950166</v>
       </c>
       <c r="G30" t="n">
-        <v>10.89603426425869</v>
+        <v>6.619721167278254</v>
       </c>
       <c r="H30" t="n">
-        <v>11.73951460464311</v>
+        <v>7.132138725852093</v>
       </c>
       <c r="I30" t="n">
-        <v>10.43212984048018</v>
+        <v>6.337849479093459</v>
       </c>
       <c r="J30" t="n">
-        <v>11.8328027087237</v>
+        <v>7.188578129612774</v>
       </c>
       <c r="K30" t="n">
-        <v>9.899781356006061</v>
+        <v>6.014346388861975</v>
       </c>
       <c r="L30" t="n">
-        <v>11.49527424389924</v>
+        <v>6.983769040734105</v>
       </c>
       <c r="M30" t="n">
-        <v>11.07882250004081</v>
+        <v>6.73078190794217</v>
       </c>
       <c r="N30" t="n">
-        <v>11.85335263857523</v>
+        <v>7.201317698176702</v>
       </c>
       <c r="O30" t="n">
-        <v>10.67782932530935</v>
+        <v>6.487259931067391</v>
       </c>
       <c r="P30" t="n">
-        <v>12.29697308122712</v>
+        <v>7.470933082967041</v>
       </c>
       <c r="Q30" t="n">
-        <v>10.83612032921936</v>
+        <v>6.58335473546645</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.67200361067323</v>
+        <v>6.483617247071592</v>
       </c>
       <c r="B31" t="n">
-        <v>10.72271595942425</v>
+        <v>6.51442394600749</v>
       </c>
       <c r="C31" t="n">
-        <v>10.69431455235184</v>
+        <v>6.497182151030373</v>
       </c>
       <c r="D31" t="n">
-        <v>10.93565703036802</v>
+        <v>6.643813100470846</v>
       </c>
       <c r="E31" t="n">
-        <v>10.8269247327672</v>
+        <v>6.577758612141037</v>
       </c>
       <c r="F31" t="n">
-        <v>11.27066856604371</v>
+        <v>6.847312860976201</v>
       </c>
       <c r="G31" t="n">
-        <v>10.6785876385655</v>
+        <v>6.487618740899545</v>
       </c>
       <c r="H31" t="n">
-        <v>11.59811613663355</v>
+        <v>7.04632640686615</v>
       </c>
       <c r="I31" t="n">
-        <v>10.22216931200293</v>
+        <v>6.210344622105652</v>
       </c>
       <c r="J31" t="n">
-        <v>11.7015234699001</v>
+        <v>7.109051896874925</v>
       </c>
       <c r="K31" t="n">
-        <v>9.691107444333083</v>
+        <v>5.88792960631447</v>
       </c>
       <c r="L31" t="n">
-        <v>11.37864255038837</v>
+        <v>6.912923385822008</v>
       </c>
       <c r="M31" t="n">
-        <v>10.92688072244612</v>
+        <v>6.638484083044825</v>
       </c>
       <c r="N31" t="n">
-        <v>11.60174957124004</v>
+        <v>7.048551318949098</v>
       </c>
       <c r="O31" t="n">
-        <v>10.55438119826373</v>
+        <v>6.412303610978817</v>
       </c>
       <c r="P31" t="n">
-        <v>12.12036276244654</v>
+        <v>7.363598724332793</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.8142406557433</v>
+        <v>6.570225061283791</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.53279143285716</v>
+        <v>6.399062582020662</v>
       </c>
       <c r="B32" t="n">
-        <v>10.58747504297333</v>
+        <v>6.432286334612913</v>
       </c>
       <c r="C32" t="n">
-        <v>10.55674358963992</v>
+        <v>6.413622400869004</v>
       </c>
       <c r="D32" t="n">
-        <v>10.82751293467679</v>
+        <v>6.578122516636121</v>
       </c>
       <c r="E32" t="n">
-        <v>10.69424507025254</v>
+        <v>6.497117376030248</v>
       </c>
       <c r="F32" t="n">
-        <v>11.15191167866805</v>
+        <v>6.775122215050271</v>
       </c>
       <c r="G32" t="n">
-        <v>10.55535274968669</v>
+        <v>6.412759219406663</v>
       </c>
       <c r="H32" t="n">
-        <v>11.50488433701274</v>
+        <v>6.989631542149921</v>
       </c>
       <c r="I32" t="n">
-        <v>10.14814212503513</v>
+        <v>6.165366754322162</v>
       </c>
       <c r="J32" t="n">
-        <v>11.60921170911139</v>
+        <v>7.05297566980034</v>
       </c>
       <c r="K32" t="n">
-        <v>9.661714719378423</v>
+        <v>5.869660872852224</v>
       </c>
       <c r="L32" t="n">
-        <v>11.20649945140588</v>
+        <v>6.8083401451706</v>
       </c>
       <c r="M32" t="n">
-        <v>10.76980086340493</v>
+        <v>6.543071235669554</v>
       </c>
       <c r="N32" t="n">
-        <v>11.3806874804488</v>
+        <v>6.91417667290308</v>
       </c>
       <c r="O32" t="n">
-        <v>10.47536088388418</v>
+        <v>6.364177241503853</v>
       </c>
       <c r="P32" t="n">
-        <v>11.79577833353474</v>
+        <v>7.16645855878354</v>
       </c>
       <c r="Q32" t="n">
-        <v>10.77287604528256</v>
+        <v>6.544892213762959</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.38334981287003</v>
+        <v>6.308232020047499</v>
       </c>
       <c r="B33" t="n">
-        <v>10.43331463006997</v>
+        <v>6.338597666735354</v>
       </c>
       <c r="C33" t="n">
-        <v>10.38877540645156</v>
+        <v>6.311519533256095</v>
       </c>
       <c r="D33" t="n">
-        <v>10.65435156354939</v>
+        <v>6.472935194522873</v>
       </c>
       <c r="E33" t="n">
-        <v>10.50601806324937</v>
+        <v>6.382765483112784</v>
       </c>
       <c r="F33" t="n">
-        <v>11.02268335974102</v>
+        <v>6.696704435404451</v>
       </c>
       <c r="G33" t="n">
-        <v>10.41350264803169</v>
+        <v>6.326548788903096</v>
       </c>
       <c r="H33" t="n">
-        <v>11.35011775269134</v>
+        <v>6.895649567249324</v>
       </c>
       <c r="I33" t="n">
-        <v>10.05228557921491</v>
+        <v>6.107153680052439</v>
       </c>
       <c r="J33" t="n">
-        <v>11.44211085419706</v>
+        <v>6.951487072975133</v>
       </c>
       <c r="K33" t="n">
-        <v>9.616609456244172</v>
+        <v>5.842536159597595</v>
       </c>
       <c r="L33" t="n">
-        <v>11.05281463149255</v>
+        <v>6.715052500046625</v>
       </c>
       <c r="M33" t="n">
-        <v>10.62411367271445</v>
+        <v>6.454560200948062</v>
       </c>
       <c r="N33" t="n">
-        <v>11.16587877859454</v>
+        <v>6.783732923212967</v>
       </c>
       <c r="O33" t="n">
-        <v>10.33103697990066</v>
+        <v>6.276573784593102</v>
       </c>
       <c r="P33" t="n">
-        <v>11.43560469417469</v>
+        <v>6.94769955499029</v>
       </c>
       <c r="Q33" t="n">
-        <v>10.7152741869958</v>
+        <v>6.509984311167456</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.1820517854279</v>
+        <v>6.185915713350609</v>
       </c>
       <c r="B34" t="n">
-        <v>10.23909059911689</v>
+        <v>6.220575433080465</v>
       </c>
       <c r="C34" t="n">
-        <v>10.1779152045851</v>
+        <v>6.183411322615436</v>
       </c>
       <c r="D34" t="n">
-        <v>10.44185733438215</v>
+        <v>6.343788400453243</v>
       </c>
       <c r="E34" t="n">
-        <v>10.24556561199129</v>
+        <v>6.22454417550386</v>
       </c>
       <c r="F34" t="n">
-        <v>10.75278134297817</v>
+        <v>6.532681034525893</v>
       </c>
       <c r="G34" t="n">
-        <v>10.17675796824159</v>
+        <v>6.182738827108519</v>
       </c>
       <c r="H34" t="n">
-        <v>11.09271891990077</v>
+        <v>6.739270344194518</v>
       </c>
       <c r="I34" t="n">
-        <v>9.884576156948082</v>
+        <v>6.005212386035347</v>
       </c>
       <c r="J34" t="n">
-        <v>11.20095166516696</v>
+        <v>6.805099939546365</v>
       </c>
       <c r="K34" t="n">
-        <v>9.38339877978053</v>
+        <v>5.700905985728576</v>
       </c>
       <c r="L34" t="n">
-        <v>10.73599662412835</v>
+        <v>6.522520821023127</v>
       </c>
       <c r="M34" t="n">
-        <v>10.33823436701433</v>
+        <v>6.280867857635103</v>
       </c>
       <c r="N34" t="n">
-        <v>10.72046138509869</v>
+        <v>6.513105883926293</v>
       </c>
       <c r="O34" t="n">
-        <v>10.00164930138295</v>
+        <v>6.076402294599794</v>
       </c>
       <c r="P34" t="n">
-        <v>10.89643558328051</v>
+        <v>6.62017750351509</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.36466152409284</v>
+        <v>6.296846176205285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.217229943370592</v>
+        <v>5.599819139465943</v>
       </c>
       <c r="B35" t="n">
-        <v>9.261007259831155</v>
+        <v>5.626430383478009</v>
       </c>
       <c r="C35" t="n">
-        <v>9.229533665799188</v>
+        <v>5.60729701293544</v>
       </c>
       <c r="D35" t="n">
-        <v>9.452526280780457</v>
+        <v>5.742798671202737</v>
       </c>
       <c r="E35" t="n">
-        <v>9.362099521427066</v>
+        <v>5.687799965338097</v>
       </c>
       <c r="F35" t="n">
-        <v>9.797294061571622</v>
+        <v>5.95219987090488</v>
       </c>
       <c r="G35" t="n">
-        <v>9.300243082525416</v>
+        <v>5.650223187175642</v>
       </c>
       <c r="H35" t="n">
-        <v>10.17098496416356</v>
+        <v>6.179275911933293</v>
       </c>
       <c r="I35" t="n">
-        <v>9.079236098226724</v>
+        <v>5.516039590989543</v>
       </c>
       <c r="J35" t="n">
-        <v>10.28467564812648</v>
+        <v>6.24811063060555</v>
       </c>
       <c r="K35" t="n">
-        <v>8.593187849198088</v>
+        <v>5.220669229464074</v>
       </c>
       <c r="L35" t="n">
-        <v>9.80112695772179</v>
+        <v>5.954565614027427</v>
       </c>
       <c r="M35" t="n">
-        <v>9.4248831869642</v>
+        <v>5.725973910776986</v>
       </c>
       <c r="N35" t="n">
-        <v>9.790553698955927</v>
+        <v>5.948179090138688</v>
       </c>
       <c r="O35" t="n">
-        <v>9.102822875004549</v>
+        <v>5.530421096635293</v>
       </c>
       <c r="P35" t="n">
-        <v>10.36049499406931</v>
+        <v>6.294553577886251</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.185994744817258</v>
+        <v>5.580905931142901</v>
       </c>
     </row>
   </sheetData>
@@ -6113,1804 +6113,1804 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.408735487188564</v>
+        <v>2.462722578772814</v>
       </c>
       <c r="B2" t="n">
-        <v>3.379316406954858</v>
+        <v>2.431132757363494</v>
       </c>
       <c r="C2" t="n">
-        <v>3.380387689149666</v>
+        <v>2.425113231158049</v>
       </c>
       <c r="D2" t="n">
-        <v>3.385598247613537</v>
+        <v>2.471698647048575</v>
       </c>
       <c r="E2" t="n">
-        <v>3.391991199732733</v>
+        <v>2.462877965992215</v>
       </c>
       <c r="F2" t="n">
-        <v>3.542702065999309</v>
+        <v>2.741469419058315</v>
       </c>
       <c r="G2" t="n">
-        <v>3.55789348843415</v>
+        <v>2.715917501031442</v>
       </c>
       <c r="H2" t="n">
-        <v>3.764102582532829</v>
+        <v>3.069423061264686</v>
       </c>
       <c r="I2" t="n">
-        <v>3.791820848792726</v>
+        <v>2.962958980230433</v>
       </c>
       <c r="J2" t="n">
-        <v>3.921135720852072</v>
+        <v>3.317619755283325</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9400627045997</v>
+        <v>2.961412931983066</v>
       </c>
       <c r="L2" t="n">
-        <v>3.961941779092148</v>
+        <v>3.233865680121581</v>
       </c>
       <c r="M2" t="n">
-        <v>3.968232005521431</v>
+        <v>3.201561150283914</v>
       </c>
       <c r="N2" t="n">
-        <v>4.322811736904234</v>
+        <v>3.555645318664343</v>
       </c>
       <c r="O2" t="n">
-        <v>4.328400254028951</v>
+        <v>3.463713217784559</v>
       </c>
       <c r="P2" t="n">
-        <v>4.63467764723429</v>
+        <v>3.888408322677755</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.653726224655693</v>
+        <v>3.823539435192931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.414229065410359</v>
+        <v>2.526869661691638</v>
       </c>
       <c r="B3" t="n">
-        <v>3.385238857444745</v>
+        <v>2.493141355516951</v>
       </c>
       <c r="C3" t="n">
-        <v>3.384065448543639</v>
+        <v>2.4882661269963</v>
       </c>
       <c r="D3" t="n">
-        <v>3.381010632108906</v>
+        <v>2.520443290260688</v>
       </c>
       <c r="E3" t="n">
-        <v>3.397317362034232</v>
+        <v>2.515495098888772</v>
       </c>
       <c r="F3" t="n">
-        <v>3.543968317360687</v>
+        <v>2.768251334278575</v>
       </c>
       <c r="G3" t="n">
-        <v>3.579249650231005</v>
+        <v>2.755139309463928</v>
       </c>
       <c r="H3" t="n">
-        <v>3.76190670860151</v>
+        <v>3.085411933065227</v>
       </c>
       <c r="I3" t="n">
-        <v>3.833087824924277</v>
+        <v>2.98398701952666</v>
       </c>
       <c r="J3" t="n">
-        <v>3.924965921575974</v>
+        <v>3.334663222310621</v>
       </c>
       <c r="K3" t="n">
-        <v>3.998547165242658</v>
+        <v>2.980114347889968</v>
       </c>
       <c r="L3" t="n">
-        <v>3.99344951519015</v>
+        <v>3.23789846973611</v>
       </c>
       <c r="M3" t="n">
-        <v>4.001524712791101</v>
+        <v>3.217119523066769</v>
       </c>
       <c r="N3" t="n">
-        <v>4.391090178630391</v>
+        <v>3.532054845865977</v>
       </c>
       <c r="O3" t="n">
-        <v>4.39325370744652</v>
+        <v>3.495771384279053</v>
       </c>
       <c r="P3" t="n">
-        <v>4.74157675548246</v>
+        <v>3.87768078206715</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.728001390839953</v>
+        <v>3.840709904889011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.454016252521908</v>
+        <v>2.607073302647087</v>
       </c>
       <c r="B4" t="n">
-        <v>3.421243762521565</v>
+        <v>2.573183422876583</v>
       </c>
       <c r="C4" t="n">
-        <v>3.423170093826291</v>
+        <v>2.568832398781102</v>
       </c>
       <c r="D4" t="n">
-        <v>3.399546180064358</v>
+        <v>2.583579264539918</v>
       </c>
       <c r="E4" t="n">
-        <v>3.421178772799375</v>
+        <v>2.580312129983047</v>
       </c>
       <c r="F4" t="n">
-        <v>3.551992601354392</v>
+        <v>2.809773564976739</v>
       </c>
       <c r="G4" t="n">
-        <v>3.592770806856386</v>
+        <v>2.797794738759786</v>
       </c>
       <c r="H4" t="n">
-        <v>3.778413798545937</v>
+        <v>3.109749865696497</v>
       </c>
       <c r="I4" t="n">
-        <v>3.855081604778931</v>
+        <v>3.025914275927854</v>
       </c>
       <c r="J4" t="n">
-        <v>3.915891319813974</v>
+        <v>3.319849034220214</v>
       </c>
       <c r="K4" t="n">
-        <v>4.005084472412986</v>
+        <v>3.009913031374481</v>
       </c>
       <c r="L4" t="n">
-        <v>3.994489949728803</v>
+        <v>3.267932599428943</v>
       </c>
       <c r="M4" t="n">
-        <v>4.006493281874651</v>
+        <v>3.250031045602237</v>
       </c>
       <c r="N4" t="n">
-        <v>4.404679918879649</v>
+        <v>3.556724659396765</v>
       </c>
       <c r="O4" t="n">
-        <v>4.398112962020396</v>
+        <v>3.51228391464802</v>
       </c>
       <c r="P4" t="n">
-        <v>4.787843447845523</v>
+        <v>3.868503474605607</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.748525564396054</v>
+        <v>3.867653393705089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.426777472645541</v>
+        <v>2.559094860349376</v>
       </c>
       <c r="B5" t="n">
-        <v>3.397379057346542</v>
+        <v>2.529586390699693</v>
       </c>
       <c r="C5" t="n">
-        <v>3.397357493936414</v>
+        <v>2.523381091249507</v>
       </c>
       <c r="D5" t="n">
-        <v>3.387491934311264</v>
+        <v>2.568800193233287</v>
       </c>
       <c r="E5" t="n">
-        <v>3.407614189861933</v>
+        <v>2.558186554729644</v>
       </c>
       <c r="F5" t="n">
-        <v>3.551732941957439</v>
+        <v>2.822706548779805</v>
       </c>
       <c r="G5" t="n">
-        <v>3.588487475027999</v>
+        <v>2.792347998229605</v>
       </c>
       <c r="H5" t="n">
-        <v>3.776346107108154</v>
+        <v>3.146329909446915</v>
       </c>
       <c r="I5" t="n">
-        <v>3.847476609315483</v>
+        <v>3.027152824876875</v>
       </c>
       <c r="J5" t="n">
-        <v>3.910958390255495</v>
+        <v>3.379610522116523</v>
       </c>
       <c r="K5" t="n">
-        <v>4.00019496916657</v>
+        <v>3.005173539230497</v>
       </c>
       <c r="L5" t="n">
-        <v>3.983112555460267</v>
+        <v>3.274880264049102</v>
       </c>
       <c r="M5" t="n">
-        <v>3.993092820447623</v>
+        <v>3.249301053185097</v>
       </c>
       <c r="N5" t="n">
-        <v>4.385478301144703</v>
+        <v>3.581337703826319</v>
       </c>
       <c r="O5" t="n">
-        <v>4.38364121839856</v>
+        <v>3.505320966039068</v>
       </c>
       <c r="P5" t="n">
-        <v>4.755427353095899</v>
+        <v>3.869618477978547</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.729059794887046</v>
+        <v>3.869868116462175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.41586009779306</v>
+        <v>2.564718276511921</v>
       </c>
       <c r="B6" t="n">
-        <v>3.386407773968741</v>
+        <v>2.534120822660697</v>
       </c>
       <c r="C6" t="n">
-        <v>3.386104089276112</v>
+        <v>2.528515055866163</v>
       </c>
       <c r="D6" t="n">
-        <v>3.380044172046663</v>
+        <v>2.57206641802892</v>
       </c>
       <c r="E6" t="n">
-        <v>3.40059350291458</v>
+        <v>2.565120572931237</v>
       </c>
       <c r="F6" t="n">
-        <v>3.550658964336366</v>
+        <v>2.832104200413123</v>
       </c>
       <c r="G6" t="n">
-        <v>3.588481185700045</v>
+        <v>2.797973233914625</v>
       </c>
       <c r="H6" t="n">
-        <v>3.78220806025296</v>
+        <v>3.151129809737084</v>
       </c>
       <c r="I6" t="n">
-        <v>3.852993248406442</v>
+        <v>3.026522724243636</v>
       </c>
       <c r="J6" t="n">
-        <v>3.914703235814308</v>
+        <v>3.380331416921286</v>
       </c>
       <c r="K6" t="n">
-        <v>4.0014429515277</v>
+        <v>3.02053285625454</v>
       </c>
       <c r="L6" t="n">
-        <v>3.982871764047176</v>
+        <v>3.285578692300099</v>
       </c>
       <c r="M6" t="n">
-        <v>3.993758291243504</v>
+        <v>3.258079885224522</v>
       </c>
       <c r="N6" t="n">
-        <v>4.391864664444138</v>
+        <v>3.582088074895184</v>
       </c>
       <c r="O6" t="n">
-        <v>4.394667009285294</v>
+        <v>3.507159775452731</v>
       </c>
       <c r="P6" t="n">
-        <v>4.769131798707363</v>
+        <v>3.889714012006119</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.745952031295696</v>
+        <v>3.875221151584872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.426256356900793</v>
+        <v>2.619528661800354</v>
       </c>
       <c r="B7" t="n">
-        <v>3.397116702523323</v>
+        <v>2.589542931405367</v>
       </c>
       <c r="C7" t="n">
-        <v>3.396704302304634</v>
+        <v>2.580357618044932</v>
       </c>
       <c r="D7" t="n">
-        <v>3.386183454605054</v>
+        <v>2.606093125889576</v>
       </c>
       <c r="E7" t="n">
-        <v>3.407850788389721</v>
+        <v>2.591427228880916</v>
       </c>
       <c r="F7" t="n">
-        <v>3.553440045259202</v>
+        <v>2.830783045143717</v>
       </c>
       <c r="G7" t="n">
-        <v>3.587741740427755</v>
+        <v>2.791503739801008</v>
       </c>
       <c r="H7" t="n">
-        <v>3.78753512102988</v>
+        <v>3.132667479083452</v>
       </c>
       <c r="I7" t="n">
-        <v>3.849207372470024</v>
+        <v>3.007182292043365</v>
       </c>
       <c r="J7" t="n">
-        <v>3.925664935454274</v>
+        <v>3.363838537395053</v>
       </c>
       <c r="K7" t="n">
-        <v>4.016504095026354</v>
+        <v>3.02940612151044</v>
       </c>
       <c r="L7" t="n">
-        <v>3.981542918898068</v>
+        <v>3.280608484706231</v>
       </c>
       <c r="M7" t="n">
-        <v>3.991985599235937</v>
+        <v>3.254921194207186</v>
       </c>
       <c r="N7" t="n">
-        <v>4.383938613763235</v>
+        <v>3.569099595656618</v>
       </c>
       <c r="O7" t="n">
-        <v>4.384818820184969</v>
+        <v>3.508630313517369</v>
       </c>
       <c r="P7" t="n">
-        <v>4.752481252187226</v>
+        <v>3.882599315222716</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.732996315202548</v>
+        <v>3.869838276293578</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.414738201482814</v>
+        <v>2.486775938088928</v>
       </c>
       <c r="B8" t="n">
-        <v>3.385914211470267</v>
+        <v>2.454262527071083</v>
       </c>
       <c r="C8" t="n">
-        <v>3.386562012249514</v>
+        <v>2.450256484436942</v>
       </c>
       <c r="D8" t="n">
-        <v>3.381285565588032</v>
+        <v>2.500675088326444</v>
       </c>
       <c r="E8" t="n">
-        <v>3.401119111036438</v>
+        <v>2.496945977013063</v>
       </c>
       <c r="F8" t="n">
-        <v>3.554772484309999</v>
+        <v>2.784770051023959</v>
       </c>
       <c r="G8" t="n">
-        <v>3.586357489294291</v>
+        <v>2.756163882569839</v>
       </c>
       <c r="H8" t="n">
-        <v>3.79193914805662</v>
+        <v>3.132775194813997</v>
       </c>
       <c r="I8" t="n">
-        <v>3.846579331860732</v>
+        <v>2.981358537358663</v>
       </c>
       <c r="J8" t="n">
-        <v>3.939007894454295</v>
+        <v>3.410629377373055</v>
       </c>
       <c r="K8" t="n">
-        <v>4.02069458439447</v>
+        <v>3.025711945028587</v>
       </c>
       <c r="L8" t="n">
-        <v>3.984026005472614</v>
+        <v>3.285695505643022</v>
       </c>
       <c r="M8" t="n">
-        <v>3.99347527148558</v>
+        <v>3.267406029624555</v>
       </c>
       <c r="N8" t="n">
-        <v>4.377330327034572</v>
+        <v>3.575062170808582</v>
       </c>
       <c r="O8" t="n">
-        <v>4.377450423249309</v>
+        <v>3.524286576609402</v>
       </c>
       <c r="P8" t="n">
-        <v>4.732620752476161</v>
+        <v>3.888790422397594</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.710334069633942</v>
+        <v>3.886447605258238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.410589041984109</v>
+        <v>2.485955333452512</v>
       </c>
       <c r="B9" t="n">
-        <v>3.380794099532209</v>
+        <v>2.450282685560588</v>
       </c>
       <c r="C9" t="n">
-        <v>3.382125340615776</v>
+        <v>2.444381428316046</v>
       </c>
       <c r="D9" t="n">
-        <v>3.380850104500179</v>
+        <v>2.483960045105962</v>
       </c>
       <c r="E9" t="n">
-        <v>3.397952284665765</v>
+        <v>2.479768775083823</v>
       </c>
       <c r="F9" t="n">
-        <v>3.562369094002841</v>
+        <v>2.760358791636929</v>
       </c>
       <c r="G9" t="n">
-        <v>3.588644708226845</v>
+        <v>2.737209553038853</v>
       </c>
       <c r="H9" t="n">
-        <v>3.806334521267587</v>
+        <v>3.093072486591256</v>
       </c>
       <c r="I9" t="n">
-        <v>3.850637445850009</v>
+        <v>2.977081385875684</v>
       </c>
       <c r="J9" t="n">
-        <v>3.949898614535925</v>
+        <v>3.367813466194864</v>
       </c>
       <c r="K9" t="n">
-        <v>4.024055780948098</v>
+        <v>3.006665547660344</v>
       </c>
       <c r="L9" t="n">
-        <v>3.997770882478067</v>
+        <v>3.254230867380011</v>
       </c>
       <c r="M9" t="n">
-        <v>4.004308489140202</v>
+        <v>3.236833321278997</v>
       </c>
       <c r="N9" t="n">
-        <v>4.406637397332337</v>
+        <v>3.559883350414101</v>
       </c>
       <c r="O9" t="n">
-        <v>4.402452298816753</v>
+        <v>3.503080769967326</v>
       </c>
       <c r="P9" t="n">
-        <v>4.79077906654094</v>
+        <v>3.881815464940304</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.758907148405228</v>
+        <v>3.876371453693835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.414519272971658</v>
+        <v>2.436048925139842</v>
       </c>
       <c r="B10" t="n">
-        <v>3.384904025604154</v>
+        <v>2.405304635824851</v>
       </c>
       <c r="C10" t="n">
-        <v>3.386566804118432</v>
+        <v>2.401462168261251</v>
       </c>
       <c r="D10" t="n">
-        <v>3.384277488743226</v>
+        <v>2.453445561479617</v>
       </c>
       <c r="E10" t="n">
-        <v>3.401990632195758</v>
+        <v>2.45103105515473</v>
       </c>
       <c r="F10" t="n">
-        <v>3.561738364256611</v>
+        <v>2.744832442449641</v>
       </c>
       <c r="G10" t="n">
-        <v>3.589659086978261</v>
+        <v>2.711008065488253</v>
       </c>
       <c r="H10" t="n">
-        <v>3.800749897536365</v>
+        <v>3.083536005393065</v>
       </c>
       <c r="I10" t="n">
-        <v>3.851092972888953</v>
+        <v>2.926340908460279</v>
       </c>
       <c r="J10" t="n">
-        <v>3.945054035060608</v>
+        <v>3.36959587041179</v>
       </c>
       <c r="K10" t="n">
-        <v>4.0371118267967</v>
+        <v>2.946085274650094</v>
       </c>
       <c r="L10" t="n">
-        <v>3.992284791551456</v>
+        <v>3.246596151073132</v>
       </c>
       <c r="M10" t="n">
-        <v>3.999345909892798</v>
+        <v>3.225121055104693</v>
       </c>
       <c r="N10" t="n">
-        <v>4.399301645003676</v>
+        <v>3.531522453589668</v>
       </c>
       <c r="O10" t="n">
-        <v>4.393466047137914</v>
+        <v>3.517827635726142</v>
       </c>
       <c r="P10" t="n">
-        <v>4.777691574052569</v>
+        <v>3.894557944740193</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.740236230152865</v>
+        <v>3.885705240088265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.419658851877192</v>
+        <v>2.400901391434325</v>
       </c>
       <c r="B11" t="n">
-        <v>3.390414974350773</v>
+        <v>2.370415110406349</v>
       </c>
       <c r="C11" t="n">
-        <v>3.391548850333312</v>
+        <v>2.36566342746178</v>
       </c>
       <c r="D11" t="n">
-        <v>3.388069953499405</v>
+        <v>2.431915515932421</v>
       </c>
       <c r="E11" t="n">
-        <v>3.406697145947899</v>
+        <v>2.425197111144166</v>
       </c>
       <c r="F11" t="n">
-        <v>3.561945612587281</v>
+        <v>2.715254648993645</v>
       </c>
       <c r="G11" t="n">
-        <v>3.593036456089485</v>
+        <v>2.691720581392016</v>
       </c>
       <c r="H11" t="n">
-        <v>3.790683079416692</v>
+        <v>3.048108265226332</v>
       </c>
       <c r="I11" t="n">
-        <v>3.852520949826287</v>
+        <v>2.908652238763198</v>
       </c>
       <c r="J11" t="n">
-        <v>3.942617968699812</v>
+        <v>3.320382882114504</v>
       </c>
       <c r="K11" t="n">
-        <v>4.043349043176087</v>
+        <v>2.944211166500408</v>
       </c>
       <c r="L11" t="n">
-        <v>3.986321610175773</v>
+        <v>3.217461957196643</v>
       </c>
       <c r="M11" t="n">
-        <v>3.995676835761238</v>
+        <v>3.205114313773922</v>
       </c>
       <c r="N11" t="n">
-        <v>4.386979953066639</v>
+        <v>3.521658822250394</v>
       </c>
       <c r="O11" t="n">
-        <v>4.387660098961078</v>
+        <v>3.505307865477245</v>
       </c>
       <c r="P11" t="n">
-        <v>4.748080819062174</v>
+        <v>3.876942055942128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.727148138680879</v>
+        <v>3.874402002566436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.432102436979811</v>
+        <v>2.376283616246334</v>
       </c>
       <c r="B12" t="n">
-        <v>3.402430885152529</v>
+        <v>2.337425894261181</v>
       </c>
       <c r="C12" t="n">
-        <v>3.4022212408874</v>
+        <v>2.3357401066877</v>
       </c>
       <c r="D12" t="n">
-        <v>3.392846548334459</v>
+        <v>2.377592034858412</v>
       </c>
       <c r="E12" t="n">
-        <v>3.41378971092901</v>
+        <v>2.380332781563143</v>
       </c>
       <c r="F12" t="n">
-        <v>3.560350219729652</v>
+        <v>2.669450718006313</v>
       </c>
       <c r="G12" t="n">
-        <v>3.595433588515328</v>
+        <v>2.65804122037192</v>
       </c>
       <c r="H12" t="n">
-        <v>3.788080495611022</v>
+        <v>3.005093480241578</v>
       </c>
       <c r="I12" t="n">
-        <v>3.859599139200647</v>
+        <v>2.897731282913456</v>
       </c>
       <c r="J12" t="n">
-        <v>3.951364626932789</v>
+        <v>3.280722750717688</v>
       </c>
       <c r="K12" t="n">
-        <v>4.058920221222619</v>
+        <v>2.943764473732691</v>
       </c>
       <c r="L12" t="n">
-        <v>3.98655611226091</v>
+        <v>3.18287392665232</v>
       </c>
       <c r="M12" t="n">
-        <v>3.997792445888195</v>
+        <v>3.175173707536326</v>
       </c>
       <c r="N12" t="n">
-        <v>4.392452267370113</v>
+        <v>3.533970803032598</v>
       </c>
       <c r="O12" t="n">
-        <v>4.39509767850423</v>
+        <v>3.500964665328408</v>
       </c>
       <c r="P12" t="n">
-        <v>4.753160499606243</v>
+        <v>3.861554718271963</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.742515362806621</v>
+        <v>3.878799788389536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.435900292588521</v>
+        <v>2.354349636709594</v>
       </c>
       <c r="B13" t="n">
-        <v>3.406238623990881</v>
+        <v>2.318518872314555</v>
       </c>
       <c r="C13" t="n">
-        <v>3.406224547875937</v>
+        <v>2.317862206653175</v>
       </c>
       <c r="D13" t="n">
-        <v>3.394475783766316</v>
+        <v>2.359621339177639</v>
       </c>
       <c r="E13" t="n">
-        <v>3.416026016254319</v>
+        <v>2.364405773526767</v>
       </c>
       <c r="F13" t="n">
-        <v>3.557443352247738</v>
+        <v>2.639547593931711</v>
       </c>
       <c r="G13" t="n">
-        <v>3.596051140622035</v>
+        <v>2.63144289496943</v>
       </c>
       <c r="H13" t="n">
-        <v>3.779362289099741</v>
+        <v>2.965109109939642</v>
       </c>
       <c r="I13" t="n">
-        <v>3.860645563575447</v>
+        <v>2.873195932093602</v>
       </c>
       <c r="J13" t="n">
-        <v>3.936713487718365</v>
+        <v>3.261350294921849</v>
       </c>
       <c r="K13" t="n">
-        <v>4.05954406265728</v>
+        <v>2.931498890773611</v>
       </c>
       <c r="L13" t="n">
-        <v>3.979807962858224</v>
+        <v>3.167427636453951</v>
       </c>
       <c r="M13" t="n">
-        <v>3.99271006991786</v>
+        <v>3.155633127863758</v>
       </c>
       <c r="N13" t="n">
-        <v>4.382649002040887</v>
+        <v>3.538140056832785</v>
       </c>
       <c r="O13" t="n">
-        <v>4.389077593685156</v>
+        <v>3.5016167821836</v>
       </c>
       <c r="P13" t="n">
-        <v>4.722667142259657</v>
+        <v>3.861923717429979</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.718683302238596</v>
+        <v>3.877043949200752</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.443575369134884</v>
+        <v>2.307905233810912</v>
       </c>
       <c r="B14" t="n">
-        <v>3.412329688368292</v>
+        <v>2.278452441548978</v>
       </c>
       <c r="C14" t="n">
-        <v>3.413367427480679</v>
+        <v>2.269647772290401</v>
       </c>
       <c r="D14" t="n">
-        <v>3.396354795365484</v>
+        <v>2.328541347965933</v>
       </c>
       <c r="E14" t="n">
-        <v>3.421095514076939</v>
+        <v>2.314736085088149</v>
       </c>
       <c r="F14" t="n">
-        <v>3.558077675895656</v>
+        <v>2.605628965706095</v>
       </c>
       <c r="G14" t="n">
-        <v>3.600951126081708</v>
+        <v>2.580678945714092</v>
       </c>
       <c r="H14" t="n">
-        <v>3.782356009205779</v>
+        <v>2.942670758772714</v>
       </c>
       <c r="I14" t="n">
-        <v>3.86341017244888</v>
+        <v>2.84184756131677</v>
       </c>
       <c r="J14" t="n">
-        <v>3.94883032725919</v>
+        <v>3.230376563822708</v>
       </c>
       <c r="K14" t="n">
-        <v>4.069407525839779</v>
+        <v>2.926472823839747</v>
       </c>
       <c r="L14" t="n">
-        <v>3.978740274565104</v>
+        <v>3.151863077294679</v>
       </c>
       <c r="M14" t="n">
-        <v>3.992632801031569</v>
+        <v>3.133686047765194</v>
       </c>
       <c r="N14" t="n">
-        <v>4.400589759266988</v>
+        <v>3.522701044724317</v>
       </c>
       <c r="O14" t="n">
-        <v>4.399876669273743</v>
+        <v>3.484967787628976</v>
       </c>
       <c r="P14" t="n">
-        <v>4.795657788082292</v>
+        <v>3.834268795326011</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.775136309952457</v>
+        <v>3.874267357903255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.446529556322354</v>
+        <v>2.283022172246005</v>
       </c>
       <c r="B15" t="n">
-        <v>3.41442493305235</v>
+        <v>2.250962004276788</v>
       </c>
       <c r="C15" t="n">
-        <v>3.416220386437274</v>
+        <v>2.246907926249296</v>
       </c>
       <c r="D15" t="n">
-        <v>3.395338619663224</v>
+        <v>2.298585275787296</v>
       </c>
       <c r="E15" t="n">
-        <v>3.42347827089603</v>
+        <v>2.295677496919321</v>
       </c>
       <c r="F15" t="n">
-        <v>3.55273444256114</v>
+        <v>2.577736413966837</v>
       </c>
       <c r="G15" t="n">
-        <v>3.603888541727969</v>
+        <v>2.569747254681745</v>
       </c>
       <c r="H15" t="n">
-        <v>3.770895955198422</v>
+        <v>2.916886487725729</v>
       </c>
       <c r="I15" t="n">
-        <v>3.866161304190983</v>
+        <v>2.834036169377528</v>
       </c>
       <c r="J15" t="n">
-        <v>3.937065690083781</v>
+        <v>3.197413366848938</v>
       </c>
       <c r="K15" t="n">
-        <v>4.065194275094306</v>
+        <v>2.918481663079933</v>
       </c>
       <c r="L15" t="n">
-        <v>3.975031667514977</v>
+        <v>3.127763138203194</v>
       </c>
       <c r="M15" t="n">
-        <v>3.993225495318269</v>
+        <v>3.114773567251143</v>
       </c>
       <c r="N15" t="n">
-        <v>4.379974240709652</v>
+        <v>3.499856212236379</v>
       </c>
       <c r="O15" t="n">
-        <v>4.388421107643495</v>
+        <v>3.474767180727254</v>
       </c>
       <c r="P15" t="n">
-        <v>4.756300970697871</v>
+        <v>3.833005318919076</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.749578577590615</v>
+        <v>3.858420408855798</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.446469957452696</v>
+        <v>2.287726365653966</v>
       </c>
       <c r="B16" t="n">
-        <v>3.41456389725095</v>
+        <v>2.254921649087805</v>
       </c>
       <c r="C16" t="n">
-        <v>3.415982889434064</v>
+        <v>2.251863759615607</v>
       </c>
       <c r="D16" t="n">
-        <v>3.395205645300771</v>
+        <v>2.298761041658422</v>
       </c>
       <c r="E16" t="n">
-        <v>3.419763674009757</v>
+        <v>2.297085261458557</v>
       </c>
       <c r="F16" t="n">
-        <v>3.553044416581723</v>
+        <v>2.573334079337548</v>
       </c>
       <c r="G16" t="n">
-        <v>3.597710325234626</v>
+        <v>2.563764300878056</v>
       </c>
       <c r="H16" t="n">
-        <v>3.770089124269483</v>
+        <v>2.909224296629471</v>
       </c>
       <c r="I16" t="n">
-        <v>3.864319429575924</v>
+        <v>2.826387988604331</v>
       </c>
       <c r="J16" t="n">
-        <v>3.928458295541211</v>
+        <v>3.192479913609073</v>
       </c>
       <c r="K16" t="n">
-        <v>4.068530613827926</v>
+        <v>2.925074520817384</v>
       </c>
       <c r="L16" t="n">
-        <v>3.976074797479896</v>
+        <v>3.128982582166223</v>
       </c>
       <c r="M16" t="n">
-        <v>3.991728036281636</v>
+        <v>3.109006408813039</v>
       </c>
       <c r="N16" t="n">
-        <v>4.376605856352648</v>
+        <v>3.530345222548068</v>
       </c>
       <c r="O16" t="n">
-        <v>4.385979949921975</v>
+        <v>3.477418224973947</v>
       </c>
       <c r="P16" t="n">
-        <v>4.732252976536763</v>
+        <v>3.851053890161797</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.737435382770745</v>
+        <v>3.83832232749676</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.449277693146385</v>
+        <v>2.355995212836367</v>
       </c>
       <c r="B17" t="n">
-        <v>3.417819373196592</v>
+        <v>2.319142604619131</v>
       </c>
       <c r="C17" t="n">
-        <v>3.418869990456693</v>
+        <v>2.317547793169421</v>
       </c>
       <c r="D17" t="n">
-        <v>3.395793847210361</v>
+        <v>2.333075416022442</v>
       </c>
       <c r="E17" t="n">
-        <v>3.419376431102883</v>
+        <v>2.338712296651305</v>
       </c>
       <c r="F17" t="n">
-        <v>3.550477472301126</v>
+        <v>2.58230123195318</v>
       </c>
       <c r="G17" t="n">
-        <v>3.592099645716166</v>
+        <v>2.569460679891866</v>
       </c>
       <c r="H17" t="n">
-        <v>3.781252980879395</v>
+        <v>2.918824461114303</v>
       </c>
       <c r="I17" t="n">
-        <v>3.861641074343001</v>
+        <v>2.832892781453971</v>
       </c>
       <c r="J17" t="n">
-        <v>3.948528140025597</v>
+        <v>3.212238835978692</v>
       </c>
       <c r="K17" t="n">
-        <v>4.070701030955623</v>
+        <v>2.923801582893577</v>
       </c>
       <c r="L17" t="n">
-        <v>3.981427914044054</v>
+        <v>3.119427541838782</v>
       </c>
       <c r="M17" t="n">
-        <v>3.995941586518915</v>
+        <v>3.090969482514161</v>
       </c>
       <c r="N17" t="n">
-        <v>4.38567686421296</v>
+        <v>3.522053294723066</v>
       </c>
       <c r="O17" t="n">
-        <v>4.396970999759059</v>
+        <v>3.436299928265326</v>
       </c>
       <c r="P17" t="n">
-        <v>4.728030142053457</v>
+        <v>3.84602582175321</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.738007711614546</v>
+        <v>3.808891551456778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.444519367311577</v>
+        <v>2.31731398453133</v>
       </c>
       <c r="B18" t="n">
-        <v>3.413977492292204</v>
+        <v>2.283701945842823</v>
       </c>
       <c r="C18" t="n">
-        <v>3.414727719269557</v>
+        <v>2.279906603911336</v>
       </c>
       <c r="D18" t="n">
-        <v>3.394778270491716</v>
+        <v>2.314953336071714</v>
       </c>
       <c r="E18" t="n">
-        <v>3.419436029972541</v>
+        <v>2.318262865502263</v>
       </c>
       <c r="F18" t="n">
-        <v>3.549238474694215</v>
+        <v>2.592764395948105</v>
       </c>
       <c r="G18" t="n">
-        <v>3.597665700955334</v>
+        <v>2.570362435230686</v>
       </c>
       <c r="H18" t="n">
-        <v>3.770441626126707</v>
+        <v>2.933648656578324</v>
       </c>
       <c r="I18" t="n">
-        <v>3.870215524786766</v>
+        <v>2.847289571088516</v>
       </c>
       <c r="J18" t="n">
-        <v>3.938367580970231</v>
+        <v>3.217850607197394</v>
       </c>
       <c r="K18" t="n">
-        <v>4.087001172061188</v>
+        <v>2.94068911684473</v>
       </c>
       <c r="L18" t="n">
-        <v>3.976059523397723</v>
+        <v>3.135037952964434</v>
       </c>
       <c r="M18" t="n">
-        <v>3.994385427088046</v>
+        <v>3.098549977051273</v>
       </c>
       <c r="N18" t="n">
-        <v>4.365459370267562</v>
+        <v>3.514508826730969</v>
       </c>
       <c r="O18" t="n">
-        <v>4.38751424645091</v>
+        <v>3.435133250454085</v>
       </c>
       <c r="P18" t="n">
-        <v>4.682144103777505</v>
+        <v>3.884853703569767</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.710217267829084</v>
+        <v>3.808738711568842</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.44311864412871</v>
+        <v>2.327793524228534</v>
       </c>
       <c r="B19" t="n">
-        <v>3.412928971474753</v>
+        <v>2.295199872269522</v>
       </c>
       <c r="C19" t="n">
-        <v>3.412950834376688</v>
+        <v>2.291080291432915</v>
       </c>
       <c r="D19" t="n">
-        <v>3.391653073482261</v>
+        <v>2.329563191788131</v>
       </c>
       <c r="E19" t="n">
-        <v>3.41566063624938</v>
+        <v>2.331248251552621</v>
       </c>
       <c r="F19" t="n">
-        <v>3.539664620089401</v>
+        <v>2.609777476950062</v>
       </c>
       <c r="G19" t="n">
-        <v>3.589729467552983</v>
+        <v>2.578512258350357</v>
       </c>
       <c r="H19" t="n">
-        <v>3.754366103876637</v>
+        <v>2.950374798885906</v>
       </c>
       <c r="I19" t="n">
-        <v>3.849957599447378</v>
+        <v>2.861795895976081</v>
       </c>
       <c r="J19" t="n">
-        <v>3.943372688054275</v>
+        <v>3.238402113557307</v>
       </c>
       <c r="K19" t="n">
-        <v>4.077694763640317</v>
+        <v>2.950732335052327</v>
       </c>
       <c r="L19" t="n">
-        <v>3.960371843038141</v>
+        <v>3.153673138253231</v>
       </c>
       <c r="M19" t="n">
-        <v>3.978785198336203</v>
+        <v>3.112579587050277</v>
       </c>
       <c r="N19" t="n">
-        <v>4.349934613451166</v>
+        <v>3.555762495911761</v>
       </c>
       <c r="O19" t="n">
-        <v>4.372217702391697</v>
+        <v>3.454575939817475</v>
       </c>
       <c r="P19" t="n">
-        <v>4.673727485516202</v>
+        <v>3.895503732522918</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.70036338838442</v>
+        <v>3.846889003215551</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.428303682895678</v>
+        <v>2.365304799581874</v>
       </c>
       <c r="B20" t="n">
-        <v>3.400660289587613</v>
+        <v>2.330029171494087</v>
       </c>
       <c r="C20" t="n">
-        <v>3.399650403213307</v>
+        <v>2.328039705619459</v>
       </c>
       <c r="D20" t="n">
-        <v>3.390630009468433</v>
+        <v>2.365897054147624</v>
       </c>
       <c r="E20" t="n">
-        <v>3.413666320304392</v>
+        <v>2.368854142074683</v>
       </c>
       <c r="F20" t="n">
-        <v>3.544104885624828</v>
+        <v>2.644881524068416</v>
       </c>
       <c r="G20" t="n">
-        <v>3.594380575320767</v>
+        <v>2.620313967700747</v>
       </c>
       <c r="H20" t="n">
-        <v>3.747337031158678</v>
+        <v>2.983500661168979</v>
       </c>
       <c r="I20" t="n">
-        <v>3.845611374339452</v>
+        <v>2.876833157521974</v>
       </c>
       <c r="J20" t="n">
-        <v>3.931355878777097</v>
+        <v>3.282539361957151</v>
       </c>
       <c r="K20" t="n">
-        <v>4.068505157024303</v>
+        <v>2.982823980760369</v>
       </c>
       <c r="L20" t="n">
-        <v>3.963391618931416</v>
+        <v>3.174498300793448</v>
       </c>
       <c r="M20" t="n">
-        <v>3.981662116637384</v>
+        <v>3.144304780931769</v>
       </c>
       <c r="N20" t="n">
-        <v>4.335067540643659</v>
+        <v>3.572507561253087</v>
       </c>
       <c r="O20" t="n">
-        <v>4.360170344950172</v>
+        <v>3.475216966683179</v>
       </c>
       <c r="P20" t="n">
-        <v>4.651537538527749</v>
+        <v>3.87950212406505</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.681790403953053</v>
+        <v>3.863604228388281</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.406432694682029</v>
+        <v>2.392266847527201</v>
       </c>
       <c r="B21" t="n">
-        <v>3.375434394148289</v>
+        <v>2.359294916845549</v>
       </c>
       <c r="C21" t="n">
-        <v>3.378874956030859</v>
+        <v>2.354491195558182</v>
       </c>
       <c r="D21" t="n">
-        <v>3.380574871529245</v>
+        <v>2.402957815736049</v>
       </c>
       <c r="E21" t="n">
-        <v>3.393115192485631</v>
+        <v>2.396442651608299</v>
       </c>
       <c r="F21" t="n">
-        <v>3.539346260298213</v>
+        <v>2.69305665674572</v>
       </c>
       <c r="G21" t="n">
-        <v>3.572171460856645</v>
+        <v>2.656164564890767</v>
       </c>
       <c r="H21" t="n">
-        <v>3.750135782098147</v>
+        <v>3.034717125663955</v>
       </c>
       <c r="I21" t="n">
-        <v>3.836295981164361</v>
+        <v>2.90963751018364</v>
       </c>
       <c r="J21" t="n">
-        <v>3.930089926907527</v>
+        <v>3.325729730860784</v>
       </c>
       <c r="K21" t="n">
-        <v>4.062474589991973</v>
+        <v>3.030111550374162</v>
       </c>
       <c r="L21" t="n">
-        <v>3.971001106771974</v>
+        <v>3.191637838607447</v>
       </c>
       <c r="M21" t="n">
-        <v>3.985137719061411</v>
+        <v>3.158076746548252</v>
       </c>
       <c r="N21" t="n">
-        <v>4.339970820513212</v>
+        <v>3.567295721074482</v>
       </c>
       <c r="O21" t="n">
-        <v>4.352409014763299</v>
+        <v>3.482206116415777</v>
       </c>
       <c r="P21" t="n">
-        <v>4.633176594295969</v>
+        <v>3.873302647086785</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.659620223423883</v>
+        <v>3.867016924743186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.410638458132318</v>
+        <v>2.413300709295349</v>
       </c>
       <c r="B22" t="n">
-        <v>3.379521858334685</v>
+        <v>2.385591929326108</v>
       </c>
       <c r="C22" t="n">
-        <v>3.382188533387122</v>
+        <v>2.378132433033612</v>
       </c>
       <c r="D22" t="n">
-        <v>3.380988469715164</v>
+        <v>2.441072080837745</v>
       </c>
       <c r="E22" t="n">
-        <v>3.390924409915036</v>
+        <v>2.427496623648607</v>
       </c>
       <c r="F22" t="n">
-        <v>3.540522664117392</v>
+        <v>2.716721002156589</v>
       </c>
       <c r="G22" t="n">
-        <v>3.567378992955803</v>
+        <v>2.679656237618718</v>
       </c>
       <c r="H22" t="n">
-        <v>3.763886049956132</v>
+        <v>3.054466586516702</v>
       </c>
       <c r="I22" t="n">
-        <v>3.836675437284244</v>
+        <v>2.921489151779561</v>
       </c>
       <c r="J22" t="n">
-        <v>3.950922577025175</v>
+        <v>3.33453221669239</v>
       </c>
       <c r="K22" t="n">
-        <v>4.068175416544436</v>
+        <v>3.037231523772744</v>
       </c>
       <c r="L22" t="n">
-        <v>3.974065506944541</v>
+        <v>3.211326163505019</v>
       </c>
       <c r="M22" t="n">
-        <v>3.985621098838436</v>
+        <v>3.180834605861865</v>
       </c>
       <c r="N22" t="n">
-        <v>4.354487188414339</v>
+        <v>3.545577900807822</v>
       </c>
       <c r="O22" t="n">
-        <v>4.364032890789264</v>
+        <v>3.498960643273976</v>
       </c>
       <c r="P22" t="n">
-        <v>4.671314180532763</v>
+        <v>3.868639938791264</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.693677832769465</v>
+        <v>3.851032419796586</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.399693230541755</v>
+        <v>2.453053454386164</v>
       </c>
       <c r="B23" t="n">
-        <v>3.369890501302864</v>
+        <v>2.421230552147742</v>
       </c>
       <c r="C23" t="n">
-        <v>3.371253488518008</v>
+        <v>2.414887150941671</v>
       </c>
       <c r="D23" t="n">
-        <v>3.377707836457707</v>
+        <v>2.467073057011552</v>
       </c>
       <c r="E23" t="n">
-        <v>3.383710550751957</v>
+        <v>2.45367191007556</v>
       </c>
       <c r="F23" t="n">
-        <v>3.538841616602868</v>
+        <v>2.749599045478509</v>
       </c>
       <c r="G23" t="n">
-        <v>3.555646700895585</v>
+        <v>2.703866439772214</v>
       </c>
       <c r="H23" t="n">
-        <v>3.762939356353172</v>
+        <v>3.09377482226677</v>
       </c>
       <c r="I23" t="n">
-        <v>3.810189879303304</v>
+        <v>2.926193345187522</v>
       </c>
       <c r="J23" t="n">
-        <v>3.94706362508777</v>
+        <v>3.346753585255318</v>
       </c>
       <c r="K23" t="n">
-        <v>4.025472676688561</v>
+        <v>3.058874197761169</v>
       </c>
       <c r="L23" t="n">
-        <v>3.955550623923795</v>
+        <v>3.234772530123332</v>
       </c>
       <c r="M23" t="n">
-        <v>3.962633305675265</v>
+        <v>3.203465826411187</v>
       </c>
       <c r="N23" t="n">
-        <v>4.332613205282616</v>
+        <v>3.571079963918869</v>
       </c>
       <c r="O23" t="n">
-        <v>4.337280485607996</v>
+        <v>3.49457741363068</v>
       </c>
       <c r="P23" t="n">
-        <v>4.643967284113951</v>
+        <v>3.853435645082127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.66192840678295</v>
+        <v>3.855762450423699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.388956449249092</v>
+        <v>2.470798165375488</v>
       </c>
       <c r="B24" t="n">
-        <v>3.360691011457209</v>
+        <v>2.442412704997637</v>
       </c>
       <c r="C24" t="n">
-        <v>3.3618515422106</v>
+        <v>2.436634083567938</v>
       </c>
       <c r="D24" t="n">
-        <v>3.378477829894344</v>
+        <v>2.496743828066043</v>
       </c>
       <c r="E24" t="n">
-        <v>3.383731515178469</v>
+        <v>2.483427652829653</v>
       </c>
       <c r="F24" t="n">
-        <v>3.549565519747816</v>
+        <v>2.776299809996365</v>
       </c>
       <c r="G24" t="n">
-        <v>3.565816244705172</v>
+        <v>2.729110858500741</v>
       </c>
       <c r="H24" t="n">
-        <v>3.779206253868124</v>
+        <v>3.102580583238832</v>
       </c>
       <c r="I24" t="n">
-        <v>3.822269881351828</v>
+        <v>2.933946148503056</v>
       </c>
       <c r="J24" t="n">
-        <v>3.981376401453194</v>
+        <v>3.358764617020086</v>
       </c>
       <c r="K24" t="n">
-        <v>4.050850414474199</v>
+        <v>3.025899719748051</v>
       </c>
       <c r="L24" t="n">
-        <v>3.960653964320643</v>
+        <v>3.253601312603514</v>
       </c>
       <c r="M24" t="n">
-        <v>3.967058297128518</v>
+        <v>3.22167415172725</v>
       </c>
       <c r="N24" t="n">
-        <v>4.339155603813669</v>
+        <v>3.576346389771736</v>
       </c>
       <c r="O24" t="n">
-        <v>4.343310154164906</v>
+        <v>3.487360823588653</v>
       </c>
       <c r="P24" t="n">
-        <v>4.649581557534098</v>
+        <v>3.856180576688551</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.666327641940772</v>
+        <v>3.853119048171403</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.38169586936407</v>
+        <v>2.516700168624245</v>
       </c>
       <c r="B25" t="n">
-        <v>3.354085719646618</v>
+        <v>2.48283630802514</v>
       </c>
       <c r="C25" t="n">
-        <v>3.355036007151265</v>
+        <v>2.482587033446007</v>
       </c>
       <c r="D25" t="n">
-        <v>3.374425106757598</v>
+        <v>2.520562832887323</v>
       </c>
       <c r="E25" t="n">
-        <v>3.37946974676021</v>
+        <v>2.522333592160405</v>
       </c>
       <c r="F25" t="n">
-        <v>3.547897050889198</v>
+        <v>2.780712151999269</v>
       </c>
       <c r="G25" t="n">
-        <v>3.564140588043179</v>
+        <v>2.749042089648782</v>
       </c>
       <c r="H25" t="n">
-        <v>3.785862758777768</v>
+        <v>3.081214294714424</v>
       </c>
       <c r="I25" t="n">
-        <v>3.82547384470661</v>
+        <v>2.933080419709249</v>
       </c>
       <c r="J25" t="n">
-        <v>4.002491771836959</v>
+        <v>3.309624045717322</v>
       </c>
       <c r="K25" t="n">
-        <v>4.060497345080001</v>
+        <v>2.988785100294353</v>
       </c>
       <c r="L25" t="n">
-        <v>3.985922986580221</v>
+        <v>3.263205116133296</v>
       </c>
       <c r="M25" t="n">
-        <v>3.9915426508529</v>
+        <v>3.241795886878468</v>
       </c>
       <c r="N25" t="n">
-        <v>4.37606677109946</v>
+        <v>3.576227756906339</v>
       </c>
       <c r="O25" t="n">
-        <v>4.379659774311959</v>
+        <v>3.495599985261868</v>
       </c>
       <c r="P25" t="n">
-        <v>4.674628356872641</v>
+        <v>3.872976588659189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.692078846010148</v>
+        <v>3.865520913363892</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.382608420900994</v>
+        <v>2.532942863810107</v>
       </c>
       <c r="B26" t="n">
-        <v>3.353826359741473</v>
+        <v>2.50012158958942</v>
       </c>
       <c r="C26" t="n">
-        <v>3.355171377448177</v>
+        <v>2.496628652293349</v>
       </c>
       <c r="D26" t="n">
-        <v>3.371573944751848</v>
+        <v>2.534025661635232</v>
       </c>
       <c r="E26" t="n">
-        <v>3.378582053043294</v>
+        <v>2.530013250672427</v>
       </c>
       <c r="F26" t="n">
-        <v>3.543663434700828</v>
+        <v>2.793494479341369</v>
       </c>
       <c r="G26" t="n">
-        <v>3.566500882976721</v>
+        <v>2.752560136355014</v>
       </c>
       <c r="H26" t="n">
-        <v>3.773752208564896</v>
+        <v>3.098182069606742</v>
       </c>
       <c r="I26" t="n">
-        <v>3.830514291823919</v>
+        <v>2.920397438294307</v>
       </c>
       <c r="J26" t="n">
-        <v>3.97722274957738</v>
+        <v>3.357015328112213</v>
       </c>
       <c r="K26" t="n">
-        <v>4.054025626615478</v>
+        <v>2.964893678478552</v>
       </c>
       <c r="L26" t="n">
-        <v>3.980462052965426</v>
+        <v>3.258322609522744</v>
       </c>
       <c r="M26" t="n">
-        <v>3.989476157382346</v>
+        <v>3.231133485172484</v>
       </c>
       <c r="N26" t="n">
-        <v>4.363740886277121</v>
+        <v>3.573388574035687</v>
       </c>
       <c r="O26" t="n">
-        <v>4.370616020206113</v>
+        <v>3.49262652163253</v>
       </c>
       <c r="P26" t="n">
-        <v>4.640883416973907</v>
+        <v>3.895413484208137</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.661880787585585</v>
+        <v>3.856763187785182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.39981482421553</v>
+        <v>2.590931409006363</v>
       </c>
       <c r="B27" t="n">
-        <v>3.369196578785288</v>
+        <v>2.558309918353478</v>
       </c>
       <c r="C27" t="n">
-        <v>3.370775799085322</v>
+        <v>2.552417030912322</v>
       </c>
       <c r="D27" t="n">
-        <v>3.377324187452521</v>
+        <v>2.574108104198594</v>
       </c>
       <c r="E27" t="n">
-        <v>3.388024430744691</v>
+        <v>2.565633132412564</v>
       </c>
       <c r="F27" t="n">
-        <v>3.554677844898883</v>
+        <v>2.7957947196548</v>
       </c>
       <c r="G27" t="n">
-        <v>3.575696778920689</v>
+        <v>2.750664921744613</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7975710914934</v>
+        <v>3.074190210150297</v>
       </c>
       <c r="I27" t="n">
-        <v>3.840401414859196</v>
+        <v>2.887353454522628</v>
       </c>
       <c r="J27" t="n">
-        <v>4.002659786740868</v>
+        <v>3.337937634957393</v>
       </c>
       <c r="K27" t="n">
-        <v>4.044627274209757</v>
+        <v>2.934232177436193</v>
       </c>
       <c r="L27" t="n">
-        <v>4.011678683026706</v>
+        <v>3.261922716692617</v>
       </c>
       <c r="M27" t="n">
-        <v>4.02110908105581</v>
+        <v>3.234459208353064</v>
       </c>
       <c r="N27" t="n">
-        <v>4.376306065053514</v>
+        <v>3.561423394237299</v>
       </c>
       <c r="O27" t="n">
-        <v>4.383033549521494</v>
+        <v>3.49039505926867</v>
       </c>
       <c r="P27" t="n">
-        <v>4.638242797708708</v>
+        <v>3.895014644881524</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.657060466946661</v>
+        <v>3.858054684838238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.391070561917011</v>
+        <v>2.604182445338133</v>
       </c>
       <c r="B28" t="n">
-        <v>3.361034528560213</v>
+        <v>2.572490730670189</v>
       </c>
       <c r="C28" t="n">
-        <v>3.361536177337485</v>
+        <v>2.564972645753985</v>
       </c>
       <c r="D28" t="n">
-        <v>3.372496679010221</v>
+        <v>2.578938936370844</v>
       </c>
       <c r="E28" t="n">
-        <v>3.380443694117636</v>
+        <v>2.569078580172027</v>
       </c>
       <c r="F28" t="n">
-        <v>3.5538323795268</v>
+        <v>2.788222594921076</v>
       </c>
       <c r="G28" t="n">
-        <v>3.567875550372351</v>
+        <v>2.739394435627342</v>
       </c>
       <c r="H28" t="n">
-        <v>3.808189873013976</v>
+        <v>3.045784553072969</v>
       </c>
       <c r="I28" t="n">
-        <v>3.833329215320983</v>
+        <v>2.864335221542782</v>
       </c>
       <c r="J28" t="n">
-        <v>4.024623916906597</v>
+        <v>3.288319984861573</v>
       </c>
       <c r="K28" t="n">
-        <v>4.047202304769153</v>
+        <v>2.906328526609834</v>
       </c>
       <c r="L28" t="n">
-        <v>4.026556238047469</v>
+        <v>3.264774272316102</v>
       </c>
       <c r="M28" t="n">
-        <v>4.031658679968895</v>
+        <v>3.234540359055468</v>
       </c>
       <c r="N28" t="n">
-        <v>4.403948559886157</v>
+        <v>3.580636095959796</v>
       </c>
       <c r="O28" t="n">
-        <v>4.40628070258981</v>
+        <v>3.479950272450747</v>
       </c>
       <c r="P28" t="n">
-        <v>4.670901780314074</v>
+        <v>3.906138113582781</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.684890144158884</v>
+        <v>3.858035761804493</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.248414078570777</v>
+        <v>2.580942776473028</v>
       </c>
       <c r="B29" t="n">
-        <v>4.194487583743525</v>
+        <v>2.548187550918199</v>
       </c>
       <c r="C29" t="n">
-        <v>4.179203019356605</v>
+        <v>2.53890034429914</v>
       </c>
       <c r="D29" t="n">
-        <v>4.208329496094552</v>
+        <v>2.556622675162017</v>
       </c>
       <c r="E29" t="n">
-        <v>4.186816700082465</v>
+        <v>2.543565236021632</v>
       </c>
       <c r="F29" t="n">
-        <v>4.561517788540515</v>
+        <v>2.771172759565116</v>
       </c>
       <c r="G29" t="n">
-        <v>4.482554078112555</v>
+        <v>2.72327019135463</v>
       </c>
       <c r="H29" t="n">
-        <v>4.916264636351807</v>
+        <v>2.98673449846455</v>
       </c>
       <c r="I29" t="n">
-        <v>4.639344328576056</v>
+        <v>2.818555854108868</v>
       </c>
       <c r="J29" t="n">
-        <v>5.336658890361889</v>
+        <v>3.242258773396216</v>
       </c>
       <c r="K29" t="n">
-        <v>4.710536825587502</v>
+        <v>2.861766419711979</v>
       </c>
       <c r="L29" t="n">
-        <v>5.367639520878996</v>
+        <v>3.261004221747024</v>
       </c>
       <c r="M29" t="n">
-        <v>5.331274626649769</v>
+        <v>3.238945786872964</v>
       </c>
       <c r="N29" t="n">
-        <v>5.902061686627047</v>
+        <v>3.585693640632484</v>
       </c>
       <c r="O29" t="n">
-        <v>5.722990743157474</v>
+        <v>3.476982267388835</v>
       </c>
       <c r="P29" t="n">
-        <v>6.404374736727983</v>
+        <v>3.890871592204984</v>
       </c>
       <c r="Q29" t="n">
-        <v>6.388605894088616</v>
+        <v>3.881253232495398</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.138948625025625</v>
+        <v>2.5145935255022</v>
       </c>
       <c r="B30" t="n">
-        <v>4.091607955041487</v>
+        <v>2.485827784926985</v>
       </c>
       <c r="C30" t="n">
-        <v>4.087003867487454</v>
+        <v>2.483033544261476</v>
       </c>
       <c r="D30" t="n">
-        <v>4.148734819321834</v>
+        <v>2.520567199741264</v>
       </c>
       <c r="E30" t="n">
-        <v>4.147599745372065</v>
+        <v>2.519881057815782</v>
       </c>
       <c r="F30" t="n">
-        <v>4.535120281150929</v>
+        <v>2.75527904879004</v>
       </c>
       <c r="G30" t="n">
-        <v>4.436213411273081</v>
+        <v>2.695269196075836</v>
       </c>
       <c r="H30" t="n">
-        <v>4.896791679039422</v>
+        <v>2.974997850689076</v>
       </c>
       <c r="I30" t="n">
-        <v>4.537872311368455</v>
+        <v>2.75703889092827</v>
       </c>
       <c r="J30" t="n">
-        <v>5.291907027560284</v>
+        <v>3.215005237950326</v>
       </c>
       <c r="K30" t="n">
-        <v>4.549449167180669</v>
+        <v>2.763871925632477</v>
       </c>
       <c r="L30" t="n">
-        <v>5.344857778079266</v>
+        <v>3.247059401495374</v>
       </c>
       <c r="M30" t="n">
-        <v>5.299030739689358</v>
+        <v>3.219259281497867</v>
       </c>
       <c r="N30" t="n">
-        <v>5.961019643817388</v>
+        <v>3.621377023707013</v>
       </c>
       <c r="O30" t="n">
-        <v>5.707901147937123</v>
+        <v>3.467770389000259</v>
       </c>
       <c r="P30" t="n">
-        <v>6.273747192077124</v>
+        <v>3.811531314664123</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.368414156438647</v>
+        <v>3.868959810842444</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.006065607573788</v>
+        <v>2.433892245149722</v>
       </c>
       <c r="B31" t="n">
-        <v>3.960094214132749</v>
+        <v>2.405952567778349</v>
       </c>
       <c r="C31" t="n">
-        <v>3.958254136468534</v>
+        <v>2.404835562930687</v>
       </c>
       <c r="D31" t="n">
-        <v>4.03366797050425</v>
+        <v>2.450656051572545</v>
       </c>
       <c r="E31" t="n">
-        <v>4.047979486009165</v>
+        <v>2.459353732909566</v>
       </c>
       <c r="F31" t="n">
-        <v>4.476484876637079</v>
+        <v>2.719697377021888</v>
       </c>
       <c r="G31" t="n">
-        <v>4.368817871394923</v>
+        <v>2.654304467064141</v>
       </c>
       <c r="H31" t="n">
-        <v>4.872518766531011</v>
+        <v>2.960361793849013</v>
       </c>
       <c r="I31" t="n">
-        <v>4.546232026186366</v>
+        <v>2.762181407300561</v>
       </c>
       <c r="J31" t="n">
-        <v>5.284719823168057</v>
+        <v>3.210751922211775</v>
       </c>
       <c r="K31" t="n">
-        <v>4.562873288460476</v>
+        <v>2.772209341519365</v>
       </c>
       <c r="L31" t="n">
-        <v>5.322381516923009</v>
+        <v>3.233592387845772</v>
       </c>
       <c r="M31" t="n">
-        <v>5.262852129364288</v>
+        <v>3.197443570922029</v>
       </c>
       <c r="N31" t="n">
-        <v>6.008393856883947</v>
+        <v>3.650319439914592</v>
       </c>
       <c r="O31" t="n">
-        <v>5.678637803443228</v>
+        <v>3.45002604191543</v>
       </c>
       <c r="P31" t="n">
-        <v>6.221649394225409</v>
+        <v>3.779859978647904</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.346615944734178</v>
+        <v>3.855800660395682</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.979008918716276</v>
+        <v>2.417426476508373</v>
       </c>
       <c r="B32" t="n">
-        <v>3.932999789307514</v>
+        <v>2.389474790288663</v>
       </c>
       <c r="C32" t="n">
-        <v>3.926398989874032</v>
+        <v>2.385466018370809</v>
       </c>
       <c r="D32" t="n">
-        <v>4.005428887991412</v>
+        <v>2.433482124783761</v>
       </c>
       <c r="E32" t="n">
-        <v>4.007120417719193</v>
+        <v>2.434503240796969</v>
       </c>
       <c r="F32" t="n">
-        <v>4.449415908615466</v>
+        <v>2.703191396933831</v>
       </c>
       <c r="G32" t="n">
-        <v>4.334489221963711</v>
+        <v>2.633405068006927</v>
       </c>
       <c r="H32" t="n">
-        <v>4.834222749128142</v>
+        <v>2.936952363536951</v>
       </c>
       <c r="I32" t="n">
-        <v>4.543957685401526</v>
+        <v>2.760710323379181</v>
       </c>
       <c r="J32" t="n">
-        <v>5.271384051971412</v>
+        <v>3.202404316999025</v>
       </c>
       <c r="K32" t="n">
-        <v>4.594439724952714</v>
+        <v>2.791174588185204</v>
       </c>
       <c r="L32" t="n">
-        <v>5.290773151577746</v>
+        <v>3.214263600589343</v>
       </c>
       <c r="M32" t="n">
-        <v>5.22779481636585</v>
+        <v>3.176018693773913</v>
       </c>
       <c r="N32" t="n">
-        <v>6.039520040419414</v>
+        <v>3.66909072548455</v>
       </c>
       <c r="O32" t="n">
-        <v>5.674295771220605</v>
+        <v>3.447224341207772</v>
       </c>
       <c r="P32" t="n">
-        <v>6.095079963563827</v>
+        <v>3.702882532993629</v>
       </c>
       <c r="Q32" t="n">
-        <v>6.306436722846837</v>
+        <v>3.831248751921302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.026680527147509</v>
+        <v>2.446388361606438</v>
       </c>
       <c r="B33" t="n">
-        <v>3.977004420049838</v>
+        <v>2.416200482264432</v>
       </c>
       <c r="C33" t="n">
-        <v>3.973232620228365</v>
+        <v>2.41391880108025</v>
       </c>
       <c r="D33" t="n">
-        <v>4.023361259446908</v>
+        <v>2.444363960900282</v>
       </c>
       <c r="E33" t="n">
-        <v>4.033889893933479</v>
+        <v>2.450788148904261</v>
       </c>
       <c r="F33" t="n">
-        <v>4.429177450243555</v>
+        <v>2.690991316783867</v>
       </c>
       <c r="G33" t="n">
-        <v>4.338868990154057</v>
+        <v>2.636118339922279</v>
       </c>
       <c r="H33" t="n">
-        <v>4.799705120366506</v>
+        <v>2.916103911109049</v>
       </c>
       <c r="I33" t="n">
-        <v>4.576030562539954</v>
+        <v>2.780248173768035</v>
       </c>
       <c r="J33" t="n">
-        <v>5.288047776131072</v>
+        <v>3.212751941316761</v>
       </c>
       <c r="K33" t="n">
-        <v>4.645134104195296</v>
+        <v>2.822086637472429</v>
       </c>
       <c r="L33" t="n">
-        <v>5.24474305774247</v>
+        <v>3.186495140282908</v>
       </c>
       <c r="M33" t="n">
-        <v>5.186752459089793</v>
+        <v>3.151255356787888</v>
       </c>
       <c r="N33" t="n">
-        <v>6.04541224223676</v>
+        <v>3.672984867486452</v>
       </c>
       <c r="O33" t="n">
-        <v>5.656109430712496</v>
+        <v>3.43631594006311</v>
       </c>
       <c r="P33" t="n">
-        <v>5.926534360170944</v>
+        <v>3.600605719032069</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.226709607802001</v>
+        <v>3.783045962502371</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.16012449275447</v>
+        <v>2.527425889712374</v>
       </c>
       <c r="B34" t="n">
-        <v>4.097282426314908</v>
+        <v>2.489249760846515</v>
       </c>
       <c r="C34" t="n">
-        <v>4.096795752128002</v>
+        <v>2.488947356211099</v>
       </c>
       <c r="D34" t="n">
-        <v>4.069842387944017</v>
+        <v>2.47260822633404</v>
       </c>
       <c r="E34" t="n">
-        <v>4.085414763957778</v>
+        <v>2.482055914835431</v>
       </c>
       <c r="F34" t="n">
-        <v>4.380817909130891</v>
+        <v>2.661533793763496</v>
       </c>
       <c r="G34" t="n">
-        <v>4.373554633819603</v>
+        <v>2.657156386592121</v>
       </c>
       <c r="H34" t="n">
-        <v>4.808755463292113</v>
+        <v>2.921458765754222</v>
       </c>
       <c r="I34" t="n">
-        <v>4.672623259222588</v>
+        <v>2.838825880341834</v>
       </c>
       <c r="J34" t="n">
-        <v>5.280397557404718</v>
+        <v>3.208080499313358</v>
       </c>
       <c r="K34" t="n">
-        <v>4.768433683304485</v>
+        <v>2.897003291971039</v>
       </c>
       <c r="L34" t="n">
-        <v>5.190013325887967</v>
+        <v>3.153113089235295</v>
       </c>
       <c r="M34" t="n">
-        <v>5.156977582588984</v>
+        <v>3.133067774028045</v>
       </c>
       <c r="N34" t="n">
-        <v>5.838117190844716</v>
+        <v>3.546866850529413</v>
       </c>
       <c r="O34" t="n">
-        <v>5.6695661965993</v>
+        <v>3.444551098786879</v>
       </c>
       <c r="P34" t="n">
-        <v>6.252584501987802</v>
+        <v>3.798656373628023</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.074204186625924</v>
+        <v>3.690281975946823</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.036055818684066</v>
+        <v>2.452032884229698</v>
       </c>
       <c r="B35" t="n">
-        <v>3.988852016455877</v>
+        <v>2.423365579820404</v>
       </c>
       <c r="C35" t="n">
-        <v>3.989781938517627</v>
+        <v>2.423923809315864</v>
       </c>
       <c r="D35" t="n">
-        <v>4.029831480452394</v>
+        <v>2.448272841034235</v>
       </c>
       <c r="E35" t="n">
-        <v>4.037830607134284</v>
+        <v>2.45311440838909</v>
       </c>
       <c r="F35" t="n">
-        <v>4.416590109073419</v>
+        <v>2.683194844928923</v>
       </c>
       <c r="G35" t="n">
-        <v>4.38245702779239</v>
+        <v>2.662498504579966</v>
       </c>
       <c r="H35" t="n">
-        <v>4.816842041581742</v>
+        <v>2.926361469064251</v>
       </c>
       <c r="I35" t="n">
-        <v>4.741603410253312</v>
+        <v>2.880732394186808</v>
       </c>
       <c r="J35" t="n">
-        <v>5.189344860174014</v>
+        <v>3.15272407533005</v>
       </c>
       <c r="K35" t="n">
-        <v>4.783222588750279</v>
+        <v>2.906035401539043</v>
       </c>
       <c r="L35" t="n">
-        <v>5.251489410194312</v>
+        <v>3.190365992397125</v>
       </c>
       <c r="M35" t="n">
-        <v>5.204203846702723</v>
+        <v>3.161667028296759</v>
       </c>
       <c r="N35" t="n">
-        <v>5.933820396859589</v>
+        <v>3.604954377748332</v>
       </c>
       <c r="O35" t="n">
-        <v>5.734769156956019</v>
+        <v>3.484107517402595</v>
       </c>
       <c r="P35" t="n">
-        <v>6.246857020664486</v>
+        <v>3.795246588509079</v>
       </c>
       <c r="Q35" t="n">
-        <v>6.155742628121472</v>
+        <v>3.739924007643814</v>
       </c>
     </row>
   </sheetData>
